--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\RKK_USER02_会員登録画面_エビデンス - コピー\打鍵後のUCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE6EFA-EA3A-462A-97CA-8D5B3B7205C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E97A71-E5CC-4C8C-BBCA-17CAB0333C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="319">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2167,13 +2167,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>EB 古屋</t>
-    <rPh sb="3" eb="5">
-      <t>コヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UT-USER02-B-010</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2253,6 +2246,29 @@
       <t>コヤ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目が無い</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目が違う</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B-画面項目確認.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3439,59 +3455,89 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3502,113 +3548,152 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3622,63 +3707,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3697,6 +3725,108 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3733,109 +3863,73 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3857,84 +3951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4337,7 +4353,7 @@
   <dimension ref="B1:AB57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="T7" sqref="T7:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -4366,26 +4382,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4398,37 +4414,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="107"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="113">
+      <c r="L3" s="109">
         <v>45069</v>
       </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="110"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4501,67 +4517,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="98" t="s">
+      <c r="Q7" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="102" t="s">
+      <c r="R7" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="103">
+      <c r="S7" s="112">
         <v>45069</v>
       </c>
-      <c r="T7" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="U7" s="98"/>
+      <c r="T7" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="U7" s="111"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4569,27 +4585,27 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="99"/>
-      <c r="J13" s="101"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="100"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
@@ -4599,12 +4615,12 @@
       <c r="K14" s="100"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4618,9 +4634,9 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="115"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="100"/>
-      <c r="J17" s="115"/>
+      <c r="J17" s="99"/>
       <c r="K17" s="100"/>
       <c r="M17" s="33"/>
     </row>
@@ -4644,9 +4660,9 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="115"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="100"/>
-      <c r="J21" s="115"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="100"/>
       <c r="M21" s="33"/>
     </row>
@@ -4668,7 +4684,7 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="104"/>
+      <c r="G25" s="113"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
@@ -4820,21 +4836,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4845,6 +4846,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4865,8 +4881,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="Q8" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D22" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -4889,59 +4905,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="142" t="s">
+      <c r="M3" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="134"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4951,10 +4967,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4969,57 +4985,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="147" t="s">
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="147" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="144"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="135"/>
+      <c r="D6" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146" t="s">
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="145"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5044,32 +5060,32 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124" t="s">
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="126" t="s">
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="127"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5090,32 +5106,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="123" t="s">
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="119">
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="117">
         <v>8</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119" t="s">
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="119"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5136,32 +5152,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="116" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="123" t="s">
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="116">
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="126">
         <v>5</v>
       </c>
-      <c r="N9" s="117"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="116" t="s">
+      <c r="N9" s="127"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="128"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="149"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>280</v>
@@ -5189,30 +5205,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="135" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="146" t="s">
         <v>299</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="120" t="s">
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="116">
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="126">
         <v>50</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="128"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="149"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>298</v>
@@ -5235,30 +5251,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="123" t="s">
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="119">
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="117">
         <v>50</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="125"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="119"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5279,32 +5295,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="116" t="s">
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="123" t="s">
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="116">
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="126">
         <v>10</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="116" t="s">
+      <c r="N12" s="127"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="128"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="149"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>281</v>
@@ -5330,30 +5346,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="130" t="s">
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="120" t="s">
+      <c r="H13" s="151"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="116">
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="126">
         <v>50</v>
       </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="128"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="149"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>300</v>
@@ -5376,30 +5392,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="129" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="123" t="s">
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="119">
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="117">
         <v>50</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="125"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="119"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5413,39 +5429,39 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="3:28" ht="37.5">
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="130" t="s">
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="120" t="s">
+      <c r="H15" s="151"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="116">
+      <c r="K15" s="123"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="126">
         <v>16</v>
       </c>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="116" t="s">
+      <c r="N15" s="127"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="128"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="149"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>282</v>
@@ -5471,33 +5487,33 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="130" t="s">
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="120" t="s">
+      <c r="H16" s="151"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="116">
+      <c r="K16" s="123"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="126">
         <v>50</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="128"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="149"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>107</v>
@@ -5509,7 +5525,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5517,30 +5533,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="129" t="s">
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="123" t="s">
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="119">
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="117">
         <v>50</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="125"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="119"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5554,39 +5570,39 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="3:28" ht="37.5">
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="116" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="123" t="s">
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="116">
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="126">
         <v>6</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="116" t="s">
+      <c r="N18" s="127"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="126" t="s">
         <v>283</v>
       </c>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="128"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="149"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>284</v>
@@ -5612,33 +5628,33 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="116" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="120" t="s">
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="121"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="116">
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="126">
         <v>50</v>
       </c>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="128"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="149"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>107</v>
@@ -5650,41 +5666,43 @@
         <v>45069</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA19" s="19"/>
+        <v>315</v>
+      </c>
+      <c r="AA19" s="19" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="20" spans="3:28" ht="37.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D20" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="116" t="s">
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="120" t="s">
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="116">
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="126">
         <v>50</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="128"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="149"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>107</v>
@@ -5696,38 +5714,40 @@
         <v>45069</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA20" s="19"/>
+        <v>315</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="21" spans="3:28" ht="37.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="123" t="s">
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="119">
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="117">
         <v>50</v>
       </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="125"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="119"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5741,39 +5761,39 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="3:28" ht="37.5">
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="123" t="s">
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="119">
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="117">
         <v>8</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119" t="s">
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="125"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="119"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>285</v>
@@ -5799,33 +5819,33 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119" t="s">
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="123" t="s">
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="119">
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="117">
         <v>4</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="125"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="119"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W23" s="21" t="s">
         <v>107</v>
@@ -5837,7 +5857,7 @@
         <v>45069</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA23" s="19"/>
     </row>
@@ -5845,30 +5865,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119" t="s">
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="123" t="s">
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="119">
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="117">
         <v>2</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="125"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="119"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5883,7 +5903,7 @@
         <v>45069</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA24" s="19"/>
     </row>
@@ -5891,33 +5911,33 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="123" t="s">
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="119">
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="117">
         <v>2</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="125"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="119"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W25" s="21" t="s">
         <v>107</v>
@@ -5929,7 +5949,7 @@
         <v>45069</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA25" s="19"/>
     </row>
@@ -5937,30 +5957,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="262" t="s">
+      <c r="D26" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="262"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="262" t="s">
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="262"/>
-      <c r="I26" s="262"/>
-      <c r="J26" s="199" t="s">
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="262">
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="156">
         <v>50</v>
       </c>
-      <c r="N26" s="262"/>
-      <c r="O26" s="262"/>
-      <c r="P26" s="262"/>
-      <c r="Q26" s="262"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="263"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="158"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -5973,40 +5993,40 @@
       </c>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="261" t="s">
-        <v>315</v>
+      <c r="AA26" s="98" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="3:28" ht="37.5">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119" t="s">
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="123" t="s">
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="126">
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="120">
         <v>10</v>
       </c>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="119" t="s">
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="125"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="119"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>286</v>
@@ -6032,32 +6052,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="123" t="s">
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="124">
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="125">
         <v>4</v>
       </c>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="126" t="s">
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="127"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="121"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>287</v>
@@ -6081,35 +6101,35 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119" t="s">
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="123" t="s">
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="124" t="s">
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="126" t="s">
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="121"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>107</v>
@@ -6121,40 +6141,42 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA29" s="19"/>
+        <v>315</v>
+      </c>
+      <c r="AA29" s="19" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="30" spans="3:28" ht="37.5">
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119" t="s">
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="123" t="s">
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="124">
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="125">
         <v>6</v>
       </c>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="126" t="s">
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="127"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="121"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>288</v>
@@ -6178,35 +6200,35 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="123" t="s">
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="124" t="s">
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="126" t="s">
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="127"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="121"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>107</v>
@@ -6218,38 +6240,40 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA31" s="19"/>
+        <v>315</v>
+      </c>
+      <c r="AA31" s="19" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="32" spans="3:28" ht="37.5">
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119" t="s">
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="123" t="s">
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="119">
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="117">
         <v>50</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="125"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="119"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6262,38 +6286,40 @@
       </c>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
-      <c r="AA32" s="97"/>
+      <c r="AA32" s="19" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="33" spans="3:28" ht="37.5">
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="116" t="s">
+      <c r="E33" s="127"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="123" t="s">
+      <c r="H33" s="127"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="116">
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="126">
         <v>4</v>
       </c>
-      <c r="N33" s="117"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="126" t="s">
+      <c r="N33" s="127"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="127"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="121"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>289</v>
@@ -6319,33 +6345,33 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120" t="s">
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="121"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="119">
+      <c r="K34" s="123"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="117">
         <v>80</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="127"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="121"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>107</v>
@@ -6357,38 +6383,40 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA34" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="AA34" s="19"/>
     </row>
     <row r="35" spans="3:28" ht="37.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119" t="s">
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="123" t="s">
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="119">
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="117">
         <v>50</v>
       </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="125"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="119"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6401,38 +6429,40 @@
       </c>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
-      <c r="AA35" s="97"/>
+      <c r="AA35" s="19" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="36" spans="3:28" ht="37.5">
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="123" t="s">
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="119">
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="117">
         <v>4</v>
       </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="126" t="s">
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="127"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="121"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>290</v>
@@ -6458,33 +6488,33 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119" t="s">
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120" t="s">
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="121"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="119">
+      <c r="K37" s="123"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="117">
         <v>100</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="127"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="121"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>107</v>
@@ -6496,7 +6526,7 @@
         <v>45069</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA37" s="19"/>
     </row>
@@ -6504,30 +6534,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119" t="s">
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="123" t="s">
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="119">
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="117">
         <v>50</v>
       </c>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="125"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="119"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6541,39 +6571,39 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="3:28" ht="37.5">
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="116" t="s">
+      <c r="E39" s="127"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="120" t="s">
+      <c r="H39" s="127"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="121"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="116" t="s">
+      <c r="K39" s="123"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="117"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="116" t="s">
+      <c r="N39" s="127"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="126" t="s">
         <v>293</v>
       </c>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="128"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="149"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>291</v>
@@ -6599,32 +6629,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="116" t="s">
+      <c r="E40" s="127"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="120" t="s">
+      <c r="H40" s="127"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="121"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="116" t="s">
+      <c r="K40" s="123"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="117"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="116" t="s">
+      <c r="N40" s="127"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="128"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="149"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>292</v>
@@ -6648,22 +6678,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="128"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="126"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="126"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="149"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6674,22 +6704,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="128"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="149"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6700,22 +6730,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="128"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
+      <c r="S43" s="149"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6726,22 +6756,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="128"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="126"/>
+      <c r="Q44" s="127"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="149"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6752,22 +6782,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="128"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="149"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6778,22 +6808,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="128"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="149"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6804,22 +6834,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="128"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="127"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="126"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="149"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6830,22 +6860,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="117"/>
-      <c r="S48" s="128"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="126"/>
+      <c r="Q48" s="127"/>
+      <c r="R48" s="127"/>
+      <c r="S48" s="149"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6856,22 +6886,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="116"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="117"/>
-      <c r="S49" s="128"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="127"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="127"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="149"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6882,22 +6912,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="116"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="117"/>
-      <c r="S50" s="128"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="126"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="127"/>
+      <c r="S50" s="149"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6908,22 +6938,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="127"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="121"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6934,22 +6964,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="126"/>
-      <c r="S52" s="127"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="121"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6960,22 +6990,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="127"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="121"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6985,22 +7015,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="127"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="121"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7010,155 +7040,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="127"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="121"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="127"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="121"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
-      <c r="M57" s="126"/>
-      <c r="N57" s="126"/>
-      <c r="O57" s="126"/>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="127"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="121"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="127"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="120"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="121"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="126"/>
-      <c r="O59" s="126"/>
-      <c r="P59" s="126"/>
-      <c r="Q59" s="126"/>
-      <c r="R59" s="126"/>
-      <c r="S59" s="127"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="120"/>
+      <c r="S59" s="121"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
-      <c r="M60" s="126"/>
-      <c r="N60" s="126"/>
-      <c r="O60" s="126"/>
-      <c r="P60" s="126"/>
-      <c r="Q60" s="126"/>
-      <c r="R60" s="126"/>
-      <c r="S60" s="127"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="120"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="120"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="120"/>
+      <c r="S60" s="121"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="126"/>
-      <c r="N61" s="126"/>
-      <c r="O61" s="126"/>
-      <c r="P61" s="126"/>
-      <c r="Q61" s="126"/>
-      <c r="R61" s="126"/>
-      <c r="S61" s="127"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="120"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="120"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="120"/>
+      <c r="S61" s="121"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
-      <c r="P62" s="133"/>
-      <c r="Q62" s="133"/>
-      <c r="R62" s="133"/>
-      <c r="S62" s="134"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="153"/>
+      <c r="P62" s="153"/>
+      <c r="Q62" s="153"/>
+      <c r="R62" s="153"/>
+      <c r="S62" s="154"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7175,37 +7205,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7230,243 +7466,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7501,71 +7531,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="180">
         <v>45069</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="181"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7582,53 +7612,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="144"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="145"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7663,14 +7693,14 @@
       </c>
       <c r="H7" s="163"/>
       <c r="I7" s="168"/>
-      <c r="J7" s="159" t="s">
+      <c r="J7" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="173"/>
       <c r="P7" s="162"/>
       <c r="Q7" s="163"/>
       <c r="R7" s="163"/>
@@ -7689,11 +7719,11 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="162" t="s">
         <v>231</v>
       </c>
@@ -7702,11 +7732,11 @@
       <c r="J8" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="161"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="173"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7765,11 +7795,11 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="162" t="s">
         <v>233</v>
       </c>
@@ -7778,11 +7808,11 @@
       <c r="J10" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="177"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="171"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7854,11 +7884,11 @@
       <c r="J12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="173"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7887,10 +7917,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="172"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="161"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -8499,22 +8529,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="133"/>
-      <c r="Q37" s="133"/>
-      <c r="R37" s="133"/>
-      <c r="S37" s="134"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="154"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8658,6 +8688,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8674,21 +8719,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8723,71 +8753,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="132"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="157">
+      <c r="Q3" s="180">
         <v>45069</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="158"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="181"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8805,53 +8835,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="147" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="153"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="144"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="144"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="145"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8912,17 +8942,17 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="162" t="s">
         <v>119</v>
       </c>
       <c r="H8" s="163"/>
       <c r="I8" s="168"/>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="182" t="s">
         <v>120</v>
       </c>
       <c r="K8" s="163"/>
@@ -8988,24 +9018,24 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="162" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="163"/>
       <c r="I10" s="168"/>
-      <c r="J10" s="178" t="s">
+      <c r="J10" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="180"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="184"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -9064,24 +9094,24 @@
       <c r="C12" s="42">
         <v>7</v>
       </c>
-      <c r="D12" s="181" t="s">
+      <c r="D12" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="183"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
       <c r="G12" s="162" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="163"/>
       <c r="I12" s="168"/>
-      <c r="J12" s="178" t="s">
+      <c r="J12" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="180"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="184"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -9186,10 +9216,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="161"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9798,22 +9828,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="134"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="153"/>
+      <c r="R39" s="153"/>
+      <c r="S39" s="154"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9939,12 +9969,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9961,18 +9997,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9984,7 +10014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A46AA4-5DF5-46CC-88D3-22945FDEBCC1}">
   <dimension ref="C1:AH63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="V19" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="J33" sqref="J33:L33"/>
     </sheetView>
   </sheetViews>
@@ -10018,84 +10048,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="141"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="132"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="179"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="157">
+      <c r="R3" s="180">
         <v>45069</v>
       </c>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10110,75 +10140,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186" t="s">
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186" t="s">
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="188" t="s">
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="226" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="189"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="186" t="s">
+      <c r="N5" s="227"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="224" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="186" t="s">
+      <c r="Q5" s="224" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186" t="s">
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186" t="s">
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
+      <c r="W5" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="194"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="232"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="185"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
-      <c r="X6" s="187"/>
-      <c r="Y6" s="187"/>
-      <c r="Z6" s="195"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="230"/>
+      <c r="O6" s="231"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="225"/>
+      <c r="R6" s="225"/>
+      <c r="S6" s="225"/>
+      <c r="T6" s="225"/>
+      <c r="U6" s="225"/>
+      <c r="V6" s="225"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="225"/>
+      <c r="Z6" s="233"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10203,43 +10233,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="196" t="s">
+      <c r="D7" s="218" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="219"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199" t="s">
+      <c r="H7" s="219"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="196" t="s">
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="197"/>
-      <c r="O7" s="198"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="220"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="196" t="s">
+      <c r="Q7" s="218" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="197"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="197" t="s">
+      <c r="R7" s="219"/>
+      <c r="S7" s="220"/>
+      <c r="T7" s="219" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="197"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="208"/>
-      <c r="Z7" s="209"/>
+      <c r="U7" s="219"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="213"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10254,39 +10284,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="201"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="200" t="s">
+      <c r="E8" s="199"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="210" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="203" t="s">
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="203" t="s">
+      <c r="Q8" s="205" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203" t="s">
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="205" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
+      <c r="U8" s="205"/>
+      <c r="V8" s="205"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10305,39 +10335,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200" t="s">
+      <c r="E9" s="199"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="203" t="s">
+      <c r="H9" s="199"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="204" t="s">
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="205"/>
-      <c r="O9" s="206"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="207"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="203" t="s">
+      <c r="Q9" s="205" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="203"/>
-      <c r="S9" s="203"/>
-      <c r="T9" s="203" t="s">
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="203"/>
-      <c r="V9" s="203"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10356,43 +10386,43 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="215" t="s">
+      <c r="D10" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="216"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="215" t="s">
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="216"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="199" t="s">
+      <c r="H10" s="215"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="199"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="218" t="s">
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="203" t="s">
+      <c r="Q10" s="205" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203" t="s">
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="203"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="212"/>
-      <c r="Z10" s="213"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="202"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
+      <c r="Z10" s="214"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10450,43 +10480,43 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="200" t="s">
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="210" t="s">
+      <c r="H12" s="199"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="214" t="s">
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
+      <c r="N12" s="208"/>
+      <c r="O12" s="208"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="203" t="s">
+      <c r="Q12" s="205" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="203"/>
-      <c r="S12" s="203"/>
-      <c r="T12" s="203" t="s">
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="203"/>
-      <c r="V12" s="203"/>
-      <c r="W12" s="211"/>
-      <c r="X12" s="212"/>
-      <c r="Y12" s="212"/>
-      <c r="Z12" s="213"/>
+      <c r="U12" s="205"/>
+      <c r="V12" s="205"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="214"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10544,39 +10574,39 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="200" t="s">
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="210" t="s">
+      <c r="H14" s="199"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="214" t="s">
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="214"/>
-      <c r="O14" s="214"/>
+      <c r="N14" s="208"/>
+      <c r="O14" s="208"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="203" t="s">
+      <c r="Q14" s="205" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="203"/>
-      <c r="S14" s="203"/>
-      <c r="T14" s="203" t="s">
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="203"/>
-      <c r="V14" s="203"/>
+      <c r="U14" s="205"/>
+      <c r="V14" s="205"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10638,39 +10668,39 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="205"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="200" t="s">
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="210" t="s">
+      <c r="H16" s="199"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210"/>
-      <c r="M16" s="214" t="s">
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="208" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="214"/>
-      <c r="O16" s="214"/>
+      <c r="N16" s="208"/>
+      <c r="O16" s="208"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="203" t="s">
+      <c r="Q16" s="205" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="203"/>
-      <c r="S16" s="203"/>
-      <c r="T16" s="203" t="s">
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="205" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="203"/>
-      <c r="V16" s="203"/>
+      <c r="U16" s="205"/>
+      <c r="V16" s="205"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10732,39 +10762,39 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="200" t="s">
+      <c r="D18" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="200" t="s">
+      <c r="E18" s="199"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="210" t="s">
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="214" t="s">
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="208" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="203" t="s">
+      <c r="Q18" s="205" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="203"/>
-      <c r="S18" s="203"/>
-      <c r="T18" s="203" t="s">
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="203"/>
-      <c r="V18" s="203"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
@@ -10826,39 +10856,39 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="200" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="210" t="s">
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="214" t="s">
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="208" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="208"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="203" t="s">
+      <c r="Q20" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="203"/>
-      <c r="S20" s="203"/>
-      <c r="T20" s="203" t="s">
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="203"/>
-      <c r="V20" s="203"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -10920,39 +10950,39 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="200" t="s">
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="210" t="s">
+      <c r="H22" s="199"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="214" t="s">
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="208" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="214"/>
-      <c r="O22" s="214"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="203" t="s">
+      <c r="Q22" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="203"/>
-      <c r="S22" s="203"/>
-      <c r="T22" s="203" t="s">
+      <c r="R22" s="205"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="205" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="203"/>
-      <c r="V22" s="203"/>
+      <c r="U22" s="205"/>
+      <c r="V22" s="205"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
@@ -11014,39 +11044,39 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="205"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="200" t="s">
+      <c r="E24" s="206"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="201"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="219" t="s">
+      <c r="H24" s="199"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="214" t="s">
+      <c r="K24" s="210"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="208"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="203" t="s">
+      <c r="Q24" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="203"/>
-      <c r="S24" s="203"/>
-      <c r="T24" s="203" t="s">
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="203"/>
-      <c r="V24" s="203"/>
+      <c r="U24" s="205"/>
+      <c r="V24" s="205"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -11108,39 +11138,39 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="200" t="s">
+      <c r="E26" s="199"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="201"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203" t="s">
+      <c r="H26" s="199"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="220" t="s">
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="220"/>
-      <c r="O26" s="220"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="209"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="203" t="s">
+      <c r="Q26" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="203"/>
-      <c r="S26" s="203"/>
-      <c r="T26" s="203" t="s">
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="203"/>
-      <c r="V26" s="203"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
@@ -11202,39 +11232,39 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="200" t="s">
+      <c r="E28" s="206"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="205"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="214" t="s">
+      <c r="H28" s="206"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="203"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203" t="s">
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
+      <c r="N28" s="205"/>
+      <c r="O28" s="205"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="203" t="s">
+      <c r="Q28" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="203"/>
-      <c r="S28" s="203"/>
-      <c r="T28" s="214" t="s">
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="203"/>
-      <c r="V28" s="203"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -11296,39 +11326,39 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="224" t="s">
+      <c r="D30" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="224" t="s">
+      <c r="E30" s="192"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="191" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="225"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="203" t="s">
+      <c r="H30" s="192"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="205" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="203"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203" t="s">
+      <c r="K30" s="205"/>
+      <c r="L30" s="205"/>
+      <c r="M30" s="205" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
+      <c r="N30" s="205"/>
+      <c r="O30" s="205"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="203" t="s">
+      <c r="Q30" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="203"/>
-      <c r="S30" s="203"/>
-      <c r="T30" s="203" t="s">
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="203"/>
-      <c r="V30" s="203"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
@@ -11390,39 +11420,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="215" t="s">
+      <c r="D32" s="194" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="221"/>
-      <c r="F32" s="222"/>
-      <c r="G32" s="215" t="s">
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="221"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="199" t="s">
+      <c r="H32" s="195"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="199"/>
-      <c r="L32" s="199"/>
-      <c r="M32" s="211" t="s">
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="202" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="212"/>
-      <c r="O32" s="223"/>
+      <c r="N32" s="203"/>
+      <c r="O32" s="204"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="215" t="s">
+      <c r="Q32" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="221"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="211" t="s">
+      <c r="R32" s="195"/>
+      <c r="S32" s="196"/>
+      <c r="T32" s="202" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="212"/>
-      <c r="V32" s="223"/>
+      <c r="U32" s="203"/>
+      <c r="V32" s="204"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11441,39 +11471,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="200" t="s">
+      <c r="D33" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="200" t="s">
+      <c r="E33" s="199"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="198" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="201"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="210" t="s">
+      <c r="H33" s="199"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="211" t="s">
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="202" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="212"/>
-      <c r="O33" s="223"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="204"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="215" t="s">
+      <c r="Q33" s="194" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="221"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="211" t="s">
+      <c r="R33" s="195"/>
+      <c r="S33" s="196"/>
+      <c r="T33" s="202" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="212"/>
-      <c r="V33" s="223"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="204"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11492,43 +11522,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="200" t="s">
+      <c r="D34" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="200" t="s">
+      <c r="E34" s="199"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="198" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="210" t="s">
+      <c r="H34" s="199"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="215" t="s">
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
+      <c r="M34" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="221"/>
-      <c r="O34" s="222"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="196"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="215" t="s">
+      <c r="Q34" s="194" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="221"/>
-      <c r="S34" s="222"/>
-      <c r="T34" s="211" t="s">
+      <c r="R34" s="195"/>
+      <c r="S34" s="196"/>
+      <c r="T34" s="202" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="212"/>
-      <c r="V34" s="223"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="228"/>
-      <c r="Y34" s="228"/>
-      <c r="Z34" s="229"/>
+      <c r="U34" s="203"/>
+      <c r="V34" s="204"/>
+      <c r="W34" s="188"/>
+      <c r="X34" s="189"/>
+      <c r="Y34" s="189"/>
+      <c r="Z34" s="190"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11543,43 +11573,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="224" t="s">
+      <c r="D35" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="225"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="224" t="s">
+      <c r="E35" s="192"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="191" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="225"/>
-      <c r="I35" s="226"/>
-      <c r="J35" s="215" t="s">
+      <c r="H35" s="192"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="221"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="215" t="s">
+      <c r="K35" s="195"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="194" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="221"/>
-      <c r="O35" s="222"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="196"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="215" t="s">
+      <c r="Q35" s="194" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="221"/>
-      <c r="S35" s="222"/>
-      <c r="T35" s="230" t="s">
+      <c r="R35" s="195"/>
+      <c r="S35" s="196"/>
+      <c r="T35" s="197" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="221"/>
-      <c r="V35" s="222"/>
-      <c r="W35" s="227"/>
-      <c r="X35" s="228"/>
-      <c r="Y35" s="228"/>
-      <c r="Z35" s="229"/>
+      <c r="U35" s="195"/>
+      <c r="V35" s="196"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="189"/>
+      <c r="Y35" s="189"/>
+      <c r="Z35" s="190"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12384,29 +12414,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="133"/>
-      <c r="P60" s="133"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
+      <c r="N60" s="153"/>
+      <c r="O60" s="153"/>
+      <c r="P60" s="153"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="133"/>
-      <c r="X60" s="133"/>
-      <c r="Y60" s="133"/>
-      <c r="Z60" s="134"/>
+      <c r="W60" s="153"/>
+      <c r="X60" s="153"/>
+      <c r="Y60" s="153"/>
+      <c r="Z60" s="154"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12460,6 +12490,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12484,115 +12623,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12630,64 +12660,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="257" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="233"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
+      <c r="N2" s="258"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="259"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="156"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12700,10 +12730,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12739,71 +12769,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234" t="s">
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234" t="s">
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234" t="s">
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234" t="s">
+      <c r="M5" s="260"/>
+      <c r="N5" s="260"/>
+      <c r="O5" s="260" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234" t="s">
+      <c r="P5" s="260"/>
+      <c r="Q5" s="260"/>
+      <c r="R5" s="260" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
-      <c r="U5" s="234" t="s">
+      <c r="S5" s="260"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="234"/>
-      <c r="W5" s="234"/>
-      <c r="X5" s="236"/>
+      <c r="V5" s="260"/>
+      <c r="W5" s="260"/>
+      <c r="X5" s="262"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="144"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="235"/>
-      <c r="L6" s="235"/>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="235"/>
-      <c r="R6" s="235"/>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="235"/>
-      <c r="X6" s="237"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="263"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12828,40 +12858,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="238" t="s">
+      <c r="D7" s="250"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="249" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="241" t="s">
+      <c r="G7" s="250"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="246" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="244" t="s">
+      <c r="J7" s="252"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="245"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="241" t="s">
+      <c r="M7" s="255"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="246" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="242"/>
-      <c r="Q7" s="243"/>
-      <c r="R7" s="247" t="s">
+      <c r="P7" s="252"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="234" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="228"/>
-      <c r="T7" s="248"/>
-      <c r="U7" s="249"/>
-      <c r="V7" s="250"/>
-      <c r="W7" s="250"/>
-      <c r="X7" s="251"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="237"/>
+      <c r="X7" s="238"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12876,36 +12906,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="256" t="s">
+      <c r="C8" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="256" t="s">
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="243" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="257"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="247" t="s">
+      <c r="G8" s="244"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="234" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="254"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="247" t="s">
+      <c r="J8" s="241"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="234" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="254"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="241" t="s">
+      <c r="M8" s="241"/>
+      <c r="N8" s="242"/>
+      <c r="O8" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="247" t="s">
+      <c r="P8" s="247"/>
+      <c r="Q8" s="248"/>
+      <c r="R8" s="234" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="254"/>
-      <c r="T8" s="255"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="242"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -12966,34 +12996,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="227" t="s">
+      <c r="C10" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="227" t="s">
+      <c r="D10" s="239"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="188" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="252"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="247" t="s">
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="234" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="254"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="247" t="s">
+      <c r="J10" s="241"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="234" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="254"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="247" t="s">
+      <c r="M10" s="241"/>
+      <c r="N10" s="242"/>
+      <c r="O10" s="234" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="247"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="255"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="242"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="242"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13494,6 +13524,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13510,22 +13556,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E97A71-E5CC-4C8C-BBCA-17CAB0333C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94029283-26DE-4AB3-BF62-C5970400142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="324">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1791,24 +1791,12 @@
     <t>UT-USER02-E-003</t>
   </si>
   <si>
-    <t>UT-USER02-E-004</t>
-  </si>
-  <si>
     <t>UT-USER02-E-005</t>
   </si>
   <si>
-    <t>UT-USER02-E-006</t>
-  </si>
-  <si>
     <t>UT-USER02-E-007</t>
   </si>
   <si>
-    <t>UT-USER02-E-008</t>
-  </si>
-  <si>
-    <t>UT-USER02-E-009</t>
-  </si>
-  <si>
     <t>UT-USER02-E-010</t>
   </si>
   <si>
@@ -1827,19 +1815,10 @@
     <t>UT-USER02-E-015</t>
   </si>
   <si>
-    <t>UT-USER02-E-016</t>
-  </si>
-  <si>
     <t>UT-USER02-E-017</t>
   </si>
   <si>
-    <t>UT-USER02-E-018</t>
-  </si>
-  <si>
     <t>UT-USER02-E-019</t>
-  </si>
-  <si>
-    <t>UT-USER02-E-020</t>
   </si>
   <si>
     <t>UT-USER02-E-021</t>
@@ -1985,9 +1964,6 @@
   <si>
     <t>UT-USER02-E-023</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UT-USER02-E-024</t>
   </si>
   <si>
     <t>Emailが既に使われた場合</t>
@@ -2269,6 +2245,82 @@
   </si>
   <si>
     <t>B-画面項目確認.xlsx</t>
+  </si>
+  <si>
+    <t>UT-USER02-E-004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示されたエラーメッセージが一致していない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-016</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-018</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-020</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示されずに作成される</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UT-USER02-E-024</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージがが表示されず作成される</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EB古屋</t>
+    <rPh sb="2" eb="4">
+      <t>コヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EB古屋</t>
+    <rPh sb="2" eb="4">
+      <t>コヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3188,7 +3240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3458,94 +3510,136 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3599,44 +3693,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3647,15 +3747,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3665,48 +3756,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3725,6 +3780,132 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3734,134 +3915,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3899,59 +4002,14 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4382,26 +4440,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4414,37 +4472,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="107"/>
+      <c r="G3" s="113"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="106"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="115">
         <v>45069</v>
       </c>
-      <c r="M3" s="110"/>
+      <c r="M3" s="116"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4517,67 +4575,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="111" t="s">
+      <c r="P7" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="111" t="s">
+      <c r="Q7" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="116" t="s">
+      <c r="R7" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="112">
+      <c r="S7" s="101">
         <v>45069</v>
       </c>
-      <c r="T7" s="111" t="s">
+      <c r="T7" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="U7" s="111"/>
+      <c r="U7" s="100"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4585,42 +4643,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="100"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="103"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4634,18 +4692,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="103"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="103"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4660,18 +4718,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="100"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="103"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="103"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4684,12 +4742,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="113"/>
+      <c r="G25" s="102"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="100"/>
+      <c r="G26" s="103"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4836,6 +4894,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4846,21 +4919,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,7 +4939,7 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D22" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
@@ -4905,59 +4963,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="101" t="s">
+      <c r="V2" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="133" t="s">
+      <c r="I3" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="M3" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="133"/>
-      <c r="O3" s="134"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="148"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4967,10 +5025,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4985,57 +5043,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="138" t="s">
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="138" t="s">
+      <c r="K5" s="153"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="138" t="s">
+      <c r="N5" s="153"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="144"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="158"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="135"/>
-      <c r="D6" s="137" t="s">
+      <c r="C6" s="149"/>
+      <c r="D6" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137" t="s">
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="145"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="159"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5060,32 +5118,32 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="120" t="s">
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="132"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5099,39 +5157,39 @@
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
       <c r="AA7" s="48" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="3:28" ht="37.5">
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118" t="s">
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="117">
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="121">
         <v>8</v>
       </c>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117" t="s">
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="119"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="127"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5145,42 +5203,42 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="3:28" ht="37.5">
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="126" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="118" t="s">
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="126">
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="118">
         <v>5</v>
       </c>
-      <c r="N9" s="127"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="149"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="133"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>107</v>
@@ -5192,46 +5250,46 @@
         <v>45069</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="3:28" ht="37.5">
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="127"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="146" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="140" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="141"/>
+      <c r="I10" s="142"/>
       <c r="J10" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="123"/>
       <c r="L10" s="124"/>
-      <c r="M10" s="126">
+      <c r="M10" s="118">
         <v>50</v>
       </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="149"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="133"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>107</v>
@@ -5243,7 +5301,7 @@
         <v>45069</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA10" s="19"/>
     </row>
@@ -5251,30 +5309,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117" t="s">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="117">
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="121">
         <v>50</v>
       </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="119"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="127"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5288,42 +5346,42 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="97" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="37.5">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="126" t="s">
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="118" t="s">
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="126">
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="118">
         <v>10</v>
       </c>
-      <c r="N12" s="127"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="126" t="s">
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="149"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="133"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>107</v>
@@ -5335,44 +5393,44 @@
         <v>45069</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="37.5">
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="150" t="s">
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="152"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
       <c r="J13" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="123"/>
       <c r="L13" s="124"/>
-      <c r="M13" s="126">
+      <c r="M13" s="118">
         <v>50</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="149"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="133"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>107</v>
@@ -5384,7 +5442,7 @@
         <v>45069</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA13" s="19"/>
     </row>
@@ -5392,30 +5450,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="155" t="s">
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="118" t="s">
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="117">
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="121">
         <v>50</v>
       </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="119"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="127"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5429,42 +5487,42 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="97" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="3:28" ht="37.5">
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="127"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="150" t="s">
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="151"/>
-      <c r="I15" s="152"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
       <c r="J15" s="122" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="123"/>
       <c r="L15" s="124"/>
-      <c r="M15" s="126">
+      <c r="M15" s="118">
         <v>16</v>
       </c>
-      <c r="N15" s="127"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="126" t="s">
+      <c r="N15" s="119"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="149"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="133"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>107</v>
@@ -5476,44 +5534,44 @@
         <v>45069</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="3:28" ht="37.5">
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="150" t="s">
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="152"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
       <c r="J16" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="123"/>
       <c r="L16" s="124"/>
-      <c r="M16" s="126">
+      <c r="M16" s="118">
         <v>50</v>
       </c>
-      <c r="N16" s="127"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="149"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="133"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>107</v>
@@ -5525,7 +5583,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5533,30 +5591,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="155" t="s">
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="118" t="s">
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="117">
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="121">
         <v>50</v>
       </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="119"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="127"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5570,42 +5628,42 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="97" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="3:28" ht="37.5">
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="126" t="s">
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="118" t="s">
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="126">
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="118">
         <v>6</v>
       </c>
-      <c r="N18" s="127"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="149"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="118" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="133"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>107</v>
@@ -5617,44 +5675,44 @@
         <v>45069</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="3:28" ht="37.5">
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="126" t="s">
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
       <c r="J19" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="123"/>
       <c r="L19" s="124"/>
-      <c r="M19" s="126">
+      <c r="M19" s="118">
         <v>50</v>
       </c>
-      <c r="N19" s="127"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="149"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="133"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>107</v>
@@ -5666,43 +5724,43 @@
         <v>45069</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="37.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="126" t="s">
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
       <c r="J20" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="123"/>
       <c r="L20" s="124"/>
-      <c r="M20" s="126">
+      <c r="M20" s="118">
         <v>50</v>
       </c>
-      <c r="N20" s="127"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="149"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="133"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>107</v>
@@ -5714,40 +5772,40 @@
         <v>45069</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="3:28" ht="37.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117" t="s">
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118" t="s">
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="117">
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="121">
         <v>50</v>
       </c>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="119"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="127"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5761,42 +5819,42 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="97" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="3:28" ht="37.5">
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117" t="s">
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118" t="s">
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="117">
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="121">
         <v>8</v>
       </c>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117" t="s">
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="119"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="127"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="W22" s="21" t="s">
         <v>107</v>
@@ -5808,44 +5866,44 @@
         <v>45069</v>
       </c>
       <c r="Z22" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="3:28" ht="37.5">
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117" t="s">
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118" t="s">
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="117">
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="121">
         <v>4</v>
       </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="119"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="127"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="W23" s="21" t="s">
         <v>107</v>
@@ -5857,7 +5915,7 @@
         <v>45069</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA23" s="19"/>
     </row>
@@ -5865,30 +5923,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117" t="s">
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118" t="s">
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="117">
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="121">
         <v>2</v>
       </c>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="119"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="127"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5903,7 +5961,7 @@
         <v>45069</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA24" s="19"/>
     </row>
@@ -5911,33 +5969,33 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117" t="s">
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118" t="s">
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="117">
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="121">
         <v>2</v>
       </c>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="119"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="127"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="W25" s="21" t="s">
         <v>107</v>
@@ -5949,7 +6007,7 @@
         <v>45069</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA25" s="19"/>
     </row>
@@ -5957,30 +6015,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156" t="s">
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157" t="s">
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="156">
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="129">
         <v>50</v>
       </c>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="158"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="131"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -5994,42 +6052,42 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
       <c r="AA26" s="98" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="3:28" ht="37.5">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117" t="s">
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118" t="s">
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="120">
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="128">
         <v>10</v>
       </c>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="117" t="s">
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="119"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="127"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="W27" s="21" t="s">
         <v>107</v>
@@ -6041,46 +6099,46 @@
         <v>45069</v>
       </c>
       <c r="Z27" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="3:28" ht="37.5">
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117" t="s">
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="118" t="s">
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="125">
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126">
         <v>4</v>
       </c>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="120" t="s">
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="121"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="132"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="W28" s="21" t="s">
         <v>107</v>
@@ -6092,44 +6150,44 @@
         <v>45069</v>
       </c>
       <c r="Z28" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117" t="s">
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118" t="s">
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="125" t="s">
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="120" t="s">
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="121"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="132"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>107</v>
@@ -6141,45 +6199,45 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA29" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="3:28" ht="37.5">
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117" t="s">
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="118" t="s">
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="125">
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126">
         <v>6</v>
       </c>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="120" t="s">
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="121"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="132"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="W30" s="21" t="s">
         <v>107</v>
@@ -6191,44 +6249,44 @@
         <v>45069</v>
       </c>
       <c r="Z30" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="117" t="s">
+      <c r="D31" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117" t="s">
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118" t="s">
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="125" t="s">
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="120" t="s">
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="121"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="132"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>107</v>
@@ -6240,40 +6298,40 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA31" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="3:28" ht="37.5">
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117" t="s">
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118" t="s">
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="117">
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="121">
         <v>50</v>
       </c>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="117"/>
-      <c r="S32" s="119"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="127"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6287,42 +6345,42 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="19" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="3:28" ht="37.5">
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="127"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="126" t="s">
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="127"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="118" t="s">
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="126">
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="118">
         <v>4</v>
       </c>
-      <c r="N33" s="127"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="120" t="s">
+      <c r="N33" s="119"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="121"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="132"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="W33" s="21" t="s">
         <v>107</v>
@@ -6334,44 +6392,44 @@
         <v>45069</v>
       </c>
       <c r="Z33" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="3:28" ht="37.5">
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117" t="s">
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="123"/>
       <c r="L34" s="124"/>
-      <c r="M34" s="117">
+      <c r="M34" s="121">
         <v>80</v>
       </c>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="132"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>107</v>
@@ -6383,40 +6441,40 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA34" s="19" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="37.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117" t="s">
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="118" t="s">
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="117">
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="121">
         <v>50</v>
       </c>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="119"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="127"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6430,42 +6488,42 @@
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
       <c r="AA35" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="3:28" ht="37.5">
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117" t="s">
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118" t="s">
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="117">
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="121">
         <v>4</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="120" t="s">
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="121"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="132"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>107</v>
@@ -6477,44 +6535,44 @@
         <v>45069</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="3:28" ht="37.5">
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="117" t="s">
+      <c r="D37" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117" t="s">
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
       <c r="J37" s="122" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="123"/>
       <c r="L37" s="124"/>
-      <c r="M37" s="117">
+      <c r="M37" s="121">
         <v>100</v>
       </c>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="132"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>107</v>
@@ -6526,7 +6584,7 @@
         <v>45069</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AA37" s="19"/>
     </row>
@@ -6534,30 +6592,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117" t="s">
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="118" t="s">
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="117">
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="121">
         <v>50</v>
       </c>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="119"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="127"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6571,42 +6629,42 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="97" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="3:28" ht="37.5">
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="127"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="126" t="s">
+      <c r="E39" s="119"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="127"/>
-      <c r="I39" s="128"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="122" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="123"/>
       <c r="L39" s="124"/>
-      <c r="M39" s="126" t="s">
+      <c r="M39" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="127"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="126" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="149"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="118" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="133"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="W39" s="21" t="s">
         <v>107</v>
@@ -6618,46 +6676,46 @@
         <v>45069</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="3:28" ht="37.5">
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="127"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="126" t="s">
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="127"/>
-      <c r="I40" s="128"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="120"/>
       <c r="J40" s="122" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="123"/>
       <c r="L40" s="124"/>
-      <c r="M40" s="126" t="s">
+      <c r="M40" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="127"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="126" t="s">
+      <c r="N40" s="119"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="149"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="133"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>107</v>
@@ -6669,31 +6727,31 @@
         <v>45069</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="149"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="133"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6704,22 +6762,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="149"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="118"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="133"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6730,22 +6788,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="127"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="149"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="133"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6756,22 +6814,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="149"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="118"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="133"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6782,22 +6840,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="149"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="118"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="133"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6808,22 +6866,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="149"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="133"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6834,22 +6892,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="127"/>
-      <c r="L47" s="128"/>
-      <c r="M47" s="126"/>
-      <c r="N47" s="127"/>
-      <c r="O47" s="128"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="127"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="149"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="133"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6860,22 +6918,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="126"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="127"/>
-      <c r="S48" s="149"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="119"/>
+      <c r="S48" s="133"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6886,22 +6944,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="126"/>
-      <c r="N49" s="127"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="149"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="119"/>
+      <c r="R49" s="119"/>
+      <c r="S49" s="133"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6912,22 +6970,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="128"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="127"/>
-      <c r="S50" s="149"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="118"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="119"/>
+      <c r="S50" s="133"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6938,22 +6996,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="121"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="132"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6964,22 +7022,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="121"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="132"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6990,22 +7048,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="121"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="132"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7015,22 +7073,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="121"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="132"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7040,155 +7098,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="121"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="132"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="121"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="132"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="120"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="121"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="132"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="121"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="132"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="120"/>
-      <c r="R59" s="120"/>
-      <c r="S59" s="121"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="128"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="128"/>
+      <c r="S59" s="132"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="120"/>
-      <c r="K60" s="120"/>
-      <c r="L60" s="120"/>
-      <c r="M60" s="120"/>
-      <c r="N60" s="120"/>
-      <c r="O60" s="120"/>
-      <c r="P60" s="120"/>
-      <c r="Q60" s="120"/>
-      <c r="R60" s="120"/>
-      <c r="S60" s="121"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
+      <c r="M60" s="128"/>
+      <c r="N60" s="128"/>
+      <c r="O60" s="128"/>
+      <c r="P60" s="128"/>
+      <c r="Q60" s="128"/>
+      <c r="R60" s="128"/>
+      <c r="S60" s="132"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="120"/>
-      <c r="L61" s="120"/>
-      <c r="M61" s="120"/>
-      <c r="N61" s="120"/>
-      <c r="O61" s="120"/>
-      <c r="P61" s="120"/>
-      <c r="Q61" s="120"/>
-      <c r="R61" s="120"/>
-      <c r="S61" s="121"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="128"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="128"/>
+      <c r="O61" s="128"/>
+      <c r="P61" s="128"/>
+      <c r="Q61" s="128"/>
+      <c r="R61" s="128"/>
+      <c r="S61" s="132"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="153"/>
-      <c r="P62" s="153"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="154"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="138"/>
+      <c r="L62" s="138"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="138"/>
+      <c r="P62" s="138"/>
+      <c r="Q62" s="138"/>
+      <c r="R62" s="138"/>
+      <c r="S62" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7205,6 +7263,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7229,274 +7555,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7508,8 +7566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F816C2-B171-4337-B415-DBF1378AB17F}">
   <dimension ref="C1:AA52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -7531,71 +7589,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="178" t="s">
+      <c r="E3" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="180">
+      <c r="Q3" s="162">
         <v>45069</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="181"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="163"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7612,53 +7670,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="138" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="138" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="138" t="s">
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="144"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="158"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="135"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="145"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="159"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7683,28 +7741,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="174" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="169"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7719,24 +7777,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="167" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="168"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="173"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="166"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7795,24 +7853,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169" t="s">
+      <c r="H10" s="168"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="171"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="182"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7871,24 +7929,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="162" t="s">
+      <c r="D12" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="162" t="s">
+      <c r="E12" s="168"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169" t="s">
+      <c r="H12" s="168"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="173"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="166"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7917,10 +7975,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="161"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="177"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7943,10 +8001,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="164"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="169"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8529,22 +8587,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="154"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="139"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8688,21 +8746,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8719,6 +8762,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8730,8 +8788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B4781-A492-4B58-8A10-539DD8C535C6}">
   <dimension ref="C1:AB52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="O5" zoomScale="62" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -8753,71 +8811,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="178" t="s">
+      <c r="E3" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="180">
+      <c r="Q3" s="162">
         <v>45069</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="181"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="163"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8835,53 +8893,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="138" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="138" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="138" t="s">
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="144"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="158"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="135"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="145"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="159"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8906,28 +8964,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="164"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="169"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8942,24 +9000,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="182" t="s">
+      <c r="H8" s="168"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="173"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8974,8 +9032,12 @@
       <c r="X8" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="Y8" s="96">
+        <v>45071</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="AA8" s="21" t="s">
         <v>154</v>
       </c>
@@ -9018,24 +9080,24 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="182" t="s">
+      <c r="H10" s="168"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="185"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -9050,8 +9112,12 @@
       <c r="X10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
+      <c r="Y10" s="96">
+        <v>45071</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="AA10" s="21" t="s">
         <v>154</v>
       </c>
@@ -9094,24 +9160,24 @@
       <c r="C12" s="42">
         <v>7</v>
       </c>
-      <c r="D12" s="185" t="s">
+      <c r="D12" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="186"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="162" t="s">
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="182" t="s">
+      <c r="H12" s="168"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -9126,8 +9192,12 @@
       <c r="X12" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
+      <c r="Y12" s="96">
+        <v>45071</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="AA12" s="21" t="s">
         <v>154</v>
       </c>
@@ -9170,24 +9240,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="162" t="s">
+      <c r="E14" s="168"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="163"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="162" t="s">
+      <c r="H14" s="168"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="173"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9216,10 +9286,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="161"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="177"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9242,10 +9312,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="164"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="169"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9828,22 +9898,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="153"/>
-      <c r="R39" s="153"/>
-      <c r="S39" s="154"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="139"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9969,18 +10039,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9997,12 +10061,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10014,8 +10084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A46AA4-5DF5-46CC-88D3-22945FDEBCC1}">
   <dimension ref="C1:AH63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:L33"/>
+    <sheetView topLeftCell="O6" zoomScale="47" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -10048,84 +10118,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="132"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="180">
+      <c r="R3" s="162">
         <v>45069</v>
       </c>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="163"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10140,75 +10210,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="222" t="s">
+      <c r="C5" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224" t="s">
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="226" t="s">
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="227"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="224" t="s">
+      <c r="N5" s="194"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="191" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="224" t="s">
+      <c r="Q5" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224" t="s">
+      <c r="R5" s="191"/>
+      <c r="S5" s="191"/>
+      <c r="T5" s="191" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224" t="s">
+      <c r="U5" s="191"/>
+      <c r="V5" s="191"/>
+      <c r="W5" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="232"/>
+      <c r="X5" s="191"/>
+      <c r="Y5" s="191"/>
+      <c r="Z5" s="199"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="223"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="229"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="225"/>
-      <c r="R6" s="225"/>
-      <c r="S6" s="225"/>
-      <c r="T6" s="225"/>
-      <c r="U6" s="225"/>
-      <c r="V6" s="225"/>
-      <c r="W6" s="225"/>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="233"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="200"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10233,39 +10303,39 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="219"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="218" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="201" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="219"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="157" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="218" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="219"/>
-      <c r="O7" s="220"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="203"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="218" t="s">
+      <c r="Q7" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="219"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="219" t="s">
+      <c r="R7" s="202"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="219"/>
-      <c r="V7" s="220"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="203"/>
       <c r="W7" s="211"/>
       <c r="X7" s="212"/>
       <c r="Y7" s="212"/>
@@ -10284,39 +10354,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="198" t="s">
+      <c r="E8" s="205"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="204" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201" t="s">
+      <c r="H8" s="205"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="205" t="s">
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="205"/>
-      <c r="O8" s="205"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="205" t="s">
+      <c r="Q8" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
-      <c r="T8" s="205" t="s">
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="205"/>
-      <c r="V8" s="205"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10335,39 +10405,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="198" t="s">
+      <c r="E9" s="205"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="204" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="199"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="205" t="s">
+      <c r="H9" s="205"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="221" t="s">
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="208" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="206"/>
-      <c r="O9" s="207"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="210"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="205" t="s">
+      <c r="Q9" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
-      <c r="T9" s="205" t="s">
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="205"/>
-      <c r="V9" s="205"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10386,55 +10456,59 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="194" t="s">
+      <c r="D10" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="194" t="s">
+      <c r="E10" s="220"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="157" t="s">
+      <c r="H10" s="220"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="217" t="s">
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="222" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="217"/>
-      <c r="O10" s="217"/>
+      <c r="N10" s="222"/>
+      <c r="O10" s="222"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="205" t="s">
+      <c r="Q10" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205" t="s">
+      <c r="R10" s="207"/>
+      <c r="S10" s="207"/>
+      <c r="T10" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="202"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
-      <c r="Z10" s="214"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="215"/>
+      <c r="X10" s="216"/>
+      <c r="Y10" s="216"/>
+      <c r="Z10" s="217"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
       </c>
       <c r="AD10" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE10" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF10" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="3:34" ht="34.9" customHeight="1">
@@ -10464,71 +10538,81 @@
       <c r="Z11" s="87"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE11" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF11" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="12" spans="3:34" ht="34.9" customHeight="1">
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="198" t="s">
+      <c r="D12" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="198" t="s">
+      <c r="E12" s="205"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="199"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201" t="s">
+      <c r="H12" s="205"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="208" t="s">
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="205" t="s">
+      <c r="Q12" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
-      <c r="T12" s="205" t="s">
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="205"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="202"/>
-      <c r="X12" s="203"/>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="214"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="216"/>
+      <c r="Y12" s="216"/>
+      <c r="Z12" s="217"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE12" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF12" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="3:34" ht="34.9" customHeight="1">
@@ -10558,71 +10642,81 @@
       <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="AD13" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE13" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF13" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG13" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH13" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" spans="3:34" ht="34.9" customHeight="1">
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="198" t="s">
+      <c r="D14" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="198" t="s">
+      <c r="E14" s="205"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="199"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201" t="s">
+      <c r="H14" s="205"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="208" t="s">
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="205" t="s">
+      <c r="Q14" s="207" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205" t="s">
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="205"/>
-      <c r="V14" s="205"/>
+      <c r="U14" s="207"/>
+      <c r="V14" s="207"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
       <c r="Z14" s="70"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD14" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE14" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF14" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG14" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="3:34" ht="34.9" customHeight="1">
@@ -10652,71 +10746,81 @@
       <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="AD15" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE15" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF15" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG15" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH15" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="16" spans="3:34" ht="34.9" customHeight="1">
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="198" t="s">
+      <c r="D16" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="198" t="s">
+      <c r="E16" s="209"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="199"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201" t="s">
+      <c r="H16" s="205"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="208" t="s">
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="205" t="s">
+      <c r="Q16" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="205" t="s">
+      <c r="R16" s="207"/>
+      <c r="S16" s="207"/>
+      <c r="T16" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="205"/>
-      <c r="V16" s="205"/>
+      <c r="U16" s="207"/>
+      <c r="V16" s="207"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
       <c r="Z16" s="70"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AD16" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE16" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF16" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG16" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH16" s="21"/>
     </row>
     <row r="17" spans="3:34" ht="34.9" customHeight="1">
@@ -10746,71 +10850,81 @@
       <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="AD17" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE17" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF17" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG17" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH17" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="18" spans="3:34" ht="34.9" customHeight="1">
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="198" t="s">
+      <c r="D18" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="198" t="s">
+      <c r="E18" s="205"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="201" t="s">
+      <c r="H18" s="205"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="208" t="s">
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="205" t="s">
+      <c r="Q18" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205" t="s">
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="207"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
       <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE18" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF18" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG18" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH18" s="21"/>
     </row>
     <row r="19" spans="3:34" ht="34.9" customHeight="1">
@@ -10840,71 +10954,81 @@
       <c r="Z19" s="87"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE19" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF19" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG19" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH19" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="20" spans="3:34" ht="34.9" customHeight="1">
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="198" t="s">
+      <c r="D20" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="198" t="s">
+      <c r="E20" s="209"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="201" t="s">
+      <c r="H20" s="205"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="208" t="s">
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="218" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="205" t="s">
+      <c r="Q20" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205" t="s">
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="207"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
       <c r="Z20" s="70"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE20" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF20" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="3:34" ht="34.9" customHeight="1">
@@ -10934,71 +11058,81 @@
       <c r="Z21" s="87"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AD21" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE21" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF21" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG21" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH21" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="22" spans="3:34" ht="34.9" customHeight="1">
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="198" t="s">
+      <c r="D22" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="198" t="s">
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="199"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="201" t="s">
+      <c r="H22" s="205"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="208" t="s">
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="218" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="205" t="s">
+      <c r="Q22" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="205"/>
-      <c r="S22" s="205"/>
-      <c r="T22" s="205" t="s">
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="205"/>
-      <c r="V22" s="205"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="207"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
       <c r="Z22" s="70"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AD22" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AE22" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF22" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG22" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH22" s="21"/>
     </row>
     <row r="23" spans="3:34" ht="34.9" customHeight="1">
@@ -11028,71 +11162,81 @@
       <c r="Z23" s="87"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE23" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF23" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG23" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH23" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="24" spans="3:34" ht="34.9" customHeight="1">
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="198" t="s">
+      <c r="D24" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="198" t="s">
+      <c r="E24" s="209"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="199"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="210" t="s">
+      <c r="H24" s="205"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="208" t="s">
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="205" t="s">
+      <c r="Q24" s="207" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="205" t="s">
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="205"/>
-      <c r="V24" s="205"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
       <c r="Z24" s="70"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD24" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="AD24" s="21" t="s">
-        <v>263</v>
-      </c>
       <c r="AE24" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF24" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG24" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH24" s="21"/>
     </row>
     <row r="25" spans="3:34" ht="34.9" customHeight="1">
@@ -11122,71 +11266,81 @@
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AE25" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF25" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG25" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH25" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="26" spans="3:34" ht="34.9" customHeight="1">
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="198" t="s">
+      <c r="D26" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="198" t="s">
+      <c r="E26" s="205"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="199"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="205" t="s">
+      <c r="H26" s="205"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="209" t="s">
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="224" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="205" t="s">
+      <c r="Q26" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="205" t="s">
+      <c r="R26" s="207"/>
+      <c r="S26" s="207"/>
+      <c r="T26" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="205"/>
-      <c r="V26" s="205"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="207"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
       <c r="Z26" s="70"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AD26" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AE26" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF26" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG26" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH26" s="21"/>
     </row>
     <row r="27" spans="3:34" ht="34.9" customHeight="1">
@@ -11216,71 +11370,81 @@
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>196</v>
       </c>
       <c r="AE27" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF27" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG27" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH27" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="28" spans="3:34" ht="34.9" customHeight="1">
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="198" t="s">
+      <c r="D28" s="204" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="198" t="s">
+      <c r="E28" s="209"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="206"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208" t="s">
+      <c r="H28" s="209"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205" t="s">
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="205" t="s">
+      <c r="Q28" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="208" t="s">
+      <c r="R28" s="207"/>
+      <c r="S28" s="207"/>
+      <c r="T28" s="218" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
+      <c r="U28" s="207"/>
+      <c r="V28" s="207"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AE28" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF28" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG28" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH28" s="21"/>
     </row>
     <row r="29" spans="3:34" ht="34.9" customHeight="1">
@@ -11310,71 +11474,81 @@
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD29" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="AD29" s="22" t="s">
-        <v>268</v>
-      </c>
       <c r="AE29" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF29" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG29" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH29" s="21" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="30" spans="3:34" ht="34.9" customHeight="1">
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="191" t="s">
+      <c r="D30" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="191" t="s">
+      <c r="E30" s="229"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="228" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="192"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="205" t="s">
+      <c r="H30" s="229"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205" t="s">
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="205"/>
-      <c r="O30" s="205"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="205" t="s">
+      <c r="Q30" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="205"/>
-      <c r="S30" s="205"/>
-      <c r="T30" s="205" t="s">
+      <c r="R30" s="207"/>
+      <c r="S30" s="207"/>
+      <c r="T30" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
+      <c r="U30" s="207"/>
+      <c r="V30" s="207"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="70"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="21" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AE30" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="AF30" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG30" s="21" t="s">
+        <v>323</v>
+      </c>
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="3:34" ht="34.9" customHeight="1">
@@ -11404,55 +11578,61 @@
       <c r="Z31" s="87"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="21" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AD31" s="21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AE31" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="AF31" s="99">
+        <v>45071</v>
+      </c>
+      <c r="AG31" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH31" s="21" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="32" spans="3:34" ht="34.9" customHeight="1">
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="219" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="195"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="194" t="s">
+      <c r="E32" s="225"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="219" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="195"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="157" t="s">
+      <c r="H32" s="225"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="202" t="s">
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="215" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="203"/>
-      <c r="O32" s="204"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="227"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="194" t="s">
+      <c r="Q32" s="219" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="195"/>
-      <c r="S32" s="196"/>
-      <c r="T32" s="202" t="s">
+      <c r="R32" s="225"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="215" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="203"/>
-      <c r="V32" s="204"/>
+      <c r="U32" s="216"/>
+      <c r="V32" s="227"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11471,39 +11651,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="198" t="s">
+      <c r="D33" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="198" t="s">
+      <c r="E33" s="205"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="204" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="199"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="201" t="s">
+      <c r="H33" s="205"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="202" t="s">
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="215" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="203"/>
-      <c r="O33" s="204"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="227"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="194" t="s">
+      <c r="Q33" s="219" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="195"/>
-      <c r="S33" s="196"/>
-      <c r="T33" s="202" t="s">
+      <c r="R33" s="225"/>
+      <c r="S33" s="226"/>
+      <c r="T33" s="215" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="203"/>
-      <c r="V33" s="204"/>
+      <c r="U33" s="216"/>
+      <c r="V33" s="227"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11522,43 +11702,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="198" t="s">
+      <c r="D34" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="199"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="198" t="s">
+      <c r="E34" s="205"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="204" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="199"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201" t="s">
+      <c r="H34" s="205"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
-      <c r="M34" s="194" t="s">
+      <c r="K34" s="214"/>
+      <c r="L34" s="214"/>
+      <c r="M34" s="219" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="195"/>
-      <c r="O34" s="196"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="226"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="194" t="s">
+      <c r="Q34" s="219" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="195"/>
-      <c r="S34" s="196"/>
-      <c r="T34" s="202" t="s">
+      <c r="R34" s="225"/>
+      <c r="S34" s="226"/>
+      <c r="T34" s="215" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="203"/>
-      <c r="V34" s="204"/>
-      <c r="W34" s="188"/>
-      <c r="X34" s="189"/>
-      <c r="Y34" s="189"/>
-      <c r="Z34" s="190"/>
+      <c r="U34" s="216"/>
+      <c r="V34" s="227"/>
+      <c r="W34" s="231"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="232"/>
+      <c r="Z34" s="233"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11573,43 +11753,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="191" t="s">
+      <c r="D35" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="192"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="191" t="s">
+      <c r="E35" s="229"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="228" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="192"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194" t="s">
+      <c r="H35" s="229"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="195"/>
-      <c r="L35" s="196"/>
-      <c r="M35" s="194" t="s">
+      <c r="K35" s="225"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="219" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="195"/>
-      <c r="O35" s="196"/>
+      <c r="N35" s="225"/>
+      <c r="O35" s="226"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="194" t="s">
+      <c r="Q35" s="219" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="195"/>
-      <c r="S35" s="196"/>
-      <c r="T35" s="197" t="s">
+      <c r="R35" s="225"/>
+      <c r="S35" s="226"/>
+      <c r="T35" s="234" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="195"/>
-      <c r="V35" s="196"/>
-      <c r="W35" s="188"/>
-      <c r="X35" s="189"/>
-      <c r="Y35" s="189"/>
-      <c r="Z35" s="190"/>
+      <c r="U35" s="225"/>
+      <c r="V35" s="226"/>
+      <c r="W35" s="231"/>
+      <c r="X35" s="232"/>
+      <c r="Y35" s="232"/>
+      <c r="Z35" s="233"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12414,29 +12594,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="153"/>
-      <c r="O60" s="153"/>
-      <c r="P60" s="153"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="138"/>
+      <c r="N60" s="138"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="138"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="153"/>
-      <c r="X60" s="153"/>
-      <c r="Y60" s="153"/>
-      <c r="Z60" s="154"/>
+      <c r="W60" s="138"/>
+      <c r="X60" s="138"/>
+      <c r="Y60" s="138"/>
+      <c r="Z60" s="139"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12490,29 +12670,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12537,92 +12780,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12634,8 +12814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E3830E-7758-4A2B-AE12-490073FD199E}">
   <dimension ref="B1:AF64"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12660,64 +12840,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="235" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="258"/>
-      <c r="U2" s="258"/>
-      <c r="V2" s="258"/>
-      <c r="W2" s="258"/>
-      <c r="X2" s="259"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="237"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="178"/>
-      <c r="J3" s="179"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="161"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="178" t="s">
+      <c r="L3" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12730,10 +12910,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12769,71 +12949,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="260" t="s">
+      <c r="C5" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="260" t="s">
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="260"/>
-      <c r="N5" s="260"/>
-      <c r="O5" s="260" t="s">
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="238" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="260"/>
-      <c r="Q5" s="260"/>
-      <c r="R5" s="260" t="s">
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="260"/>
-      <c r="T5" s="260"/>
-      <c r="U5" s="260" t="s">
+      <c r="S5" s="238"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="260"/>
-      <c r="W5" s="260"/>
-      <c r="X5" s="262"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="240"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="135"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="263"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="239"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="239"/>
+      <c r="L6" s="239"/>
+      <c r="M6" s="239"/>
+      <c r="N6" s="239"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="239"/>
+      <c r="Q6" s="239"/>
+      <c r="R6" s="239"/>
+      <c r="S6" s="239"/>
+      <c r="T6" s="239"/>
+      <c r="U6" s="239"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="241"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12858,40 +13038,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="249" t="s">
+      <c r="C7" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="249" t="s">
+      <c r="D7" s="243"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="242" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="250"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="246" t="s">
+      <c r="G7" s="243"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="252"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="254" t="s">
+      <c r="J7" s="246"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="255"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="246" t="s">
+      <c r="M7" s="249"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="245" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="234" t="s">
+      <c r="P7" s="246"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="251" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="189"/>
-      <c r="T7" s="235"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="237"/>
-      <c r="X7" s="238"/>
+      <c r="S7" s="232"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="254"/>
+      <c r="W7" s="254"/>
+      <c r="X7" s="255"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -12906,52 +13086,56 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="243" t="s">
+      <c r="C8" s="260" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="244"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="243" t="s">
+      <c r="D8" s="261"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="234" t="s">
+      <c r="G8" s="261"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="251" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="234" t="s">
+      <c r="J8" s="258"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="251" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="241"/>
-      <c r="N8" s="242"/>
-      <c r="O8" s="246" t="s">
+      <c r="M8" s="258"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="245" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="248"/>
-      <c r="R8" s="234" t="s">
+      <c r="P8" s="263"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="251" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="241"/>
-      <c r="T8" s="242"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="259"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
       <c r="X8" s="81"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="21" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
+        <v>257</v>
+      </c>
+      <c r="AD8" s="96">
+        <v>45071</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="2:32" ht="84.6" customHeight="1">
@@ -12980,50 +13164,56 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
+        <v>259</v>
+      </c>
+      <c r="AD9" s="96">
+        <v>45071</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF9" s="265" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="10" spans="2:32" ht="84.6" customHeight="1">
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="188" t="s">
+      <c r="C10" s="231" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="239"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="188" t="s">
+      <c r="D10" s="256"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="231" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="239"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="234" t="s">
+      <c r="G10" s="256"/>
+      <c r="H10" s="257"/>
+      <c r="I10" s="251" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="241"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="234" t="s">
+      <c r="J10" s="258"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="241"/>
-      <c r="N10" s="242"/>
-      <c r="O10" s="234" t="s">
+      <c r="M10" s="258"/>
+      <c r="N10" s="259"/>
+      <c r="O10" s="251" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="241"/>
-      <c r="Q10" s="242"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="241"/>
-      <c r="T10" s="242"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="259"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13524,22 +13714,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13556,6 +13730,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94029283-26DE-4AB3-BF62-C5970400142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AFC79-6E46-4A3D-AB2F-22C932160025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3514,6 +3514,45 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3522,9 +3561,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3534,38 +3570,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3576,28 +3606,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3609,89 +3696,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3705,63 +3765,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3780,6 +3783,108 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3816,106 +3921,73 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3938,78 +4010,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4440,26 +4440,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4472,37 +4472,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="113"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="112"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="115">
+      <c r="L3" s="111">
         <v>45069</v>
       </c>
-      <c r="M3" s="116"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4575,67 +4575,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="100" t="s">
+      <c r="P7" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="100" t="s">
+      <c r="Q7" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="106" t="s">
+      <c r="R7" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="114">
         <v>45069</v>
       </c>
-      <c r="T7" s="100" t="s">
+      <c r="T7" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="U7" s="100"/>
+      <c r="U7" s="113"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4643,42 +4643,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="103"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="102"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4692,18 +4692,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="103"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="103"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4718,18 +4718,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="103"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="103"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4742,12 +4742,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="102"/>
+      <c r="G25" s="115"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="102"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4894,21 +4894,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4919,6 +4904,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4963,59 +4963,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="146"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="107" t="s">
+      <c r="V2" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="148"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="148"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5025,10 +5025,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -5043,57 +5043,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="152" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="152" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="153"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="152" t="s">
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="158"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="149"/>
-      <c r="D6" s="151" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151" t="s">
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="159"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5118,32 +5118,32 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126" t="s">
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="128" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="132"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="123"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5164,32 +5164,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="125" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="121">
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="119">
         <v>8</v>
       </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121" t="s">
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="127"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="121"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5210,32 +5210,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="118" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="125" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="118">
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="128">
         <v>5</v>
       </c>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="118" t="s">
+      <c r="N9" s="129"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="128" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="133"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="151"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>272</v>
@@ -5263,30 +5263,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="140" t="s">
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="148" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="122" t="s">
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="118">
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="128">
         <v>50</v>
       </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="133"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="151"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>290</v>
@@ -5309,30 +5309,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="125" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="121">
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="119">
         <v>50</v>
       </c>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="127"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="121"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5353,32 +5353,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="118" t="s">
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="125" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="118">
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="128">
         <v>10</v>
       </c>
-      <c r="N12" s="119"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="118" t="s">
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="133"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="151"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>273</v>
@@ -5404,30 +5404,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="135" t="s">
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="136"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="122" t="s">
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="118">
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="128">
         <v>50</v>
       </c>
-      <c r="N13" s="119"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="133"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="151"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>292</v>
@@ -5450,30 +5450,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="134" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="125" t="s">
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="121">
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="119">
         <v>50</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="127"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="121"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5494,32 +5494,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="135" t="s">
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="136"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="122" t="s">
+      <c r="H15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="118">
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="128">
         <v>16</v>
       </c>
-      <c r="N15" s="119"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="118" t="s">
+      <c r="N15" s="129"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="133"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="151"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>274</v>
@@ -5545,30 +5545,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="135" t="s">
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="122" t="s">
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="118">
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="128">
         <v>50</v>
       </c>
-      <c r="N16" s="119"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="133"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="151"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>293</v>
@@ -5591,30 +5591,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="134" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="125" t="s">
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="121">
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="119">
         <v>50</v>
       </c>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="127"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="121"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5635,32 +5635,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="118" t="s">
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="125" t="s">
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="118">
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="128">
         <v>6</v>
       </c>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="118" t="s">
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="128" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="133"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="151"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>276</v>
@@ -5686,30 +5686,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="118" t="s">
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="122" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="118">
+      <c r="K19" s="125"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="128">
         <v>50</v>
       </c>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="133"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="151"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>294</v>
@@ -5734,30 +5734,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="118" t="s">
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="122" t="s">
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="123"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="118">
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="128">
         <v>50</v>
       </c>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="133"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="151"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>295</v>
@@ -5782,30 +5782,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="125" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="121">
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="119">
         <v>50</v>
       </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="127"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="121"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5826,32 +5826,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="125" t="s">
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="121">
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="119">
         <v>8</v>
       </c>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121" t="s">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="127"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="121"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>277</v>
@@ -5877,30 +5877,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121" t="s">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="125" t="s">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="121">
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="119">
         <v>4</v>
       </c>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="127"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="121"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>299</v>
@@ -5923,30 +5923,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="125" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="121">
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="119">
         <v>2</v>
       </c>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="127"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="121"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5969,30 +5969,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="125" t="s">
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="121">
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="119">
         <v>2</v>
       </c>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="127"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="121"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>301</v>
@@ -6015,30 +6015,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129" t="s">
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130" t="s">
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="129">
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="158">
         <v>50</v>
       </c>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="131"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="160"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -6059,32 +6059,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="125" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="128">
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="122">
         <v>10</v>
       </c>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="121" t="s">
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="127"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="121"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>278</v>
@@ -6110,32 +6110,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="125" t="s">
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126">
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="127">
         <v>4</v>
       </c>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="128" t="s">
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="132"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="123"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>279</v>
@@ -6159,32 +6159,32 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="125" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="126" t="s">
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="128" t="s">
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="132"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="123"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>300</v>
@@ -6209,32 +6209,32 @@
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="125" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126">
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="127">
         <v>6</v>
       </c>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="128" t="s">
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="132"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="123"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>280</v>
@@ -6258,32 +6258,32 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="121" t="s">
+      <c r="D31" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="125" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126" t="s">
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="128" t="s">
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="132"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="123"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>298</v>
@@ -6308,30 +6308,30 @@
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121" t="s">
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="125" t="s">
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="121">
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="119">
         <v>50</v>
       </c>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="127"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="121"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6352,32 +6352,32 @@
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="118" t="s">
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="125" t="s">
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="118">
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="128">
         <v>4</v>
       </c>
-      <c r="N33" s="119"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="128" t="s">
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="132"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="123"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>281</v>
@@ -6403,30 +6403,30 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="121" t="s">
+      <c r="D34" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121" t="s">
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="122" t="s">
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="123"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="121">
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="119">
         <v>80</v>
       </c>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="132"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="123"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>297</v>
@@ -6451,30 +6451,30 @@
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="125" t="s">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="121">
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="119">
         <v>50</v>
       </c>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="127"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="121"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6495,32 +6495,32 @@
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="125" t="s">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="121">
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="119">
         <v>4</v>
       </c>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="128" t="s">
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="132"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="123"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>282</v>
@@ -6546,30 +6546,30 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="D37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121" t="s">
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="122" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="123"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="121">
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="119">
         <v>100</v>
       </c>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="132"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="123"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>296</v>
@@ -6592,30 +6592,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="121" t="s">
+      <c r="D38" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121" t="s">
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="125" t="s">
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="121">
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="119">
         <v>50</v>
       </c>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="121"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="127"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="121"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6636,32 +6636,32 @@
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="118" t="s">
+      <c r="D39" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="119"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="118" t="s">
+      <c r="E39" s="129"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="122" t="s">
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="123"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="118" t="s">
+      <c r="K39" s="125"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="119"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="118" t="s">
+      <c r="N39" s="129"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="119"/>
-      <c r="S39" s="133"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="151"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>283</v>
@@ -6687,32 +6687,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="119"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="118" t="s">
+      <c r="E40" s="129"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="119"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="122" t="s">
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="123"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="118" t="s">
+      <c r="K40" s="125"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="119"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="118" t="s">
+      <c r="N40" s="129"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="133"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="151"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>284</v>
@@ -6736,22 +6736,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="133"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="151"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6762,22 +6762,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="119"/>
-      <c r="S42" s="133"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="151"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6788,22 +6788,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="133"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="151"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6814,22 +6814,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="119"/>
-      <c r="S44" s="133"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="130"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="151"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6840,22 +6840,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="119"/>
-      <c r="S45" s="133"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="151"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6866,22 +6866,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="133"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="151"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6892,22 +6892,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="119"/>
-      <c r="S47" s="133"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="151"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6918,22 +6918,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="119"/>
-      <c r="S48" s="133"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="151"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6944,22 +6944,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="119"/>
-      <c r="S49" s="133"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="151"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6970,22 +6970,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="119"/>
-      <c r="S50" s="133"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="151"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6996,22 +6996,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="128"/>
-      <c r="M51" s="128"/>
-      <c r="N51" s="128"/>
-      <c r="O51" s="128"/>
-      <c r="P51" s="128"/>
-      <c r="Q51" s="128"/>
-      <c r="R51" s="128"/>
-      <c r="S51" s="132"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="123"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -7022,22 +7022,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="128"/>
-      <c r="Q52" s="128"/>
-      <c r="R52" s="128"/>
-      <c r="S52" s="132"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="123"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7048,22 +7048,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="132"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="123"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7073,22 +7073,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="132"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="123"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7098,155 +7098,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="128"/>
-      <c r="R55" s="128"/>
-      <c r="S55" s="132"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="123"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
-      <c r="Q56" s="128"/>
-      <c r="R56" s="128"/>
-      <c r="S56" s="132"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="123"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="128"/>
-      <c r="M57" s="128"/>
-      <c r="N57" s="128"/>
-      <c r="O57" s="128"/>
-      <c r="P57" s="128"/>
-      <c r="Q57" s="128"/>
-      <c r="R57" s="128"/>
-      <c r="S57" s="132"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="123"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="128"/>
-      <c r="R58" s="128"/>
-      <c r="S58" s="132"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="122"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="123"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="128"/>
-      <c r="M59" s="128"/>
-      <c r="N59" s="128"/>
-      <c r="O59" s="128"/>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="128"/>
-      <c r="R59" s="128"/>
-      <c r="S59" s="132"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="123"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="128"/>
-      <c r="N60" s="128"/>
-      <c r="O60" s="128"/>
-      <c r="P60" s="128"/>
-      <c r="Q60" s="128"/>
-      <c r="R60" s="128"/>
-      <c r="S60" s="132"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="123"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="128"/>
-      <c r="M61" s="128"/>
-      <c r="N61" s="128"/>
-      <c r="O61" s="128"/>
-      <c r="P61" s="128"/>
-      <c r="Q61" s="128"/>
-      <c r="R61" s="128"/>
-      <c r="S61" s="132"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="123"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="138"/>
-      <c r="K62" s="138"/>
-      <c r="L62" s="138"/>
-      <c r="M62" s="138"/>
-      <c r="N62" s="138"/>
-      <c r="O62" s="138"/>
-      <c r="P62" s="138"/>
-      <c r="Q62" s="138"/>
-      <c r="R62" s="138"/>
-      <c r="S62" s="139"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="155"/>
+      <c r="P62" s="155"/>
+      <c r="Q62" s="155"/>
+      <c r="R62" s="155"/>
+      <c r="S62" s="156"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7263,37 +7263,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7318,243 +7524,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7566,8 +7566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F816C2-B171-4337-B415-DBF1378AB17F}">
   <dimension ref="C1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="49" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -7589,71 +7589,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="146"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="160" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="161"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="162">
+      <c r="Q3" s="182">
         <v>45069</v>
       </c>
-      <c r="R3" s="162"/>
-      <c r="S3" s="163"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7670,53 +7670,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="153"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="152" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="152" t="s">
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="152" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="158"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="149"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="159"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7741,28 +7741,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="164" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="169"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7777,24 +7777,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="167" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="166"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7853,24 +7853,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="167" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="168"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="174" t="s">
+      <c r="H10" s="165"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="182"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="173"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7929,24 +7929,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="167" t="s">
+      <c r="E12" s="165"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174" t="s">
+      <c r="H12" s="165"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7975,10 +7975,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="177"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="163"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -8001,10 +8001,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="166"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8587,22 +8587,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
-      <c r="Q37" s="138"/>
-      <c r="R37" s="138"/>
-      <c r="S37" s="139"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="156"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8746,6 +8746,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8762,21 +8777,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8811,71 +8811,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="146"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="160" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="161"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="162">
+      <c r="Q3" s="182">
         <v>45069</v>
       </c>
-      <c r="R3" s="162"/>
-      <c r="S3" s="163"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8893,53 +8893,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="153"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="152" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="152" t="s">
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="152" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="158"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="149"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="159"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8964,28 +8964,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="167" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="167" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="169"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -9000,24 +9000,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="167" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="183" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="173"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="170"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -9080,24 +9080,24 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="167" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="168"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="183" t="s">
+      <c r="H10" s="165"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="185"/>
+      <c r="O10" s="186"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -9160,24 +9160,24 @@
       <c r="C12" s="42">
         <v>7</v>
       </c>
-      <c r="D12" s="186" t="s">
+      <c r="D12" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="167" t="s">
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="183" t="s">
+      <c r="H12" s="165"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="186"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -9240,24 +9240,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="167" t="s">
+      <c r="E14" s="165"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="168"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="167" t="s">
+      <c r="H14" s="165"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="173"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="170"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9286,10 +9286,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="177"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="163"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9312,10 +9312,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="168"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="169"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="166"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9898,22 +9898,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="138"/>
-      <c r="R39" s="138"/>
-      <c r="S39" s="139"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
+      <c r="S39" s="156"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -10039,12 +10039,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -10061,18 +10067,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10118,84 +10118,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="160" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="162">
+      <c r="R3" s="182">
         <v>45069</v>
       </c>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="163"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10210,75 +10210,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191" t="s">
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="193" t="s">
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="228" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="194"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="191" t="s">
+      <c r="N5" s="229"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="191" t="s">
+      <c r="Q5" s="226" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="191"/>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191" t="s">
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
-      <c r="W5" s="191" t="s">
+      <c r="U5" s="226"/>
+      <c r="V5" s="226"/>
+      <c r="W5" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="191"/>
-      <c r="Y5" s="191"/>
-      <c r="Z5" s="199"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="234"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="190"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192"/>
-      <c r="X6" s="192"/>
-      <c r="Y6" s="192"/>
-      <c r="Z6" s="200"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="227"/>
+      <c r="W6" s="227"/>
+      <c r="X6" s="227"/>
+      <c r="Y6" s="227"/>
+      <c r="Z6" s="235"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10303,43 +10303,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="220" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="130" t="s">
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="201" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="220" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="203"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="222"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="201" t="s">
+      <c r="Q7" s="220" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="202"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="202" t="s">
+      <c r="R7" s="221"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="202"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="212"/>
-      <c r="Z7" s="213"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="215"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10354,21 +10354,21 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="204" t="s">
+      <c r="D8" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="204" t="s">
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="214" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
       <c r="M8" s="207" t="s">
         <v>19</v>
       </c>
@@ -10405,26 +10405,26 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="205"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="204" t="s">
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="205"/>
-      <c r="I9" s="206"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
       <c r="J9" s="207" t="s">
         <v>173</v>
       </c>
       <c r="K9" s="207"/>
       <c r="L9" s="207"/>
-      <c r="M9" s="208" t="s">
+      <c r="M9" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="209"/>
-      <c r="O9" s="210"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="209"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
@@ -10456,26 +10456,26 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="219" t="s">
+      <c r="D10" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="219" t="s">
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="196" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="220"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="130" t="s">
+      <c r="H10" s="217"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="222" t="s">
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="222"/>
-      <c r="O10" s="222"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
@@ -10489,10 +10489,10 @@
       </c>
       <c r="U10" s="207"/>
       <c r="V10" s="207"/>
-      <c r="W10" s="215"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="216"/>
-      <c r="Z10" s="217"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="216"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10560,26 +10560,26 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="204" t="s">
+      <c r="D12" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="205"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="204" t="s">
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="205"/>
-      <c r="I12" s="206"/>
-      <c r="J12" s="214" t="s">
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="218" t="s">
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
@@ -10593,10 +10593,10 @@
       </c>
       <c r="U12" s="207"/>
       <c r="V12" s="207"/>
-      <c r="W12" s="215"/>
-      <c r="X12" s="216"/>
-      <c r="Y12" s="216"/>
-      <c r="Z12" s="217"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="205"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="216"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10664,26 +10664,26 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="204" t="s">
+      <c r="D14" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="205"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="204" t="s">
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="205"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="214" t="s">
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="218" t="s">
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
@@ -10768,26 +10768,26 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="209"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="204" t="s">
+      <c r="E16" s="208"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="205"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="214" t="s">
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="218" t="s">
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
@@ -10872,26 +10872,26 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="204" t="s">
+      <c r="D18" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="204" t="s">
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="205"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="214" t="s">
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="218" t="s">
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="210"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
@@ -10976,26 +10976,26 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="204" t="s">
+      <c r="D20" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="209"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="204" t="s">
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="214" t="s">
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="218" t="s">
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
@@ -11080,26 +11080,26 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="204" t="s">
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="205"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="214" t="s">
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="214"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="218" t="s">
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
@@ -11184,26 +11184,26 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="204" t="s">
+      <c r="D24" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="209"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="204" t="s">
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="205"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="223" t="s">
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="223"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="218" t="s">
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
+      <c r="N24" s="210"/>
+      <c r="O24" s="210"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
@@ -11288,26 +11288,26 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="204" t="s">
+      <c r="D26" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="205"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="204" t="s">
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="205"/>
-      <c r="I26" s="206"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="202"/>
       <c r="J26" s="207" t="s">
         <v>196</v>
       </c>
       <c r="K26" s="207"/>
       <c r="L26" s="207"/>
-      <c r="M26" s="224" t="s">
+      <c r="M26" s="211" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
@@ -11392,17 +11392,17 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="204" t="s">
+      <c r="D28" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="204" t="s">
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="209"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="218" t="s">
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="210" t="s">
         <v>199</v>
       </c>
       <c r="K28" s="207"/>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="R28" s="207"/>
       <c r="S28" s="207"/>
-      <c r="T28" s="218" t="s">
+      <c r="T28" s="210" t="s">
         <v>201</v>
       </c>
       <c r="U28" s="207"/>
@@ -11496,16 +11496,16 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="228" t="s">
+      <c r="D30" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="229"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="228" t="s">
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="229"/>
-      <c r="I30" s="230"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
       <c r="J30" s="207" t="s">
         <v>202</v>
       </c>
@@ -11600,39 +11600,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="219" t="s">
+      <c r="D32" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="225"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="219" t="s">
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="196" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="225"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="130" t="s">
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="215" t="s">
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="204" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="216"/>
-      <c r="O32" s="227"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="206"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="219" t="s">
+      <c r="Q32" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="225"/>
-      <c r="S32" s="226"/>
-      <c r="T32" s="215" t="s">
+      <c r="R32" s="197"/>
+      <c r="S32" s="198"/>
+      <c r="T32" s="204" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="216"/>
-      <c r="V32" s="227"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="206"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11651,39 +11651,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="204" t="s">
+      <c r="D33" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="205"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="204" t="s">
+      <c r="E33" s="201"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="205"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="214" t="s">
+      <c r="H33" s="201"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="214"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="215" t="s">
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="204" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="216"/>
-      <c r="O33" s="227"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="206"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="219" t="s">
+      <c r="Q33" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="225"/>
-      <c r="S33" s="226"/>
-      <c r="T33" s="215" t="s">
+      <c r="R33" s="197"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="204" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="216"/>
-      <c r="V33" s="227"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="206"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11702,43 +11702,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="204" t="s">
+      <c r="D34" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="205"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="204" t="s">
+      <c r="E34" s="201"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="205"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="214" t="s">
+      <c r="H34" s="201"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="214"/>
-      <c r="L34" s="214"/>
-      <c r="M34" s="219" t="s">
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="225"/>
-      <c r="O34" s="226"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="198"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="219" t="s">
+      <c r="Q34" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="225"/>
-      <c r="S34" s="226"/>
-      <c r="T34" s="215" t="s">
+      <c r="R34" s="197"/>
+      <c r="S34" s="198"/>
+      <c r="T34" s="204" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="216"/>
-      <c r="V34" s="227"/>
-      <c r="W34" s="231"/>
-      <c r="X34" s="232"/>
-      <c r="Y34" s="232"/>
-      <c r="Z34" s="233"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="206"/>
+      <c r="W34" s="190"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="192"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11753,43 +11753,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="228" t="s">
+      <c r="D35" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="229"/>
-      <c r="F35" s="230"/>
-      <c r="G35" s="228" t="s">
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="229"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="219" t="s">
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="225"/>
-      <c r="L35" s="226"/>
-      <c r="M35" s="219" t="s">
+      <c r="K35" s="197"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="225"/>
-      <c r="O35" s="226"/>
+      <c r="N35" s="197"/>
+      <c r="O35" s="198"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="219" t="s">
+      <c r="Q35" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="225"/>
-      <c r="S35" s="226"/>
-      <c r="T35" s="234" t="s">
+      <c r="R35" s="197"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="225"/>
-      <c r="V35" s="226"/>
-      <c r="W35" s="231"/>
-      <c r="X35" s="232"/>
-      <c r="Y35" s="232"/>
-      <c r="Z35" s="233"/>
+      <c r="U35" s="197"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="190"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="192"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12594,29 +12594,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="138"/>
-      <c r="K60" s="138"/>
-      <c r="L60" s="138"/>
-      <c r="M60" s="138"/>
-      <c r="N60" s="138"/>
-      <c r="O60" s="138"/>
-      <c r="P60" s="138"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="138"/>
-      <c r="X60" s="138"/>
-      <c r="Y60" s="138"/>
-      <c r="Z60" s="139"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="156"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12670,6 +12670,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12694,115 +12803,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12840,64 +12840,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="259" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="237"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="261"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="160"/>
-      <c r="J3" s="161"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="160" t="s">
+      <c r="L3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="161"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12910,10 +12910,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12949,71 +12949,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="238" t="s">
+      <c r="C5" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238" t="s">
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238" t="s">
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="262" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="238"/>
-      <c r="N5" s="238"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="238"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238" t="s">
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="238"/>
-      <c r="T5" s="238"/>
-      <c r="U5" s="238" t="s">
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="238"/>
-      <c r="W5" s="238"/>
-      <c r="X5" s="240"/>
+      <c r="V5" s="262"/>
+      <c r="W5" s="262"/>
+      <c r="X5" s="264"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="149"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="239"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="239"/>
-      <c r="X6" s="241"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="263"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="263"/>
+      <c r="R6" s="263"/>
+      <c r="S6" s="263"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="265"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -13038,40 +13038,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="242" t="s">
+      <c r="C7" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="243"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="242" t="s">
+      <c r="D7" s="252"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="251" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="243"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245" t="s">
+      <c r="G7" s="252"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="248" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="246"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="248" t="s">
+      <c r="J7" s="254"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="256" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="249"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="245" t="s">
+      <c r="M7" s="257"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="248" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="247"/>
-      <c r="R7" s="251" t="s">
+      <c r="P7" s="254"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="236" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="232"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="254"/>
-      <c r="W7" s="254"/>
-      <c r="X7" s="255"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="237"/>
+      <c r="U7" s="238"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="240"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -13086,36 +13086,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="260" t="s">
+      <c r="C8" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="261"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="260" t="s">
+      <c r="D8" s="246"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="261"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="251" t="s">
+      <c r="G8" s="246"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="236" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="258"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="251" t="s">
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="258"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="245" t="s">
+      <c r="M8" s="243"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="248" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="251" t="s">
+      <c r="P8" s="249"/>
+      <c r="Q8" s="250"/>
+      <c r="R8" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="258"/>
-      <c r="T8" s="259"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="244"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -13178,7 +13178,7 @@
       <c r="AE9" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="AF9" s="265" t="s">
+      <c r="AF9" s="100" t="s">
         <v>321</v>
       </c>
     </row>
@@ -13186,34 +13186,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="256"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="231" t="s">
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="256"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="251" t="s">
+      <c r="G10" s="241"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="258"/>
-      <c r="K10" s="259"/>
-      <c r="L10" s="251" t="s">
+      <c r="J10" s="243"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="258"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="251" t="s">
+      <c r="M10" s="243"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="251"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="259"/>
+      <c r="P10" s="243"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="243"/>
+      <c r="T10" s="244"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13714,6 +13714,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13730,22 +13746,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AFC79-6E46-4A3D-AB2F-22C932160025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D0D664-1520-491A-85E9-0D74D457699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="323">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2242,9 +2242,6 @@
       <t>チガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B-画面項目確認.xlsx</t>
   </si>
   <si>
     <t>UT-USER02-E-004</t>
@@ -3516,94 +3513,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3657,44 +3693,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3705,15 +3747,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3723,48 +3756,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3783,6 +3780,132 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3792,134 +3915,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3957,59 +4002,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4440,26 +4437,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4472,37 +4469,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="109"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="116">
         <v>45069</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4575,67 +4572,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="113" t="s">
+      <c r="Q7" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="118" t="s">
+      <c r="R7" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="114">
+      <c r="S7" s="102">
         <v>45069</v>
       </c>
-      <c r="T7" s="113" t="s">
+      <c r="T7" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="U7" s="113"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4643,42 +4640,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="102"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="104"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4692,18 +4689,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="104"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="104"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4718,18 +4715,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="104"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="104"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4742,12 +4739,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="115"/>
+      <c r="G25" s="103"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="104"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4894,6 +4891,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4904,21 +4916,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4939,8 +4936,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K23" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -4963,59 +4960,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103" t="s">
+      <c r="V2" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="135" t="s">
+      <c r="E3" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="135" t="s">
+      <c r="M3" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5025,10 +5022,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -5043,57 +5040,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="140" t="s">
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="139" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139" t="s">
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5138,12 +5135,12 @@
       </c>
       <c r="N7" s="127"/>
       <c r="O7" s="127"/>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="123"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="133"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5164,32 +5161,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="119">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="122">
         <v>8</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119" t="s">
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="121"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="128"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5210,32 +5207,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="120" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="128">
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="119">
         <v>5</v>
       </c>
-      <c r="N9" s="129"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="128" t="s">
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="151"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="134"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>272</v>
@@ -5263,30 +5260,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="148" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="141" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="124" t="s">
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="128">
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="119">
         <v>50</v>
       </c>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="151"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="134"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>290</v>
@@ -5309,30 +5306,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="119">
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="122">
         <v>50</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="121"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="128"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5353,32 +5350,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128" t="s">
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="120" t="s">
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="128">
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="119">
         <v>10</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="128" t="s">
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="151"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="134"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>273</v>
@@ -5404,30 +5401,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="152" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="124" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="128">
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="119">
         <v>50</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="151"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="134"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>292</v>
@@ -5450,30 +5447,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="157" t="s">
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="120" t="s">
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="119">
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="122">
         <v>50</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="128"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5494,32 +5491,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="152" t="s">
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="153"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="124" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="128">
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="119">
         <v>16</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="128" t="s">
+      <c r="N15" s="120"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="151"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="134"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>274</v>
@@ -5545,30 +5542,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="152" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="153"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="124" t="s">
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="128">
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="119">
         <v>50</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="151"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="134"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>293</v>
@@ -5591,30 +5588,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="157" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="120" t="s">
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="119">
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="122">
         <v>50</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="121"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="128"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5635,32 +5632,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="128" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="120" t="s">
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="128">
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="119">
         <v>6</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="128" t="s">
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="151"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="134"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>276</v>
@@ -5686,30 +5683,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="128" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="124" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="125"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="128">
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="119">
         <v>50</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="151"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="134"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>294</v>
@@ -5734,30 +5731,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="128" t="s">
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="124" t="s">
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="128">
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="119">
         <v>50</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="151"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="134"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>295</v>
@@ -5782,30 +5779,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120" t="s">
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="119">
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="122">
         <v>50</v>
       </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="121"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="128"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5826,32 +5823,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120" t="s">
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="119">
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="122">
         <v>8</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119" t="s">
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="121"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="128"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>277</v>
@@ -5877,30 +5874,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119" t="s">
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120" t="s">
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="119">
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="122">
         <v>4</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="121"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="128"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>299</v>
@@ -5923,30 +5920,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119" t="s">
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="119">
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="122">
         <v>2</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="121"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="128"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5969,30 +5966,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="119">
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="122">
         <v>2</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="128"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>301</v>
@@ -6015,30 +6012,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158" t="s">
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159" t="s">
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="158">
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="130">
         <v>50</v>
       </c>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="160"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="132"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -6059,32 +6056,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119" t="s">
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="122">
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="129">
         <v>10</v>
       </c>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="119" t="s">
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="128"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>278</v>
@@ -6110,32 +6107,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120" t="s">
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
       <c r="M28" s="127">
         <v>4</v>
       </c>
       <c r="N28" s="127"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="122" t="s">
+      <c r="P28" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="123"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="133"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>279</v>
@@ -6159,32 +6156,32 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119" t="s">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120" t="s">
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
       <c r="M29" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="127"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="122" t="s">
+      <c r="P29" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="123"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="133"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>300</v>
@@ -6209,32 +6206,32 @@
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119" t="s">
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120" t="s">
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
       <c r="M30" s="127">
         <v>6</v>
       </c>
       <c r="N30" s="127"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="122" t="s">
+      <c r="P30" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="123"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="133"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>280</v>
@@ -6258,32 +6255,32 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120" t="s">
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
       <c r="M31" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="127"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="122" t="s">
+      <c r="P31" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="123"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="133"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>298</v>
@@ -6308,30 +6305,30 @@
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119" t="s">
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120" t="s">
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="119">
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="122">
         <v>50</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="128"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6344,40 +6341,38 @@
       </c>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
-      <c r="AA32" s="19" t="s">
-        <v>269</v>
-      </c>
+      <c r="AA32" s="19"/>
     </row>
     <row r="33" spans="3:28" ht="37.5">
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="128" t="s">
+      <c r="D33" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="128" t="s">
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="120" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="128">
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="119">
         <v>4</v>
       </c>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="122" t="s">
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="123"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="133"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>281</v>
@@ -6403,30 +6398,30 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="124" t="s">
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="119">
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="122">
         <v>80</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="123"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="133"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>297</v>
@@ -6451,30 +6446,30 @@
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119" t="s">
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120" t="s">
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="119">
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="122">
         <v>50</v>
       </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="121"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="128"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6487,40 +6482,38 @@
       </c>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
-      <c r="AA35" s="19" t="s">
-        <v>310</v>
-      </c>
+      <c r="AA35" s="19"/>
     </row>
     <row r="36" spans="3:28" ht="37.5">
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120" t="s">
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="119">
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="122">
         <v>4</v>
       </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="122" t="s">
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="123"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="133"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>282</v>
@@ -6546,30 +6539,30 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119" t="s">
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="124" t="s">
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="125"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="119">
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="122">
         <v>100</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="123"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="133"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>296</v>
@@ -6592,30 +6585,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119" t="s">
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120" t="s">
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="119">
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="122">
         <v>50</v>
       </c>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="121"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="128"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6636,32 +6629,32 @@
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="128" t="s">
+      <c r="D39" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="128" t="s">
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="124" t="s">
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="125"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="128" t="s">
+      <c r="K39" s="124"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="129"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="128" t="s">
+      <c r="N39" s="120"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="119" t="s">
         <v>285</v>
       </c>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="151"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="134"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>283</v>
@@ -6687,32 +6680,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="128" t="s">
+      <c r="D40" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="128" t="s">
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="124" t="s">
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="125"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="128" t="s">
+      <c r="K40" s="124"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="129"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="128" t="s">
+      <c r="N40" s="120"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="151"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="134"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>284</v>
@@ -6736,22 +6729,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="151"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="134"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6762,22 +6755,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="151"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="134"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6788,22 +6781,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="151"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="134"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6814,22 +6807,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="151"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="134"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6840,22 +6833,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="151"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="134"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6866,22 +6859,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="151"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="134"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6892,22 +6885,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="151"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="134"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6918,22 +6911,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="151"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="134"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6944,22 +6937,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="151"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="134"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6970,22 +6963,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="128"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="151"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="134"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6996,22 +6989,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="123"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="133"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -7022,22 +7015,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="123"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="133"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7048,22 +7041,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="123"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="133"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7073,22 +7066,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="123"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="129"/>
+      <c r="P54" s="129"/>
+      <c r="Q54" s="129"/>
+      <c r="R54" s="129"/>
+      <c r="S54" s="133"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7098,155 +7091,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="123"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="129"/>
+      <c r="P55" s="129"/>
+      <c r="Q55" s="129"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="133"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="123"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="129"/>
+      <c r="O56" s="129"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="133"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="123"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="133"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="122"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="123"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="129"/>
+      <c r="S58" s="133"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
-      <c r="M59" s="122"/>
-      <c r="N59" s="122"/>
-      <c r="O59" s="122"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="123"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="133"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="122"/>
-      <c r="N60" s="122"/>
-      <c r="O60" s="122"/>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="122"/>
-      <c r="R60" s="122"/>
-      <c r="S60" s="123"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+      <c r="G60" s="129"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="133"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="122"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="123"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="133"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
-      <c r="N62" s="155"/>
-      <c r="O62" s="155"/>
-      <c r="P62" s="155"/>
-      <c r="Q62" s="155"/>
-      <c r="R62" s="155"/>
-      <c r="S62" s="156"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="139"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="139"/>
+      <c r="R62" s="139"/>
+      <c r="S62" s="140"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7263,6 +7256,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7287,274 +7548,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7566,8 +7559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F816C2-B171-4337-B415-DBF1378AB17F}">
   <dimension ref="C1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="49" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="49" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -7589,71 +7582,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="182">
+      <c r="Q3" s="163">
         <v>45069</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7670,53 +7663,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7741,28 +7734,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="176" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7777,24 +7770,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171" t="s">
+      <c r="H8" s="169"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="167"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7853,24 +7846,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="164" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="168" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171" t="s">
+      <c r="H10" s="169"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="173"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="183"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7929,24 +7922,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="164" t="s">
+      <c r="E12" s="169"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171" t="s">
+      <c r="H12" s="169"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="167"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7975,10 +7968,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="163"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="178"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -8001,10 +7994,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="166"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8587,22 +8580,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="156"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="139"/>
+      <c r="Q37" s="139"/>
+      <c r="R37" s="139"/>
+      <c r="S37" s="140"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8746,21 +8739,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8777,6 +8755,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8811,71 +8804,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="182">
+      <c r="Q3" s="163">
         <v>45069</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8893,53 +8886,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8964,28 +8957,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="164" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -9000,24 +8993,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="170"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="174"/>
       <c r="J8" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="170"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="174"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -9036,7 +9029,7 @@
         <v>45071</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA8" s="21" t="s">
         <v>154</v>
@@ -9080,16 +9073,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="164" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="170"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="174"/>
       <c r="J10" s="184" t="s">
         <v>121</v>
       </c>
@@ -9116,7 +9109,7 @@
         <v>45071</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA10" s="21" t="s">
         <v>154</v>
@@ -9165,11 +9158,11 @@
       </c>
       <c r="E12" s="188"/>
       <c r="F12" s="189"/>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="170"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="174"/>
       <c r="J12" s="184" t="s">
         <v>122</v>
       </c>
@@ -9196,7 +9189,7 @@
         <v>45071</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA12" s="21" t="s">
         <v>154</v>
@@ -9240,24 +9233,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164" t="s">
+      <c r="E14" s="169"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="164" t="s">
+      <c r="H14" s="169"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="170"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="174"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9286,10 +9279,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="163"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="178"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9312,10 +9305,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="166"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="170"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9898,22 +9891,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="156"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="140"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -10039,18 +10032,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -10067,12 +10054,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10118,84 +10111,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="182">
+      <c r="R3" s="163">
         <v>45069</v>
       </c>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10210,75 +10203,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226" t="s">
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226" t="s">
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="228" t="s">
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="229"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="226" t="s">
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="226" t="s">
+      <c r="Q5" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="226"/>
-      <c r="S5" s="226"/>
-      <c r="T5" s="226" t="s">
+      <c r="R5" s="192"/>
+      <c r="S5" s="192"/>
+      <c r="T5" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="226"/>
-      <c r="V5" s="226"/>
-      <c r="W5" s="226" t="s">
+      <c r="U5" s="192"/>
+      <c r="V5" s="192"/>
+      <c r="W5" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="234"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="200"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="225"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="232"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="227"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
-      <c r="T6" s="227"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="227"/>
-      <c r="W6" s="227"/>
-      <c r="X6" s="227"/>
-      <c r="Y6" s="227"/>
-      <c r="Z6" s="235"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="201"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10303,43 +10296,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="220" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="220" t="s">
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="222"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="220" t="s">
+      <c r="Q7" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="221"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="221" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="203" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="221"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="213"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="215"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="214"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10354,39 +10347,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="201"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="200" t="s">
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203" t="s">
+      <c r="H8" s="206"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="207" t="s">
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="207" t="s">
+      <c r="Q8" s="208" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207" t="s">
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="207"/>
-      <c r="V8" s="207"/>
+      <c r="U8" s="208"/>
+      <c r="V8" s="208"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10405,39 +10398,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200" t="s">
+      <c r="E9" s="206"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="207" t="s">
+      <c r="H9" s="206"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="223" t="s">
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="208"/>
-      <c r="O9" s="209"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="211"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="207" t="s">
+      <c r="Q9" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207" t="s">
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="208" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="207"/>
-      <c r="V9" s="207"/>
+      <c r="U9" s="208"/>
+      <c r="V9" s="208"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10456,43 +10449,43 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="196" t="s">
+      <c r="D10" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="196" t="s">
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="220" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="217"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="159" t="s">
+      <c r="H10" s="221"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="219" t="s">
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="207" t="s">
+      <c r="Q10" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="207"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="207" t="s">
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="207"/>
-      <c r="V10" s="207"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="216"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="218"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10507,7 +10500,7 @@
         <v>45071</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH10" s="21"/>
     </row>
@@ -10550,53 +10543,53 @@
         <v>45071</v>
       </c>
       <c r="AG11" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH11" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="3:34" ht="34.9" customHeight="1">
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="200" t="s">
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203" t="s">
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="210" t="s">
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="207" t="s">
+      <c r="Q12" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="207"/>
-      <c r="S12" s="207"/>
-      <c r="T12" s="207" t="s">
+      <c r="R12" s="208"/>
+      <c r="S12" s="208"/>
+      <c r="T12" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="207"/>
-      <c r="V12" s="207"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="216"/>
+      <c r="U12" s="208"/>
+      <c r="V12" s="208"/>
+      <c r="W12" s="216"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="218"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10611,7 +10604,7 @@
         <v>45071</v>
       </c>
       <c r="AG12" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
@@ -10642,7 +10635,7 @@
       <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD13" s="21" t="s">
         <v>258</v>
@@ -10654,49 +10647,49 @@
         <v>45071</v>
       </c>
       <c r="AG13" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH13" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="3:34" ht="34.9" customHeight="1">
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="200" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203" t="s">
+      <c r="H14" s="206"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="210" t="s">
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="207" t="s">
+      <c r="Q14" s="208" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="207"/>
-      <c r="S14" s="207"/>
-      <c r="T14" s="207" t="s">
+      <c r="R14" s="208"/>
+      <c r="S14" s="208"/>
+      <c r="T14" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="207"/>
-      <c r="V14" s="207"/>
+      <c r="U14" s="208"/>
+      <c r="V14" s="208"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10715,7 +10708,7 @@
         <v>45071</v>
       </c>
       <c r="AG14" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH14" s="21"/>
     </row>
@@ -10746,7 +10739,7 @@
       <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD15" s="21" t="s">
         <v>258</v>
@@ -10758,49 +10751,49 @@
         <v>45071</v>
       </c>
       <c r="AG15" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH15" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="3:34" ht="34.9" customHeight="1">
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="208"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="200" t="s">
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203" t="s">
+      <c r="H16" s="206"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="210" t="s">
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="210"/>
-      <c r="O16" s="210"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="207" t="s">
+      <c r="Q16" s="208" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="207"/>
-      <c r="S16" s="207"/>
-      <c r="T16" s="207" t="s">
+      <c r="R16" s="208"/>
+      <c r="S16" s="208"/>
+      <c r="T16" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="207"/>
-      <c r="V16" s="207"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="208"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10819,7 +10812,7 @@
         <v>45071</v>
       </c>
       <c r="AG16" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH16" s="21"/>
     </row>
@@ -10850,7 +10843,7 @@
       <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD17" s="21" t="s">
         <v>258</v>
@@ -10862,56 +10855,56 @@
         <v>45071</v>
       </c>
       <c r="AG17" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH17" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="3:34" ht="34.9" customHeight="1">
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="200" t="s">
+      <c r="D18" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="200" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203" t="s">
+      <c r="H18" s="206"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="210" t="s">
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="207" t="s">
+      <c r="Q18" s="208" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207" t="s">
+      <c r="R18" s="208"/>
+      <c r="S18" s="208"/>
+      <c r="T18" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="208"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
       <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD18" s="21" t="s">
         <v>256</v>
@@ -10923,7 +10916,7 @@
         <v>45071</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH18" s="21"/>
     </row>
@@ -10966,49 +10959,49 @@
         <v>45071</v>
       </c>
       <c r="AG19" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH19" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="34.9" customHeight="1">
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="200" t="s">
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203" t="s">
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="210" t="s">
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="207" t="s">
+      <c r="Q20" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207" t="s">
+      <c r="R20" s="208"/>
+      <c r="S20" s="208"/>
+      <c r="T20" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="207"/>
-      <c r="V20" s="207"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="208"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -11027,7 +11020,7 @@
         <v>45071</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH20" s="21"/>
     </row>
@@ -11070,49 +11063,49 @@
         <v>45071</v>
       </c>
       <c r="AG21" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH21" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="3:34" ht="34.9" customHeight="1">
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="208"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="200" t="s">
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203" t="s">
+      <c r="H22" s="206"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="210" t="s">
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="207" t="s">
+      <c r="Q22" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207" t="s">
+      <c r="R22" s="208"/>
+      <c r="S22" s="208"/>
+      <c r="T22" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="207"/>
-      <c r="V22" s="207"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="208"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
@@ -11131,7 +11124,7 @@
         <v>45071</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH22" s="21"/>
     </row>
@@ -11174,49 +11167,49 @@
         <v>45071</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="3:34" ht="34.9" customHeight="1">
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="200" t="s">
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="201"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="212" t="s">
+      <c r="H24" s="206"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="210" t="s">
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="210"/>
-      <c r="O24" s="210"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="207" t="s">
+      <c r="Q24" s="208" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="207" t="s">
+      <c r="R24" s="208"/>
+      <c r="S24" s="208"/>
+      <c r="T24" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="207"/>
-      <c r="V24" s="207"/>
+      <c r="U24" s="208"/>
+      <c r="V24" s="208"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -11235,7 +11228,7 @@
         <v>45071</v>
       </c>
       <c r="AG24" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH24" s="21"/>
     </row>
@@ -11266,7 +11259,7 @@
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD25" s="21" t="s">
         <v>258</v>
@@ -11278,49 +11271,49 @@
         <v>45071</v>
       </c>
       <c r="AG25" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH25" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="3:34" ht="34.9" customHeight="1">
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="200" t="s">
+      <c r="E26" s="206"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="201"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="207" t="s">
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="211" t="s">
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="225" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="207" t="s">
+      <c r="Q26" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="207"/>
-      <c r="S26" s="207"/>
-      <c r="T26" s="207" t="s">
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="207"/>
-      <c r="V26" s="207"/>
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
@@ -11339,7 +11332,7 @@
         <v>45071</v>
       </c>
       <c r="AG26" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH26" s="21"/>
     </row>
@@ -11370,7 +11363,7 @@
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>196</v>
@@ -11382,49 +11375,49 @@
         <v>45071</v>
       </c>
       <c r="AG27" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH27" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="3:34" ht="34.9" customHeight="1">
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="200" t="s">
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210" t="s">
+      <c r="H28" s="210"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="219" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="207"/>
-      <c r="L28" s="207"/>
-      <c r="M28" s="207" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="207" t="s">
+      <c r="Q28" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="207"/>
-      <c r="S28" s="207"/>
-      <c r="T28" s="210" t="s">
+      <c r="R28" s="208"/>
+      <c r="S28" s="208"/>
+      <c r="T28" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="207"/>
-      <c r="V28" s="207"/>
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -11443,7 +11436,7 @@
         <v>45071</v>
       </c>
       <c r="AG28" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH28" s="21"/>
     </row>
@@ -11474,7 +11467,7 @@
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD29" s="22" t="s">
         <v>261</v>
@@ -11486,49 +11479,49 @@
         <v>45071</v>
       </c>
       <c r="AG29" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH29" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="34.9" customHeight="1">
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="193" t="s">
+      <c r="D30" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="193" t="s">
+      <c r="E30" s="230"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="207" t="s">
+      <c r="H30" s="230"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="207" t="s">
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="208" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="208"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="207" t="s">
+      <c r="Q30" s="208" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="207"/>
-      <c r="S30" s="207"/>
-      <c r="T30" s="207" t="s">
+      <c r="R30" s="208"/>
+      <c r="S30" s="208"/>
+      <c r="T30" s="208" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="207"/>
-      <c r="V30" s="207"/>
+      <c r="U30" s="208"/>
+      <c r="V30" s="208"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
@@ -11547,7 +11540,7 @@
         <v>45071</v>
       </c>
       <c r="AG30" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH30" s="21"/>
     </row>
@@ -11590,49 +11583,49 @@
         <v>45071</v>
       </c>
       <c r="AG31" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH31" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="3:34" ht="34.9" customHeight="1">
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="196" t="s">
+      <c r="D32" s="220" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="196" t="s">
+      <c r="E32" s="226"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="159" t="s">
+      <c r="H32" s="226"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="204" t="s">
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="205"/>
-      <c r="O32" s="206"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="228"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="196" t="s">
+      <c r="Q32" s="220" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="197"/>
-      <c r="S32" s="198"/>
-      <c r="T32" s="204" t="s">
+      <c r="R32" s="226"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="205"/>
-      <c r="V32" s="206"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="228"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11651,39 +11644,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="200" t="s">
+      <c r="D33" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="200" t="s">
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="201"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203" t="s">
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="204" t="s">
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="205"/>
-      <c r="O33" s="206"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="228"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="196" t="s">
+      <c r="Q33" s="220" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="197"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="204" t="s">
+      <c r="R33" s="226"/>
+      <c r="S33" s="227"/>
+      <c r="T33" s="216" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="205"/>
-      <c r="V33" s="206"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="228"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11702,43 +11695,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="200" t="s">
+      <c r="D34" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="200" t="s">
+      <c r="E34" s="206"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="203" t="s">
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="196" t="s">
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="197"/>
-      <c r="O34" s="198"/>
+      <c r="N34" s="226"/>
+      <c r="O34" s="227"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="196" t="s">
+      <c r="Q34" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="197"/>
-      <c r="S34" s="198"/>
-      <c r="T34" s="204" t="s">
+      <c r="R34" s="226"/>
+      <c r="S34" s="227"/>
+      <c r="T34" s="216" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="205"/>
-      <c r="V34" s="206"/>
-      <c r="W34" s="190"/>
-      <c r="X34" s="191"/>
-      <c r="Y34" s="191"/>
-      <c r="Z34" s="192"/>
+      <c r="U34" s="217"/>
+      <c r="V34" s="228"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="233"/>
+      <c r="Y34" s="233"/>
+      <c r="Z34" s="234"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11753,43 +11746,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="193" t="s">
+      <c r="D35" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="193" t="s">
+      <c r="E35" s="230"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="229" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="194"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196" t="s">
+      <c r="H35" s="230"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="197"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="196" t="s">
+      <c r="K35" s="226"/>
+      <c r="L35" s="227"/>
+      <c r="M35" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="197"/>
-      <c r="O35" s="198"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="227"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="196" t="s">
+      <c r="Q35" s="220" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="197"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="199" t="s">
+      <c r="R35" s="226"/>
+      <c r="S35" s="227"/>
+      <c r="T35" s="235" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="197"/>
-      <c r="V35" s="198"/>
-      <c r="W35" s="190"/>
-      <c r="X35" s="191"/>
-      <c r="Y35" s="191"/>
-      <c r="Z35" s="192"/>
+      <c r="U35" s="226"/>
+      <c r="V35" s="227"/>
+      <c r="W35" s="232"/>
+      <c r="X35" s="233"/>
+      <c r="Y35" s="233"/>
+      <c r="Z35" s="234"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12594,29 +12587,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="155"/>
-      <c r="Z60" s="156"/>
+      <c r="W60" s="139"/>
+      <c r="X60" s="139"/>
+      <c r="Y60" s="139"/>
+      <c r="Z60" s="140"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12670,29 +12663,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12717,92 +12773,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12840,64 +12833,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="261"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="238"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="180" t="s">
+      <c r="L3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12910,10 +12903,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12949,71 +12942,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="239" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="262" t="s">
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262" t="s">
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
-      <c r="U5" s="262" t="s">
+      <c r="S5" s="239"/>
+      <c r="T5" s="239"/>
+      <c r="U5" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="262"/>
-      <c r="W5" s="262"/>
-      <c r="X5" s="264"/>
+      <c r="V5" s="239"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="241"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="137"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="265"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="242"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -13038,40 +13031,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="251" t="s">
+      <c r="D7" s="244"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="252"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="248" t="s">
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="246" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="254"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256" t="s">
+      <c r="J7" s="247"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="249" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="257"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="248" t="s">
+      <c r="M7" s="250"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="246" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="236" t="s">
+      <c r="P7" s="247"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="191"/>
-      <c r="T7" s="237"/>
-      <c r="U7" s="238"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="240"/>
+      <c r="S7" s="233"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="256"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -13086,36 +13079,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="245" t="s">
+      <c r="C8" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="246"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="245" t="s">
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="246"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="236" t="s">
+      <c r="G8" s="262"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="252" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="236" t="s">
+      <c r="J8" s="259"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="252" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="243"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="248" t="s">
+      <c r="M8" s="259"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="236" t="s">
+      <c r="P8" s="264"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="252" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="243"/>
-      <c r="T8" s="244"/>
+      <c r="S8" s="259"/>
+      <c r="T8" s="260"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -13134,7 +13127,7 @@
         <v>45071</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF8" s="19"/>
     </row>
@@ -13164,7 +13157,7 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB9" s="21" t="s">
         <v>267</v>
@@ -13176,44 +13169,44 @@
         <v>45071</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF9" s="100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="84.6" customHeight="1">
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="190" t="s">
+      <c r="D10" s="257"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="232" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="241"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="236" t="s">
+      <c r="G10" s="257"/>
+      <c r="H10" s="258"/>
+      <c r="I10" s="252" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="243"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="236" t="s">
+      <c r="J10" s="259"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="252" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="243"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="236" t="s">
+      <c r="M10" s="259"/>
+      <c r="N10" s="260"/>
+      <c r="O10" s="252" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="243"/>
-      <c r="T10" s="244"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="252"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="260"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13714,22 +13707,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13746,6 +13723,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D0D664-1520-491A-85E9-0D74D457699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5561A-98FD-4219-B0D7-C9DC0E8E6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="321">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2113,13 +2113,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>EB李</t>
-    <rPh sb="2" eb="3">
-      <t>リ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UT-USER02-E-002</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2213,13 +2206,6 @@
 UT-USER02-E-022ケースに参照 </t>
     <rPh sb="19" eb="21">
       <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EB 古屋</t>
-    <rPh sb="3" eb="5">
-      <t>コヤ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3513,6 +3499,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3522,9 +3544,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3534,38 +3553,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3576,28 +3589,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3609,89 +3679,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3705,63 +3748,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3780,6 +3766,108 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3816,106 +3904,73 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3938,75 +3993,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4437,26 +4423,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4469,37 +4455,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="114"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="114"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="113"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="116">
+      <c r="L3" s="111">
         <v>45069</v>
       </c>
-      <c r="M3" s="117"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4572,67 +4558,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="101" t="s">
+      <c r="P7" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="Q7" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="102">
+      <c r="S7" s="114">
         <v>45069</v>
       </c>
-      <c r="T7" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="U7" s="101"/>
+      <c r="T7" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="U7" s="113"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4640,42 +4626,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="105"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="104"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="102"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4689,18 +4675,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="104"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="104"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4715,18 +4701,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="104"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="104"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4739,12 +4725,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="115"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="104"/>
+      <c r="G26" s="102"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4891,21 +4877,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4916,6 +4887,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4936,8 +4922,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K23" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="P29" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -4960,59 +4946,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="108" t="s">
+      <c r="V2" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="149"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5022,10 +5008,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -5040,57 +5026,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="153" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="153" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="153" t="s">
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="159"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="150"/>
-      <c r="D6" s="152" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152" t="s">
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="160"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5135,12 +5121,12 @@
       </c>
       <c r="N7" s="127"/>
       <c r="O7" s="127"/>
-      <c r="P7" s="129" t="s">
+      <c r="P7" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="133"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="123"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5161,32 +5147,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="126" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="122">
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="119">
         <v>8</v>
       </c>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122" t="s">
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="128"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="121"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5207,32 +5193,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="119" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="126" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="119">
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="128">
         <v>5</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="119" t="s">
+      <c r="N9" s="129"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="128" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="134"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="151"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>272</v>
@@ -5247,7 +5233,7 @@
         <v>45069</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA9" s="19" t="s">
         <v>269</v>
@@ -5260,33 +5246,33 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="141" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="123" t="s">
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="119">
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="128">
         <v>50</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="134"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="151"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>107</v>
@@ -5298,7 +5284,7 @@
         <v>45069</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA10" s="19"/>
     </row>
@@ -5306,30 +5292,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="126" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="122">
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="119">
         <v>50</v>
       </c>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="128"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="121"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5343,39 +5329,39 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="3:28" ht="37.5">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="119" t="s">
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="126" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="119">
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="128">
         <v>10</v>
       </c>
-      <c r="N12" s="120"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="119" t="s">
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="134"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="151"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>273</v>
@@ -5390,7 +5376,7 @@
         <v>45069</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
@@ -5401,33 +5387,33 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="136" t="s">
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="123" t="s">
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="119">
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="128">
         <v>50</v>
       </c>
-      <c r="N13" s="120"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="134"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="151"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W13" s="21" t="s">
         <v>107</v>
@@ -5439,7 +5425,7 @@
         <v>45069</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA13" s="19"/>
     </row>
@@ -5447,30 +5433,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="135" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="126" t="s">
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="122">
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="119">
         <v>50</v>
       </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="128"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="121"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5484,39 +5470,39 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="3:28" ht="37.5">
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="136" t="s">
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="123" t="s">
+      <c r="H15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="119">
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="128">
         <v>16</v>
       </c>
-      <c r="N15" s="120"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="119" t="s">
+      <c r="N15" s="129"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="134"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="151"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>274</v>
@@ -5531,7 +5517,7 @@
         <v>45069</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
@@ -5542,33 +5528,33 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="136" t="s">
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="123" t="s">
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="119">
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="128">
         <v>50</v>
       </c>
-      <c r="N16" s="120"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="134"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="151"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>107</v>
@@ -5580,7 +5566,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5588,30 +5574,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="135" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="126" t="s">
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="122">
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="119">
         <v>50</v>
       </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="128"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="121"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5625,39 +5611,39 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="3:28" ht="37.5">
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="119" t="s">
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="126" t="s">
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="119">
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="128">
         <v>6</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="119" t="s">
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="128" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="134"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="151"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>276</v>
@@ -5672,7 +5658,7 @@
         <v>45069</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
@@ -5683,33 +5669,33 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="119" t="s">
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="123" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="119">
+      <c r="K19" s="125"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="128">
         <v>50</v>
       </c>
-      <c r="N19" s="120"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="134"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="151"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W19" s="21" t="s">
         <v>107</v>
@@ -5721,43 +5707,43 @@
         <v>45069</v>
       </c>
       <c r="Z19" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA19" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="AA19" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="37.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="119" t="s">
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="123" t="s">
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="119">
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="128">
         <v>50</v>
       </c>
-      <c r="N20" s="120"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="134"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="151"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>107</v>
@@ -5769,40 +5755,40 @@
         <v>45069</v>
       </c>
       <c r="Z20" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA20" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="AA20" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="3:28" ht="37.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="126" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="122">
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="119">
         <v>50</v>
       </c>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="128"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="121"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5816,39 +5802,39 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="3:28" ht="37.5">
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="126" t="s">
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="122">
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="119">
         <v>8</v>
       </c>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122" t="s">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="128"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="121"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>277</v>
@@ -5863,7 +5849,7 @@
         <v>45069</v>
       </c>
       <c r="Z22" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
@@ -5874,33 +5860,33 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122" t="s">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="126" t="s">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="122">
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="119">
         <v>4</v>
       </c>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="128"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="121"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W23" s="21" t="s">
         <v>107</v>
@@ -5912,7 +5898,7 @@
         <v>45069</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA23" s="19"/>
     </row>
@@ -5920,30 +5906,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="126" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="122">
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="119">
         <v>2</v>
       </c>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="128"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="121"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5958,7 +5944,7 @@
         <v>45069</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA24" s="19"/>
     </row>
@@ -5966,33 +5952,33 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="126" t="s">
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="122">
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="119">
         <v>2</v>
       </c>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="128"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="121"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W25" s="21" t="s">
         <v>107</v>
@@ -6004,7 +5990,7 @@
         <v>45069</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA25" s="19"/>
     </row>
@@ -6012,30 +5998,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130" t="s">
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131" t="s">
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="130">
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="158">
         <v>50</v>
       </c>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="132"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="160"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -6049,39 +6035,39 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
       <c r="AA26" s="98" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="3:28" ht="37.5">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="126" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="129">
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="122">
         <v>10</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="122" t="s">
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="128"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="121"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>278</v>
@@ -6096,7 +6082,7 @@
         <v>45069</v>
       </c>
       <c r="Z27" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
@@ -6107,32 +6093,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="126" t="s">
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
       <c r="M28" s="127">
         <v>4</v>
       </c>
       <c r="N28" s="127"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="129" t="s">
+      <c r="P28" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="133"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="123"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>279</v>
@@ -6147,7 +6133,7 @@
         <v>45069</v>
       </c>
       <c r="Z28" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
@@ -6156,35 +6142,35 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="126" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
       <c r="M29" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="127"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="129" t="s">
+      <c r="P29" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="133"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="123"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>107</v>
@@ -6196,42 +6182,42 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA29" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="AA29" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="30" spans="3:28" ht="37.5">
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="126" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
       <c r="M30" s="127">
         <v>6</v>
       </c>
       <c r="N30" s="127"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="129" t="s">
+      <c r="P30" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="133"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="123"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>280</v>
@@ -6246,7 +6232,7 @@
         <v>45069</v>
       </c>
       <c r="Z30" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
@@ -6255,35 +6241,35 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="126" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
       <c r="M31" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="127"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="129" t="s">
+      <c r="P31" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="133"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="123"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>107</v>
@@ -6295,40 +6281,40 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA31" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="AA31" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="32" spans="3:28" ht="37.5">
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="D32" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122" t="s">
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="126" t="s">
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="122">
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="119">
         <v>50</v>
       </c>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="128"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="121"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6347,32 +6333,32 @@
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="119" t="s">
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="126" t="s">
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="119">
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="128">
         <v>4</v>
       </c>
-      <c r="N33" s="120"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="129" t="s">
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="133"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="123"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>281</v>
@@ -6387,7 +6373,7 @@
         <v>45069</v>
       </c>
       <c r="Z33" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
@@ -6398,33 +6384,33 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122" t="s">
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123" t="s">
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="122">
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="119">
         <v>80</v>
       </c>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="129"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="133"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="123"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>107</v>
@@ -6436,40 +6422,40 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA34" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="37.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="126" t="s">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="122">
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="119">
         <v>50</v>
       </c>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="128"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="121"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6488,32 +6474,32 @@
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="126" t="s">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="122">
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="119">
         <v>4</v>
       </c>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="129" t="s">
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="133"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="123"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>282</v>
@@ -6528,7 +6514,7 @@
         <v>45069</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
@@ -6539,33 +6525,33 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122" t="s">
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="123" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="124"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="122">
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="119">
         <v>100</v>
       </c>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="133"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="123"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W37" s="21" t="s">
         <v>107</v>
@@ -6577,7 +6563,7 @@
         <v>45069</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AA37" s="19"/>
     </row>
@@ -6585,30 +6571,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122" t="s">
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="126" t="s">
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="122">
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="119">
         <v>50</v>
       </c>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="128"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="121"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6622,39 +6608,39 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="3:28" ht="37.5">
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="119" t="s">
+      <c r="E39" s="129"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="123" t="s">
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="124"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="119" t="s">
+      <c r="K39" s="125"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="120"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="119" t="s">
+      <c r="N39" s="129"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="134"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="151"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>283</v>
@@ -6669,7 +6655,7 @@
         <v>45069</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
@@ -6680,32 +6666,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="119" t="s">
+      <c r="E40" s="129"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="123" t="s">
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="124"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="119" t="s">
+      <c r="K40" s="125"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="120"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="119" t="s">
+      <c r="N40" s="129"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="134"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="151"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>284</v>
@@ -6720,7 +6706,7 @@
         <v>45069</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
@@ -6729,22 +6715,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="134"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="151"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6755,22 +6741,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="134"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="151"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6781,22 +6767,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="134"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="151"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6807,22 +6793,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="134"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="130"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="151"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6833,22 +6819,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="134"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="151"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6859,22 +6845,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="134"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="151"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6885,22 +6871,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="134"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="151"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6911,22 +6897,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="134"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="151"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6937,22 +6923,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="134"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="151"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6963,22 +6949,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="134"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="151"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6989,22 +6975,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="133"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="123"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -7015,22 +7001,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="133"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="123"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7041,22 +7027,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="133"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="123"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7066,22 +7052,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="129"/>
-      <c r="P54" s="129"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="133"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="123"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7091,155 +7077,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="129"/>
-      <c r="P55" s="129"/>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="129"/>
-      <c r="S55" s="133"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="123"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="129"/>
-      <c r="O56" s="129"/>
-      <c r="P56" s="129"/>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="129"/>
-      <c r="S56" s="133"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="123"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="129"/>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
-      <c r="S57" s="133"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="123"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="133"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="122"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="123"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="133"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="123"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="133"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="123"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="133"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="123"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="139"/>
-      <c r="K62" s="139"/>
-      <c r="L62" s="139"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="139"/>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="139"/>
-      <c r="S62" s="140"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="155"/>
+      <c r="P62" s="155"/>
+      <c r="Q62" s="155"/>
+      <c r="R62" s="155"/>
+      <c r="S62" s="156"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7256,37 +7242,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7311,243 +7503,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7559,7 +7545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F816C2-B171-4337-B415-DBF1378AB17F}">
   <dimension ref="C1:AA52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="49" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="H3" zoomScale="49" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -7582,71 +7568,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="163">
+      <c r="Q3" s="182">
         <v>45069</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="164"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7663,53 +7649,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="153" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="153" t="s">
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="153" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="159"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="150"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="160"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7734,28 +7720,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="170"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7770,24 +7756,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="168" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="167"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7846,24 +7832,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="168" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175" t="s">
+      <c r="H10" s="165"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="183"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="173"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7922,24 +7908,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="168" t="s">
+      <c r="E12" s="165"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="169"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175" t="s">
+      <c r="H12" s="165"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="167"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7968,10 +7954,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="178"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="163"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7994,10 +7980,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="166"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8580,22 +8566,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="139"/>
-      <c r="P37" s="139"/>
-      <c r="Q37" s="139"/>
-      <c r="R37" s="139"/>
-      <c r="S37" s="140"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="156"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8739,6 +8725,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8755,21 +8756,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8804,71 +8790,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="163">
+      <c r="Q3" s="182">
         <v>45069</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="164"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8886,53 +8872,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="153" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="153" t="s">
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="153" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="159"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="150"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="160"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8957,28 +8943,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="170"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8993,24 +8979,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="168" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="174"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="170"/>
       <c r="J8" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="174"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="170"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -9029,7 +9015,7 @@
         <v>45071</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA8" s="21" t="s">
         <v>154</v>
@@ -9073,16 +9059,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="168" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="174"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="170"/>
       <c r="J10" s="184" t="s">
         <v>121</v>
       </c>
@@ -9109,7 +9095,7 @@
         <v>45071</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA10" s="21" t="s">
         <v>154</v>
@@ -9158,11 +9144,11 @@
       </c>
       <c r="E12" s="188"/>
       <c r="F12" s="189"/>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="169"/>
-      <c r="I12" s="174"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="170"/>
       <c r="J12" s="184" t="s">
         <v>122</v>
       </c>
@@ -9189,7 +9175,7 @@
         <v>45071</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA12" s="21" t="s">
         <v>154</v>
@@ -9233,24 +9219,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="168" t="s">
+      <c r="D14" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="168" t="s">
+      <c r="E14" s="165"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="169"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="168" t="s">
+      <c r="H14" s="165"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="174"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="170"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9279,10 +9265,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="178"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="163"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9305,10 +9291,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="169"/>
-      <c r="S16" s="170"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="166"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9891,22 +9877,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="139"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="140"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
+      <c r="S39" s="156"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -10032,12 +10018,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -10054,18 +10046,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10111,84 +10097,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="163">
+      <c r="R3" s="182">
         <v>45069</v>
       </c>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="164"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10203,75 +10189,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192" t="s">
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="194" t="s">
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="228" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="195"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="192" t="s">
+      <c r="N5" s="229"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="192" t="s">
+      <c r="Q5" s="226" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="192"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="192" t="s">
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
+      <c r="U5" s="226"/>
+      <c r="V5" s="226"/>
+      <c r="W5" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="200"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="234"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="191"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="201"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="227"/>
+      <c r="W6" s="227"/>
+      <c r="X6" s="227"/>
+      <c r="Y6" s="227"/>
+      <c r="Z6" s="235"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10296,43 +10282,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="202" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="220" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="131" t="s">
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="202" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="220" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="204"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="222"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="202" t="s">
+      <c r="Q7" s="220" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="203" t="s">
+      <c r="R7" s="221"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="203"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="213"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="214"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="215"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10347,39 +10333,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="205" t="s">
+      <c r="D8" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="205" t="s">
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="215" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="208" t="s">
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="208" t="s">
+      <c r="Q8" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="208"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="208" t="s">
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="208"/>
-      <c r="V8" s="208"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10398,39 +10384,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="205" t="s">
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="206"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208" t="s">
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="209" t="s">
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="210"/>
-      <c r="O9" s="211"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="209"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="208" t="s">
+      <c r="Q9" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208" t="s">
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10449,43 +10435,43 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="221"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="220" t="s">
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="196" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="221"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="217"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="223" t="s">
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="208" t="s">
+      <c r="Q10" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208" t="s">
+      <c r="R10" s="207"/>
+      <c r="S10" s="207"/>
+      <c r="T10" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="218"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="216"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10500,7 +10486,7 @@
         <v>45071</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH10" s="21"/>
     </row>
@@ -10531,7 +10517,7 @@
       <c r="Z11" s="87"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD11" s="21" t="s">
         <v>258</v>
@@ -10543,53 +10529,53 @@
         <v>45071</v>
       </c>
       <c r="AG11" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH11" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="3:34" ht="34.9" customHeight="1">
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="205" t="s">
+      <c r="D12" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="205" t="s">
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="215" t="s">
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="219" t="s">
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="208" t="s">
+      <c r="Q12" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="208"/>
-      <c r="S12" s="208"/>
-      <c r="T12" s="208" t="s">
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="208"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="216"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="218"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="205"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="216"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10604,7 +10590,7 @@
         <v>45071</v>
       </c>
       <c r="AG12" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
@@ -10635,7 +10621,7 @@
       <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AD13" s="21" t="s">
         <v>258</v>
@@ -10647,49 +10633,49 @@
         <v>45071</v>
       </c>
       <c r="AG13" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH13" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="3:34" ht="34.9" customHeight="1">
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="205" t="s">
+      <c r="D14" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="205" t="s">
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="206"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="215" t="s">
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="219" t="s">
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="208" t="s">
+      <c r="Q14" s="207" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="208"/>
-      <c r="S14" s="208"/>
-      <c r="T14" s="208" t="s">
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="208"/>
-      <c r="V14" s="208"/>
+      <c r="U14" s="207"/>
+      <c r="V14" s="207"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10708,7 +10694,7 @@
         <v>45071</v>
       </c>
       <c r="AG14" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH14" s="21"/>
     </row>
@@ -10739,7 +10725,7 @@
       <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AD15" s="21" t="s">
         <v>258</v>
@@ -10751,49 +10737,49 @@
         <v>45071</v>
       </c>
       <c r="AG15" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH15" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="3:34" ht="34.9" customHeight="1">
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="205" t="s">
+      <c r="D16" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="205" t="s">
+      <c r="E16" s="208"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="206"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="215" t="s">
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="219" t="s">
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="208" t="s">
+      <c r="Q16" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="208"/>
-      <c r="S16" s="208"/>
-      <c r="T16" s="208" t="s">
+      <c r="R16" s="207"/>
+      <c r="S16" s="207"/>
+      <c r="T16" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="208"/>
-      <c r="V16" s="208"/>
+      <c r="U16" s="207"/>
+      <c r="V16" s="207"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10812,7 +10798,7 @@
         <v>45071</v>
       </c>
       <c r="AG16" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH16" s="21"/>
     </row>
@@ -10843,7 +10829,7 @@
       <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AD17" s="21" t="s">
         <v>258</v>
@@ -10855,56 +10841,56 @@
         <v>45071</v>
       </c>
       <c r="AG17" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH17" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="3:34" ht="34.9" customHeight="1">
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="205" t="s">
+      <c r="D18" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="205" t="s">
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="215" t="s">
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="219" t="s">
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="210"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="208" t="s">
+      <c r="Q18" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="208"/>
-      <c r="S18" s="208"/>
-      <c r="T18" s="208" t="s">
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="207"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
       <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD18" s="21" t="s">
         <v>256</v>
@@ -10916,7 +10902,7 @@
         <v>45071</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH18" s="21"/>
     </row>
@@ -10959,49 +10945,49 @@
         <v>45071</v>
       </c>
       <c r="AG19" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH19" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="34.9" customHeight="1">
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="205" t="s">
+      <c r="D20" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="205" t="s">
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="215" t="s">
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="219" t="s">
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="208" t="s">
+      <c r="Q20" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208" t="s">
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="208"/>
-      <c r="V20" s="208"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="207"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -11020,7 +11006,7 @@
         <v>45071</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH20" s="21"/>
     </row>
@@ -11063,49 +11049,49 @@
         <v>45071</v>
       </c>
       <c r="AG21" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH21" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="3:34" ht="34.9" customHeight="1">
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="205" t="s">
+      <c r="D22" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="205" t="s">
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="215" t="s">
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="219" t="s">
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="208" t="s">
+      <c r="Q22" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208" t="s">
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="208"/>
-      <c r="V22" s="208"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="207"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
@@ -11124,7 +11110,7 @@
         <v>45071</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH22" s="21"/>
     </row>
@@ -11167,49 +11153,49 @@
         <v>45071</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="3:34" ht="34.9" customHeight="1">
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="205" t="s">
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="224" t="s">
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="219" t="s">
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
+      <c r="N24" s="210"/>
+      <c r="O24" s="210"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="208" t="s">
+      <c r="Q24" s="207" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="208"/>
-      <c r="S24" s="208"/>
-      <c r="T24" s="208" t="s">
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -11228,7 +11214,7 @@
         <v>45071</v>
       </c>
       <c r="AG24" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH24" s="21"/>
     </row>
@@ -11259,7 +11245,7 @@
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AD25" s="21" t="s">
         <v>258</v>
@@ -11271,49 +11257,49 @@
         <v>45071</v>
       </c>
       <c r="AG25" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH25" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="3:34" ht="34.9" customHeight="1">
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="205" t="s">
+      <c r="D26" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="205" t="s">
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208" t="s">
+      <c r="H26" s="201"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="225" t="s">
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="211" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="225"/>
-      <c r="O26" s="225"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="208" t="s">
+      <c r="Q26" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208" t="s">
+      <c r="R26" s="207"/>
+      <c r="S26" s="207"/>
+      <c r="T26" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="208"/>
-      <c r="V26" s="208"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="207"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
@@ -11332,7 +11318,7 @@
         <v>45071</v>
       </c>
       <c r="AG26" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH26" s="21"/>
     </row>
@@ -11363,7 +11349,7 @@
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>196</v>
@@ -11375,49 +11361,49 @@
         <v>45071</v>
       </c>
       <c r="AG27" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH27" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="3:34" ht="34.9" customHeight="1">
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="205" t="s">
+      <c r="D28" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="210"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="205" t="s">
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="210"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="219" t="s">
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="208" t="s">
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="208"/>
-      <c r="O28" s="208"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="208" t="s">
+      <c r="Q28" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="208"/>
-      <c r="S28" s="208"/>
-      <c r="T28" s="219" t="s">
+      <c r="R28" s="207"/>
+      <c r="S28" s="207"/>
+      <c r="T28" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="208"/>
-      <c r="V28" s="208"/>
+      <c r="U28" s="207"/>
+      <c r="V28" s="207"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -11436,7 +11422,7 @@
         <v>45071</v>
       </c>
       <c r="AG28" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH28" s="21"/>
     </row>
@@ -11467,7 +11453,7 @@
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AD29" s="22" t="s">
         <v>261</v>
@@ -11479,49 +11465,49 @@
         <v>45071</v>
       </c>
       <c r="AG29" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH29" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="34.9" customHeight="1">
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="229" t="s">
+      <c r="D30" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="230"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="229" t="s">
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="230"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="208" t="s">
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="208" t="s">
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="208"/>
-      <c r="O30" s="208"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="208" t="s">
+      <c r="Q30" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="208"/>
-      <c r="S30" s="208"/>
-      <c r="T30" s="208" t="s">
+      <c r="R30" s="207"/>
+      <c r="S30" s="207"/>
+      <c r="T30" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
+      <c r="U30" s="207"/>
+      <c r="V30" s="207"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
@@ -11540,7 +11526,7 @@
         <v>45071</v>
       </c>
       <c r="AG30" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH30" s="21"/>
     </row>
@@ -11583,49 +11569,49 @@
         <v>45071</v>
       </c>
       <c r="AG31" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AH31" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="3:34" ht="34.9" customHeight="1">
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="220" t="s">
+      <c r="D32" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="226"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="220" t="s">
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="196" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="226"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="131" t="s">
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="216" t="s">
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="204" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="217"/>
-      <c r="O32" s="228"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="206"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="220" t="s">
+      <c r="Q32" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="226"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="216" t="s">
+      <c r="R32" s="197"/>
+      <c r="S32" s="198"/>
+      <c r="T32" s="204" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="217"/>
-      <c r="V32" s="228"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="206"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11644,39 +11630,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="205" t="s">
+      <c r="D33" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="205" t="s">
+      <c r="E33" s="201"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="215" t="s">
+      <c r="H33" s="201"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="216" t="s">
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="204" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="217"/>
-      <c r="O33" s="228"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="206"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="220" t="s">
+      <c r="Q33" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="226"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="216" t="s">
+      <c r="R33" s="197"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="204" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="217"/>
-      <c r="V33" s="228"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="206"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11695,43 +11681,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="205" t="s">
+      <c r="D34" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="205" t="s">
+      <c r="E34" s="201"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="215" t="s">
+      <c r="H34" s="201"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="220" t="s">
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="226"/>
-      <c r="O34" s="227"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="198"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="220" t="s">
+      <c r="Q34" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="226"/>
-      <c r="S34" s="227"/>
-      <c r="T34" s="216" t="s">
+      <c r="R34" s="197"/>
+      <c r="S34" s="198"/>
+      <c r="T34" s="204" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="217"/>
-      <c r="V34" s="228"/>
-      <c r="W34" s="232"/>
-      <c r="X34" s="233"/>
-      <c r="Y34" s="233"/>
-      <c r="Z34" s="234"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="206"/>
+      <c r="W34" s="190"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="192"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11746,43 +11732,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="229" t="s">
+      <c r="D35" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="229" t="s">
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="230"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="220" t="s">
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="226"/>
-      <c r="L35" s="227"/>
-      <c r="M35" s="220" t="s">
+      <c r="K35" s="197"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="226"/>
-      <c r="O35" s="227"/>
+      <c r="N35" s="197"/>
+      <c r="O35" s="198"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="220" t="s">
+      <c r="Q35" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="226"/>
-      <c r="S35" s="227"/>
-      <c r="T35" s="235" t="s">
+      <c r="R35" s="197"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="226"/>
-      <c r="V35" s="227"/>
-      <c r="W35" s="232"/>
-      <c r="X35" s="233"/>
-      <c r="Y35" s="233"/>
-      <c r="Z35" s="234"/>
+      <c r="U35" s="197"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="190"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="192"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12587,29 +12573,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="139"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="139"/>
-      <c r="X60" s="139"/>
-      <c r="Y60" s="139"/>
-      <c r="Z60" s="140"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="156"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12663,6 +12649,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12687,115 +12782,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12807,7 +12793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E3830E-7758-4A2B-AE12-490073FD199E}">
   <dimension ref="B1:AF64"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
@@ -12833,64 +12819,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="259" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="238"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="261"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12903,10 +12889,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12942,71 +12928,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239" t="s">
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239" t="s">
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="262" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239" t="s">
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239" t="s">
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239" t="s">
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="241"/>
+      <c r="V5" s="262"/>
+      <c r="W5" s="262"/>
+      <c r="X5" s="264"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="150"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
-      <c r="M6" s="240"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="240"/>
-      <c r="U6" s="240"/>
-      <c r="V6" s="240"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="242"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="263"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="263"/>
+      <c r="R6" s="263"/>
+      <c r="S6" s="263"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="265"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -13031,40 +13017,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="243" t="s">
+      <c r="D7" s="252"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="251" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="244"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="246" t="s">
+      <c r="G7" s="252"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="248" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="247"/>
-      <c r="K7" s="248"/>
-      <c r="L7" s="249" t="s">
+      <c r="J7" s="254"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="256" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="250"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="246" t="s">
+      <c r="M7" s="257"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="248" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="248"/>
-      <c r="R7" s="252" t="s">
+      <c r="P7" s="254"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="236" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="233"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="256"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="237"/>
+      <c r="U7" s="238"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="240"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -13079,36 +13065,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="261" t="s">
+      <c r="C8" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="261" t="s">
+      <c r="D8" s="246"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="262"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="252" t="s">
+      <c r="G8" s="246"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="236" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="259"/>
-      <c r="K8" s="260"/>
-      <c r="L8" s="252" t="s">
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="259"/>
-      <c r="N8" s="260"/>
-      <c r="O8" s="246" t="s">
+      <c r="M8" s="243"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="248" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="265"/>
-      <c r="R8" s="252" t="s">
+      <c r="P8" s="249"/>
+      <c r="Q8" s="250"/>
+      <c r="R8" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="259"/>
-      <c r="T8" s="260"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="244"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -13127,7 +13113,7 @@
         <v>45071</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF8" s="19"/>
     </row>
@@ -13157,7 +13143,7 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB9" s="21" t="s">
         <v>267</v>
@@ -13169,44 +13155,44 @@
         <v>45071</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF9" s="100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="84.6" customHeight="1">
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="232" t="s">
+      <c r="C10" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="257"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="232" t="s">
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="257"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="252" t="s">
+      <c r="G10" s="241"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="259"/>
-      <c r="K10" s="260"/>
-      <c r="L10" s="252" t="s">
+      <c r="J10" s="243"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="259"/>
-      <c r="N10" s="260"/>
-      <c r="O10" s="252" t="s">
+      <c r="M10" s="243"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="252"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="260"/>
+      <c r="P10" s="243"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="243"/>
+      <c r="T10" s="244"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13707,6 +13693,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13723,22 +13725,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5561A-98FD-4219-B0D7-C9DC0E8E6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE119150-9969-40FA-A268-BA2AC6258645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="320">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2279,16 +2279,6 @@
   </si>
   <si>
     <t>UT-USER02-E-024</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージがが表示されず作成される</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3499,94 +3489,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3640,44 +3669,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3688,15 +3723,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3706,48 +3732,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3766,6 +3756,132 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3775,134 +3891,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3940,59 +3978,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4423,26 +4413,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4455,37 +4445,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="109"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="116">
         <v>45069</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4558,67 +4548,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="113" t="s">
+      <c r="Q7" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="118" t="s">
+      <c r="R7" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="114">
+      <c r="S7" s="102">
         <v>45069</v>
       </c>
-      <c r="T7" s="113" t="s">
-        <v>319</v>
-      </c>
-      <c r="U7" s="113"/>
+      <c r="T7" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4626,42 +4616,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="102"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="104"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4675,18 +4665,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="104"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="104"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4701,18 +4691,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="104"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="104"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4725,12 +4715,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="115"/>
+      <c r="G25" s="103"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="104"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4877,6 +4867,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4887,21 +4892,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4922,7 +4912,7 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="P29" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O19" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
@@ -4946,59 +4936,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103" t="s">
+      <c r="V2" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="135" t="s">
+      <c r="E3" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="135" t="s">
+      <c r="M3" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5008,10 +4998,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -5026,57 +5016,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="140" t="s">
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="139" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139" t="s">
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5121,12 +5111,12 @@
       </c>
       <c r="N7" s="127"/>
       <c r="O7" s="127"/>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="123"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="133"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5147,32 +5137,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="119">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="122">
         <v>8</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119" t="s">
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="121"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="128"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5193,32 +5183,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="120" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="128">
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="119">
         <v>5</v>
       </c>
-      <c r="N9" s="129"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="128" t="s">
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="151"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="134"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>272</v>
@@ -5233,7 +5223,7 @@
         <v>45069</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA9" s="19" t="s">
         <v>269</v>
@@ -5246,30 +5236,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="148" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="141" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="124" t="s">
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="128">
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="119">
         <v>50</v>
       </c>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="151"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="134"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>289</v>
@@ -5284,7 +5274,7 @@
         <v>45069</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA10" s="19"/>
     </row>
@@ -5292,30 +5282,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="119">
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="122">
         <v>50</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="121"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="128"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5336,32 +5326,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128" t="s">
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="120" t="s">
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="128">
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="119">
         <v>10</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="128" t="s">
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="151"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="134"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>273</v>
@@ -5376,7 +5366,7 @@
         <v>45069</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
@@ -5387,30 +5377,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="152" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="124" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="128">
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="119">
         <v>50</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="151"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="134"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>291</v>
@@ -5425,7 +5415,7 @@
         <v>45069</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA13" s="19"/>
     </row>
@@ -5433,30 +5423,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="157" t="s">
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="120" t="s">
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="119">
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="122">
         <v>50</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="128"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5477,32 +5467,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="152" t="s">
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="153"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="124" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="128">
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="119">
         <v>16</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="128" t="s">
+      <c r="N15" s="120"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="151"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="134"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>274</v>
@@ -5517,7 +5507,7 @@
         <v>45069</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
@@ -5528,30 +5518,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="152" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="153"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="124" t="s">
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="128">
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="119">
         <v>50</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="151"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="134"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>292</v>
@@ -5566,7 +5556,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5574,30 +5564,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="157" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="120" t="s">
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="119">
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="122">
         <v>50</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="121"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="128"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5618,32 +5608,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="128" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="120" t="s">
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="128">
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="119">
         <v>6</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="128" t="s">
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="151"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="134"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>276</v>
@@ -5658,7 +5648,7 @@
         <v>45069</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
@@ -5669,30 +5659,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="128" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="124" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="125"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="128">
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="119">
         <v>50</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="151"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="134"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>293</v>
@@ -5707,7 +5697,7 @@
         <v>45069</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA19" s="19" t="s">
         <v>307</v>
@@ -5717,30 +5707,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="128" t="s">
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="124" t="s">
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="128">
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="119">
         <v>50</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="151"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="134"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>294</v>
@@ -5755,7 +5745,7 @@
         <v>45069</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA20" s="19" t="s">
         <v>307</v>
@@ -5765,30 +5755,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120" t="s">
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="119">
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="122">
         <v>50</v>
       </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="121"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="128"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5809,32 +5799,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120" t="s">
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="119">
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="122">
         <v>8</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119" t="s">
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="121"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="128"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>277</v>
@@ -5849,7 +5839,7 @@
         <v>45069</v>
       </c>
       <c r="Z22" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
@@ -5860,30 +5850,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119" t="s">
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120" t="s">
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="119">
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="122">
         <v>4</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="121"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="128"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>298</v>
@@ -5898,7 +5888,7 @@
         <v>45069</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA23" s="19"/>
     </row>
@@ -5906,30 +5896,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119" t="s">
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="119">
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="122">
         <v>2</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="121"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="128"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5944,7 +5934,7 @@
         <v>45069</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA24" s="19"/>
     </row>
@@ -5952,30 +5942,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="119">
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="122">
         <v>2</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="128"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>300</v>
@@ -5990,7 +5980,7 @@
         <v>45069</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA25" s="19"/>
     </row>
@@ -5998,30 +5988,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158" t="s">
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159" t="s">
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="158">
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="130">
         <v>50</v>
       </c>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="160"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="132"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -6042,32 +6032,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119" t="s">
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="122">
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="129">
         <v>10</v>
       </c>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="119" t="s">
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="128"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>278</v>
@@ -6082,7 +6072,7 @@
         <v>45069</v>
       </c>
       <c r="Z27" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
@@ -6093,32 +6083,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120" t="s">
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
       <c r="M28" s="127">
         <v>4</v>
       </c>
       <c r="N28" s="127"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="122" t="s">
+      <c r="P28" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="123"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="133"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>279</v>
@@ -6133,7 +6123,7 @@
         <v>45069</v>
       </c>
       <c r="Z28" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
@@ -6142,32 +6132,32 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119" t="s">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120" t="s">
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
       <c r="M29" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="127"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="122" t="s">
+      <c r="P29" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="123"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="133"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>299</v>
@@ -6182,7 +6172,7 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA29" s="19" t="s">
         <v>307</v>
@@ -6192,32 +6182,32 @@
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119" t="s">
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120" t="s">
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
       <c r="M30" s="127">
         <v>6</v>
       </c>
       <c r="N30" s="127"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="122" t="s">
+      <c r="P30" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="123"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="133"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>280</v>
@@ -6232,7 +6222,7 @@
         <v>45069</v>
       </c>
       <c r="Z30" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
@@ -6241,32 +6231,32 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120" t="s">
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
       <c r="M31" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="127"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="122" t="s">
+      <c r="P31" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="123"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="133"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>297</v>
@@ -6281,7 +6271,7 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA31" s="19" t="s">
         <v>307</v>
@@ -6291,30 +6281,30 @@
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119" t="s">
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120" t="s">
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="119">
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="122">
         <v>50</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="128"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6333,32 +6323,32 @@
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="128" t="s">
+      <c r="D33" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="128" t="s">
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="120" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="128">
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="119">
         <v>4</v>
       </c>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="122" t="s">
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="123"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="133"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>281</v>
@@ -6373,7 +6363,7 @@
         <v>45069</v>
       </c>
       <c r="Z33" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
@@ -6384,30 +6374,30 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="124" t="s">
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="119">
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="122">
         <v>80</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="123"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="133"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>296</v>
@@ -6422,7 +6412,7 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA34" s="19" t="s">
         <v>306</v>
@@ -6432,30 +6422,30 @@
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119" t="s">
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120" t="s">
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="119">
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="122">
         <v>50</v>
       </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="121"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="128"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6474,32 +6464,32 @@
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120" t="s">
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="119">
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="122">
         <v>4</v>
       </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="122" t="s">
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="123"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="133"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>282</v>
@@ -6514,7 +6504,7 @@
         <v>45069</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
@@ -6525,30 +6515,30 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119" t="s">
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="124" t="s">
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="125"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="119">
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="122">
         <v>100</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="123"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="133"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>295</v>
@@ -6563,7 +6553,7 @@
         <v>45069</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA37" s="19"/>
     </row>
@@ -6571,30 +6561,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119" t="s">
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120" t="s">
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="119">
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="122">
         <v>50</v>
       </c>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="121"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="128"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6615,32 +6605,32 @@
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="128" t="s">
+      <c r="D39" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="128" t="s">
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="124" t="s">
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="125"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="128" t="s">
+      <c r="K39" s="124"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="129"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="128" t="s">
+      <c r="N39" s="120"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="119" t="s">
         <v>285</v>
       </c>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="151"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="134"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>283</v>
@@ -6655,7 +6645,7 @@
         <v>45069</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
@@ -6666,32 +6656,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="128" t="s">
+      <c r="D40" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="128" t="s">
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="124" t="s">
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="125"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="128" t="s">
+      <c r="K40" s="124"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="129"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="128" t="s">
+      <c r="N40" s="120"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="151"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="134"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>284</v>
@@ -6706,7 +6696,7 @@
         <v>45069</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
@@ -6715,22 +6705,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="151"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="134"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6741,22 +6731,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="151"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="134"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6767,22 +6757,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="151"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="134"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6793,22 +6783,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="151"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="134"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6819,22 +6809,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="151"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="134"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6845,22 +6835,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="151"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="134"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6871,22 +6861,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="151"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="134"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6897,22 +6887,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="151"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="134"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6923,22 +6913,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="151"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="134"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6949,22 +6939,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="128"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="151"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="134"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6975,22 +6965,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="123"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="133"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -7001,22 +6991,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="123"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="133"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7027,22 +7017,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="123"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="133"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7052,22 +7042,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="123"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="129"/>
+      <c r="P54" s="129"/>
+      <c r="Q54" s="129"/>
+      <c r="R54" s="129"/>
+      <c r="S54" s="133"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7077,155 +7067,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="123"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="129"/>
+      <c r="P55" s="129"/>
+      <c r="Q55" s="129"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="133"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="123"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="129"/>
+      <c r="O56" s="129"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="133"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="123"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="133"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="122"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="123"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="129"/>
+      <c r="S58" s="133"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
-      <c r="M59" s="122"/>
-      <c r="N59" s="122"/>
-      <c r="O59" s="122"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="123"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="133"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="122"/>
-      <c r="N60" s="122"/>
-      <c r="O60" s="122"/>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="122"/>
-      <c r="R60" s="122"/>
-      <c r="S60" s="123"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+      <c r="G60" s="129"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="133"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="122"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="123"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="133"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
-      <c r="N62" s="155"/>
-      <c r="O62" s="155"/>
-      <c r="P62" s="155"/>
-      <c r="Q62" s="155"/>
-      <c r="R62" s="155"/>
-      <c r="S62" s="156"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="139"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="139"/>
+      <c r="R62" s="139"/>
+      <c r="S62" s="140"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7242,6 +7232,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7266,274 +7524,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7568,71 +7558,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="182">
+      <c r="Q3" s="163">
         <v>45069</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7649,53 +7639,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7720,28 +7710,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="176" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7756,24 +7746,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171" t="s">
+      <c r="H8" s="169"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="167"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7832,24 +7822,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="164" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="168" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171" t="s">
+      <c r="H10" s="169"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="173"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="183"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7908,24 +7898,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="164" t="s">
+      <c r="E12" s="169"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171" t="s">
+      <c r="H12" s="169"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="167"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7954,10 +7944,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="163"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="178"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7980,10 +7970,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="166"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8566,22 +8556,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="156"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="139"/>
+      <c r="Q37" s="139"/>
+      <c r="R37" s="139"/>
+      <c r="S37" s="140"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8725,21 +8715,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8756,6 +8731,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8790,71 +8780,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="182">
+      <c r="Q3" s="163">
         <v>45069</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8872,53 +8862,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8943,28 +8933,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="164" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8979,24 +8969,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="170"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="174"/>
       <c r="J8" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="170"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="174"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -9015,7 +9005,7 @@
         <v>45071</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA8" s="21" t="s">
         <v>154</v>
@@ -9059,16 +9049,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="164" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="170"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="174"/>
       <c r="J10" s="184" t="s">
         <v>121</v>
       </c>
@@ -9095,7 +9085,7 @@
         <v>45071</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA10" s="21" t="s">
         <v>154</v>
@@ -9144,11 +9134,11 @@
       </c>
       <c r="E12" s="188"/>
       <c r="F12" s="189"/>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="170"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="174"/>
       <c r="J12" s="184" t="s">
         <v>122</v>
       </c>
@@ -9175,7 +9165,7 @@
         <v>45071</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA12" s="21" t="s">
         <v>154</v>
@@ -9219,24 +9209,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164" t="s">
+      <c r="E14" s="169"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="164" t="s">
+      <c r="H14" s="169"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="170"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="174"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9265,10 +9255,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="163"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="178"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9291,10 +9281,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="166"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="170"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9877,22 +9867,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="156"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="140"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -10018,18 +10008,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -10046,12 +10030,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10097,84 +10087,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="182">
+      <c r="R3" s="163">
         <v>45069</v>
       </c>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10189,75 +10179,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226" t="s">
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226" t="s">
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="228" t="s">
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="229"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="226" t="s">
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="226" t="s">
+      <c r="Q5" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="226"/>
-      <c r="S5" s="226"/>
-      <c r="T5" s="226" t="s">
+      <c r="R5" s="192"/>
+      <c r="S5" s="192"/>
+      <c r="T5" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="226"/>
-      <c r="V5" s="226"/>
-      <c r="W5" s="226" t="s">
+      <c r="U5" s="192"/>
+      <c r="V5" s="192"/>
+      <c r="W5" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="234"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="200"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="225"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="232"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="227"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
-      <c r="T6" s="227"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="227"/>
-      <c r="W6" s="227"/>
-      <c r="X6" s="227"/>
-      <c r="Y6" s="227"/>
-      <c r="Z6" s="235"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="201"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10282,43 +10272,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="220" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="220" t="s">
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="222"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="220" t="s">
+      <c r="Q7" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="221"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="221" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="203" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="221"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="213"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="215"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="214"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10333,39 +10323,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="201"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="200" t="s">
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203" t="s">
+      <c r="H8" s="206"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="207" t="s">
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="207" t="s">
+      <c r="Q8" s="208" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207" t="s">
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="207"/>
-      <c r="V8" s="207"/>
+      <c r="U8" s="208"/>
+      <c r="V8" s="208"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10384,39 +10374,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200" t="s">
+      <c r="E9" s="206"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="207" t="s">
+      <c r="H9" s="206"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="223" t="s">
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="208"/>
-      <c r="O9" s="209"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="211"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="207" t="s">
+      <c r="Q9" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207" t="s">
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="208" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="207"/>
-      <c r="V9" s="207"/>
+      <c r="U9" s="208"/>
+      <c r="V9" s="208"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10435,43 +10425,43 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="196" t="s">
+      <c r="D10" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="196" t="s">
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="220" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="217"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="159" t="s">
+      <c r="H10" s="221"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="219" t="s">
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="207" t="s">
+      <c r="Q10" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="207"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="207" t="s">
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="207"/>
-      <c r="V10" s="207"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="216"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="218"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10486,7 +10476,7 @@
         <v>45071</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH10" s="21"/>
     </row>
@@ -10529,7 +10519,7 @@
         <v>45071</v>
       </c>
       <c r="AG11" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH11" s="21" t="s">
         <v>310</v>
@@ -10539,43 +10529,43 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="200" t="s">
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203" t="s">
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="210" t="s">
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="207" t="s">
+      <c r="Q12" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="207"/>
-      <c r="S12" s="207"/>
-      <c r="T12" s="207" t="s">
+      <c r="R12" s="208"/>
+      <c r="S12" s="208"/>
+      <c r="T12" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="207"/>
-      <c r="V12" s="207"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="216"/>
+      <c r="U12" s="208"/>
+      <c r="V12" s="208"/>
+      <c r="W12" s="216"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="218"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10590,7 +10580,7 @@
         <v>45071</v>
       </c>
       <c r="AG12" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
@@ -10633,7 +10623,7 @@
         <v>45071</v>
       </c>
       <c r="AG13" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH13" s="21" t="s">
         <v>310</v>
@@ -10643,39 +10633,39 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="200" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203" t="s">
+      <c r="H14" s="206"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="210" t="s">
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="207" t="s">
+      <c r="Q14" s="208" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="207"/>
-      <c r="S14" s="207"/>
-      <c r="T14" s="207" t="s">
+      <c r="R14" s="208"/>
+      <c r="S14" s="208"/>
+      <c r="T14" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="207"/>
-      <c r="V14" s="207"/>
+      <c r="U14" s="208"/>
+      <c r="V14" s="208"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10694,7 +10684,7 @@
         <v>45071</v>
       </c>
       <c r="AG14" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH14" s="21"/>
     </row>
@@ -10737,7 +10727,7 @@
         <v>45071</v>
       </c>
       <c r="AG15" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH15" s="21" t="s">
         <v>310</v>
@@ -10747,39 +10737,39 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="208"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="200" t="s">
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203" t="s">
+      <c r="H16" s="206"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="210" t="s">
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="210"/>
-      <c r="O16" s="210"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="207" t="s">
+      <c r="Q16" s="208" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="207"/>
-      <c r="S16" s="207"/>
-      <c r="T16" s="207" t="s">
+      <c r="R16" s="208"/>
+      <c r="S16" s="208"/>
+      <c r="T16" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="207"/>
-      <c r="V16" s="207"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="208"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10798,7 +10788,7 @@
         <v>45071</v>
       </c>
       <c r="AG16" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH16" s="21"/>
     </row>
@@ -10841,7 +10831,7 @@
         <v>45071</v>
       </c>
       <c r="AG17" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH17" s="21" t="s">
         <v>310</v>
@@ -10851,39 +10841,39 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="200" t="s">
+      <c r="D18" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="200" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203" t="s">
+      <c r="H18" s="206"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="210" t="s">
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="207" t="s">
+      <c r="Q18" s="208" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207" t="s">
+      <c r="R18" s="208"/>
+      <c r="S18" s="208"/>
+      <c r="T18" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="208"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
@@ -10902,7 +10892,7 @@
         <v>45071</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH18" s="21"/>
     </row>
@@ -10945,7 +10935,7 @@
         <v>45071</v>
       </c>
       <c r="AG19" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH19" s="21" t="s">
         <v>310</v>
@@ -10955,39 +10945,39 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="200" t="s">
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203" t="s">
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="210" t="s">
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="207" t="s">
+      <c r="Q20" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207" t="s">
+      <c r="R20" s="208"/>
+      <c r="S20" s="208"/>
+      <c r="T20" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="207"/>
-      <c r="V20" s="207"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="208"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -11006,7 +10996,7 @@
         <v>45071</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH20" s="21"/>
     </row>
@@ -11049,7 +11039,7 @@
         <v>45071</v>
       </c>
       <c r="AG21" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH21" s="21" t="s">
         <v>310</v>
@@ -11059,39 +11049,39 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="208"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="200" t="s">
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203" t="s">
+      <c r="H22" s="206"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="210" t="s">
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="207" t="s">
+      <c r="Q22" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207" t="s">
+      <c r="R22" s="208"/>
+      <c r="S22" s="208"/>
+      <c r="T22" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="207"/>
-      <c r="V22" s="207"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="208"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
@@ -11110,7 +11100,7 @@
         <v>45071</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH22" s="21"/>
     </row>
@@ -11153,7 +11143,7 @@
         <v>45071</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH23" s="21" t="s">
         <v>310</v>
@@ -11163,39 +11153,39 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="200" t="s">
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="201"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="212" t="s">
+      <c r="H24" s="206"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="210" t="s">
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="210"/>
-      <c r="O24" s="210"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="207" t="s">
+      <c r="Q24" s="208" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="207" t="s">
+      <c r="R24" s="208"/>
+      <c r="S24" s="208"/>
+      <c r="T24" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="207"/>
-      <c r="V24" s="207"/>
+      <c r="U24" s="208"/>
+      <c r="V24" s="208"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -11214,7 +11204,7 @@
         <v>45071</v>
       </c>
       <c r="AG24" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH24" s="21"/>
     </row>
@@ -11257,7 +11247,7 @@
         <v>45071</v>
       </c>
       <c r="AG25" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH25" s="21" t="s">
         <v>310</v>
@@ -11267,39 +11257,39 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="200" t="s">
+      <c r="E26" s="206"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="201"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="207" t="s">
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="211" t="s">
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="225" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="207" t="s">
+      <c r="Q26" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="207"/>
-      <c r="S26" s="207"/>
-      <c r="T26" s="207" t="s">
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="207"/>
-      <c r="V26" s="207"/>
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
@@ -11318,7 +11308,7 @@
         <v>45071</v>
       </c>
       <c r="AG26" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH26" s="21"/>
     </row>
@@ -11361,7 +11351,7 @@
         <v>45071</v>
       </c>
       <c r="AG27" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH27" s="21" t="s">
         <v>310</v>
@@ -11371,39 +11361,39 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="200" t="s">
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210" t="s">
+      <c r="H28" s="210"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="219" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="207"/>
-      <c r="L28" s="207"/>
-      <c r="M28" s="207" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="207" t="s">
+      <c r="Q28" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="207"/>
-      <c r="S28" s="207"/>
-      <c r="T28" s="210" t="s">
+      <c r="R28" s="208"/>
+      <c r="S28" s="208"/>
+      <c r="T28" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="207"/>
-      <c r="V28" s="207"/>
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -11422,7 +11412,7 @@
         <v>45071</v>
       </c>
       <c r="AG28" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH28" s="21"/>
     </row>
@@ -11465,7 +11455,7 @@
         <v>45071</v>
       </c>
       <c r="AG29" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH29" s="21" t="s">
         <v>310</v>
@@ -11475,39 +11465,39 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="193" t="s">
+      <c r="D30" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="193" t="s">
+      <c r="E30" s="230"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="207" t="s">
+      <c r="H30" s="230"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="207" t="s">
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="208" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="208"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="207" t="s">
+      <c r="Q30" s="208" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="207"/>
-      <c r="S30" s="207"/>
-      <c r="T30" s="207" t="s">
+      <c r="R30" s="208"/>
+      <c r="S30" s="208"/>
+      <c r="T30" s="208" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="207"/>
-      <c r="V30" s="207"/>
+      <c r="U30" s="208"/>
+      <c r="V30" s="208"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
@@ -11526,7 +11516,7 @@
         <v>45071</v>
       </c>
       <c r="AG30" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH30" s="21"/>
     </row>
@@ -11569,7 +11559,7 @@
         <v>45071</v>
       </c>
       <c r="AG31" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH31" s="21" t="s">
         <v>315</v>
@@ -11579,39 +11569,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="196" t="s">
+      <c r="D32" s="220" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="196" t="s">
+      <c r="E32" s="226"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="159" t="s">
+      <c r="H32" s="226"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="204" t="s">
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="205"/>
-      <c r="O32" s="206"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="228"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="196" t="s">
+      <c r="Q32" s="220" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="197"/>
-      <c r="S32" s="198"/>
-      <c r="T32" s="204" t="s">
+      <c r="R32" s="226"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="205"/>
-      <c r="V32" s="206"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="228"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11630,39 +11620,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="200" t="s">
+      <c r="D33" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="200" t="s">
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="201"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203" t="s">
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="204" t="s">
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="205"/>
-      <c r="O33" s="206"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="228"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="196" t="s">
+      <c r="Q33" s="220" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="197"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="204" t="s">
+      <c r="R33" s="226"/>
+      <c r="S33" s="227"/>
+      <c r="T33" s="216" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="205"/>
-      <c r="V33" s="206"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="228"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11681,43 +11671,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="200" t="s">
+      <c r="D34" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="200" t="s">
+      <c r="E34" s="206"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="203" t="s">
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="196" t="s">
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="197"/>
-      <c r="O34" s="198"/>
+      <c r="N34" s="226"/>
+      <c r="O34" s="227"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="196" t="s">
+      <c r="Q34" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="197"/>
-      <c r="S34" s="198"/>
-      <c r="T34" s="204" t="s">
+      <c r="R34" s="226"/>
+      <c r="S34" s="227"/>
+      <c r="T34" s="216" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="205"/>
-      <c r="V34" s="206"/>
-      <c r="W34" s="190"/>
-      <c r="X34" s="191"/>
-      <c r="Y34" s="191"/>
-      <c r="Z34" s="192"/>
+      <c r="U34" s="217"/>
+      <c r="V34" s="228"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="233"/>
+      <c r="Y34" s="233"/>
+      <c r="Z34" s="234"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11732,43 +11722,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="193" t="s">
+      <c r="D35" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="193" t="s">
+      <c r="E35" s="230"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="229" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="194"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196" t="s">
+      <c r="H35" s="230"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="197"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="196" t="s">
+      <c r="K35" s="226"/>
+      <c r="L35" s="227"/>
+      <c r="M35" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="197"/>
-      <c r="O35" s="198"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="227"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="196" t="s">
+      <c r="Q35" s="220" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="197"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="199" t="s">
+      <c r="R35" s="226"/>
+      <c r="S35" s="227"/>
+      <c r="T35" s="235" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="197"/>
-      <c r="V35" s="198"/>
-      <c r="W35" s="190"/>
-      <c r="X35" s="191"/>
-      <c r="Y35" s="191"/>
-      <c r="Z35" s="192"/>
+      <c r="U35" s="226"/>
+      <c r="V35" s="227"/>
+      <c r="W35" s="232"/>
+      <c r="X35" s="233"/>
+      <c r="Y35" s="233"/>
+      <c r="Z35" s="234"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12573,29 +12563,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="155"/>
-      <c r="Z60" s="156"/>
+      <c r="W60" s="139"/>
+      <c r="X60" s="139"/>
+      <c r="Y60" s="139"/>
+      <c r="Z60" s="140"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12649,29 +12639,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12696,92 +12749,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12793,8 +12783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E3830E-7758-4A2B-AE12-490073FD199E}">
   <dimension ref="B1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12819,64 +12809,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="261"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="238"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="180" t="s">
+      <c r="L3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12889,10 +12879,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12928,71 +12918,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="239" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="262" t="s">
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262" t="s">
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
-      <c r="U5" s="262" t="s">
+      <c r="S5" s="239"/>
+      <c r="T5" s="239"/>
+      <c r="U5" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="262"/>
-      <c r="W5" s="262"/>
-      <c r="X5" s="264"/>
+      <c r="V5" s="239"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="241"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="137"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="265"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="242"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -13017,40 +13007,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="251" t="s">
+      <c r="D7" s="244"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="252"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="248" t="s">
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="246" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="254"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256" t="s">
+      <c r="J7" s="247"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="249" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="257"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="248" t="s">
+      <c r="M7" s="250"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="246" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="236" t="s">
+      <c r="P7" s="247"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="191"/>
-      <c r="T7" s="237"/>
-      <c r="U7" s="238"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="240"/>
+      <c r="S7" s="233"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="256"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -13065,36 +13055,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="245" t="s">
+      <c r="C8" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="246"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="245" t="s">
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="246"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="236" t="s">
+      <c r="G8" s="262"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="252" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="236" t="s">
+      <c r="J8" s="259"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="252" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="243"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="248" t="s">
+      <c r="M8" s="259"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="236" t="s">
+      <c r="P8" s="264"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="252" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="243"/>
-      <c r="T8" s="244"/>
+      <c r="S8" s="259"/>
+      <c r="T8" s="260"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -13109,12 +13099,8 @@
       <c r="AC8" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AD8" s="96">
-        <v>45071</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>319</v>
-      </c>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="2:32" ht="84.6" customHeight="1">
@@ -13151,48 +13137,42 @@
       <c r="AC9" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="AD9" s="96">
-        <v>45071</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF9" s="100" t="s">
-        <v>318</v>
-      </c>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="100"/>
     </row>
     <row r="10" spans="2:32" ht="84.6" customHeight="1">
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="190" t="s">
+      <c r="D10" s="257"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="232" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="241"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="236" t="s">
+      <c r="G10" s="257"/>
+      <c r="H10" s="258"/>
+      <c r="I10" s="252" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="243"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="236" t="s">
+      <c r="J10" s="259"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="252" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="243"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="236" t="s">
+      <c r="M10" s="259"/>
+      <c r="N10" s="260"/>
+      <c r="O10" s="252" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="243"/>
-      <c r="T10" s="244"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="252"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="260"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13693,22 +13673,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13725,6 +13689,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE119150-9969-40FA-A268-BA2AC6258645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8BCDB9-3917-49F9-B499-DB923614176A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="320">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -3489,6 +3489,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3498,9 +3534,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3510,38 +3543,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3552,28 +3579,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3585,89 +3669,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3681,63 +3738,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3756,6 +3756,108 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3792,106 +3894,73 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3914,75 +3983,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4413,26 +4413,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4445,37 +4445,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="114"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="114"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="113"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="116">
+      <c r="L3" s="111">
         <v>45069</v>
       </c>
-      <c r="M3" s="117"/>
+      <c r="M3" s="112"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4548,67 +4548,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="101" t="s">
+      <c r="P7" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="Q7" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="107" t="s">
+      <c r="R7" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="102">
+      <c r="S7" s="114">
         <v>45069</v>
       </c>
-      <c r="T7" s="101" t="s">
+      <c r="T7" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="U7" s="101"/>
+      <c r="U7" s="113"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4616,42 +4616,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="105"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="104"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="102"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4665,18 +4665,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="104"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="104"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4691,18 +4691,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="104"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="104"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4715,12 +4715,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="115"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="104"/>
+      <c r="G26" s="102"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4867,21 +4867,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4892,6 +4877,21 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4912,8 +4912,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O19" zoomScale="74" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView topLeftCell="A19" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="74" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -4936,59 +4936,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="108" t="s">
+      <c r="V2" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="149"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4998,10 +4998,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -5016,57 +5016,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="153" t="s">
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="153" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="153" t="s">
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="159"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="150"/>
-      <c r="D6" s="152" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152" t="s">
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="160"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5111,12 +5111,12 @@
       </c>
       <c r="N7" s="127"/>
       <c r="O7" s="127"/>
-      <c r="P7" s="129" t="s">
+      <c r="P7" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="133"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="123"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5137,32 +5137,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="126" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="122">
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="119">
         <v>8</v>
       </c>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122" t="s">
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="128"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="121"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5183,32 +5183,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="119" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="126" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="119">
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="128">
         <v>5</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="119" t="s">
+      <c r="N9" s="129"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="128" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="134"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="151"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>272</v>
@@ -5236,30 +5236,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="141" t="s">
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="148" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="123" t="s">
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="119">
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="128">
         <v>50</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="134"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="151"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>289</v>
@@ -5282,30 +5282,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="126" t="s">
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="122">
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="119">
         <v>50</v>
       </c>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="128"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="121"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5326,32 +5326,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="119" t="s">
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="126" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="119">
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="128">
         <v>10</v>
       </c>
-      <c r="N12" s="120"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="119" t="s">
+      <c r="N12" s="129"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="134"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="151"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>273</v>
@@ -5377,30 +5377,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="136" t="s">
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="123" t="s">
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="119">
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="128">
         <v>50</v>
       </c>
-      <c r="N13" s="120"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="134"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="151"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>291</v>
@@ -5423,30 +5423,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="135" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="126" t="s">
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="122">
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="119">
         <v>50</v>
       </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="128"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="121"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5467,32 +5467,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="136" t="s">
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="123" t="s">
+      <c r="H15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="119">
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="128">
         <v>16</v>
       </c>
-      <c r="N15" s="120"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="119" t="s">
+      <c r="N15" s="129"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="134"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="151"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>274</v>
@@ -5518,30 +5518,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="136" t="s">
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="123" t="s">
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="119">
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="128">
         <v>50</v>
       </c>
-      <c r="N16" s="120"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="134"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="151"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>292</v>
@@ -5564,30 +5564,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="135" t="s">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="126" t="s">
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="122">
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="119">
         <v>50</v>
       </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="128"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="121"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5608,32 +5608,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="119" t="s">
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="126" t="s">
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="119">
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="128">
         <v>6</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="119" t="s">
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="128" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="134"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="151"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>276</v>
@@ -5659,30 +5659,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="119" t="s">
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="123" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="119">
+      <c r="K19" s="125"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="128">
         <v>50</v>
       </c>
-      <c r="N19" s="120"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="134"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="151"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>293</v>
@@ -5707,30 +5707,30 @@
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="119" t="s">
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="123" t="s">
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="119">
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="128">
         <v>50</v>
       </c>
-      <c r="N20" s="120"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="134"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="151"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>294</v>
@@ -5755,30 +5755,30 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122" t="s">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="126" t="s">
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="122">
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="119">
         <v>50</v>
       </c>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="128"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="121"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5799,32 +5799,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122" t="s">
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="126" t="s">
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="122">
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="119">
         <v>8</v>
       </c>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122" t="s">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="128"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="121"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>277</v>
@@ -5850,30 +5850,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122" t="s">
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="126" t="s">
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="122">
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="119">
         <v>4</v>
       </c>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="128"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="121"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>298</v>
@@ -5896,30 +5896,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="126" t="s">
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="122">
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="119">
         <v>2</v>
       </c>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="128"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="121"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5942,30 +5942,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="126" t="s">
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="122">
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="119">
         <v>2</v>
       </c>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="128"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="121"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>300</v>
@@ -5988,30 +5988,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130" t="s">
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131" t="s">
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="130">
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="158">
         <v>50</v>
       </c>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="132"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="160"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -6032,32 +6032,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="126" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="129">
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="122">
         <v>10</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="122" t="s">
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="128"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="121"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>278</v>
@@ -6083,32 +6083,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="126" t="s">
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
       <c r="M28" s="127">
         <v>4</v>
       </c>
       <c r="N28" s="127"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="129" t="s">
+      <c r="P28" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="133"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="123"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>279</v>
@@ -6132,32 +6132,32 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="126" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
       <c r="M29" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="127"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="129" t="s">
+      <c r="P29" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="133"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="123"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>299</v>
@@ -6182,32 +6182,32 @@
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="126" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
       <c r="M30" s="127">
         <v>6</v>
       </c>
       <c r="N30" s="127"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="129" t="s">
+      <c r="P30" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="133"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="123"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>280</v>
@@ -6231,32 +6231,32 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="126" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
       <c r="M31" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="127"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="129" t="s">
+      <c r="P31" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="133"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="123"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>297</v>
@@ -6281,30 +6281,30 @@
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="D32" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122" t="s">
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="126" t="s">
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="122">
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="119">
         <v>50</v>
       </c>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="128"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="121"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6323,32 +6323,32 @@
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="119" t="s">
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="126" t="s">
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="119">
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="128">
         <v>4</v>
       </c>
-      <c r="N33" s="120"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="129" t="s">
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="133"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="123"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>281</v>
@@ -6374,30 +6374,30 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122" t="s">
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123" t="s">
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="122">
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="119">
         <v>80</v>
       </c>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="129"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="133"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="123"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>296</v>
@@ -6422,30 +6422,30 @@
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122" t="s">
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="126" t="s">
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="122">
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="119">
         <v>50</v>
       </c>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="128"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="121"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6464,32 +6464,32 @@
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122" t="s">
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="126" t="s">
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="122">
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="119">
         <v>4</v>
       </c>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="129" t="s">
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="133"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="123"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>282</v>
@@ -6515,30 +6515,30 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122" t="s">
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="123" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="124"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="122">
+      <c r="K37" s="125"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="119">
         <v>100</v>
       </c>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="133"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="123"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>295</v>
@@ -6561,30 +6561,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122" t="s">
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="126" t="s">
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="122">
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="119">
         <v>50</v>
       </c>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="128"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="121"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6605,32 +6605,32 @@
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="120"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="119" t="s">
+      <c r="E39" s="129"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="123" t="s">
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="124"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="119" t="s">
+      <c r="K39" s="125"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="120"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="119" t="s">
+      <c r="N39" s="129"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="134"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="151"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>283</v>
@@ -6656,32 +6656,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="119" t="s">
+      <c r="E40" s="129"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="123" t="s">
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="124"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="119" t="s">
+      <c r="K40" s="125"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="120"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="119" t="s">
+      <c r="N40" s="129"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="134"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="151"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>284</v>
@@ -6705,22 +6705,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="134"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="151"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6731,22 +6731,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="134"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="151"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="134"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="151"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6783,22 +6783,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="134"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="130"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="129"/>
+      <c r="R44" s="129"/>
+      <c r="S44" s="151"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6809,22 +6809,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="134"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="129"/>
+      <c r="R45" s="129"/>
+      <c r="S45" s="151"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6835,22 +6835,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="134"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="151"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6861,22 +6861,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="134"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="151"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6887,22 +6887,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="134"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="151"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6913,22 +6913,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="134"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="151"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6939,22 +6939,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="134"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="151"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6965,22 +6965,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="133"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="123"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6991,22 +6991,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="133"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="123"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7017,22 +7017,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="133"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="123"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7042,22 +7042,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="129"/>
-      <c r="P54" s="129"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="133"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122"/>
+      <c r="O54" s="122"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="123"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7067,155 +7067,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="129"/>
-      <c r="P55" s="129"/>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="129"/>
-      <c r="S55" s="133"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="123"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="129"/>
-      <c r="O56" s="129"/>
-      <c r="P56" s="129"/>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="129"/>
-      <c r="S56" s="133"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="123"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="129"/>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
-      <c r="S57" s="133"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="123"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="133"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="122"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="123"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="133"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="123"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="133"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="123"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="133"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="123"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="139"/>
-      <c r="K62" s="139"/>
-      <c r="L62" s="139"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="139"/>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="139"/>
-      <c r="S62" s="140"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="155"/>
+      <c r="P62" s="155"/>
+      <c r="Q62" s="155"/>
+      <c r="R62" s="155"/>
+      <c r="S62" s="156"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7232,37 +7232,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -7287,243 +7493,37 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7558,71 +7558,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="163">
+      <c r="Q3" s="182">
         <v>45069</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="164"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7639,53 +7639,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="153" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="153" t="s">
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="153" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="159"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="150"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="160"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7710,28 +7710,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="170"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7746,24 +7746,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="168" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="167"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7822,24 +7822,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="168" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175" t="s">
+      <c r="H10" s="165"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="183"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="173"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7898,24 +7898,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="168" t="s">
+      <c r="E12" s="165"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="169"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175" t="s">
+      <c r="H12" s="165"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="167"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7944,10 +7944,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="178"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="163"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7970,10 +7970,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
+      <c r="S14" s="166"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8556,22 +8556,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="139"/>
-      <c r="P37" s="139"/>
-      <c r="Q37" s="139"/>
-      <c r="R37" s="139"/>
-      <c r="S37" s="140"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="156"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8715,6 +8715,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8731,21 +8746,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8757,8 +8757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B4781-A492-4B58-8A10-539DD8C535C6}">
   <dimension ref="C1:AB52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="O5" zoomScale="62" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O5" zoomScale="62" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Y12:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -8780,71 +8780,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="134"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="163">
+      <c r="Q3" s="182">
         <v>45069</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="164"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8862,53 +8862,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="153" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="153" t="s">
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="153" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="159"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="146"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="150"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="157"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="160"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8933,28 +8933,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="168" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="170"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8969,24 +8969,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="168" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="174"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="170"/>
       <c r="J8" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="174"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="170"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -9001,12 +9001,8 @@
       <c r="X8" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="Y8" s="96">
-        <v>45071</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>318</v>
-      </c>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="21" t="s">
         <v>154</v>
       </c>
@@ -9049,16 +9045,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="168" t="s">
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="174"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="170"/>
       <c r="J10" s="184" t="s">
         <v>121</v>
       </c>
@@ -9081,12 +9077,8 @@
       <c r="X10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="Y10" s="96">
-        <v>45071</v>
-      </c>
-      <c r="Z10" s="19" t="s">
-        <v>318</v>
-      </c>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="21" t="s">
         <v>154</v>
       </c>
@@ -9134,11 +9126,11 @@
       </c>
       <c r="E12" s="188"/>
       <c r="F12" s="189"/>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="169"/>
-      <c r="I12" s="174"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="170"/>
       <c r="J12" s="184" t="s">
         <v>122</v>
       </c>
@@ -9161,12 +9153,8 @@
       <c r="X12" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Y12" s="96">
-        <v>45071</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>318</v>
-      </c>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="19"/>
       <c r="AA12" s="21" t="s">
         <v>154</v>
       </c>
@@ -9209,24 +9197,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="168" t="s">
+      <c r="D14" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="168" t="s">
+      <c r="E14" s="165"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="169"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="168" t="s">
+      <c r="H14" s="165"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="174"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="170"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9255,10 +9243,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="178"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="163"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9281,10 +9269,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="169"/>
-      <c r="S16" s="170"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="166"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9867,22 +9855,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="139"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="140"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="155"/>
+      <c r="S39" s="156"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -10008,12 +9996,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -10030,18 +10024,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10087,84 +10075,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="163">
+      <c r="R3" s="182">
         <v>45069</v>
       </c>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="164"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10179,75 +10167,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192" t="s">
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192" t="s">
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="194" t="s">
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="228" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="195"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="192" t="s">
+      <c r="N5" s="229"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="192" t="s">
+      <c r="Q5" s="226" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="192"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="192" t="s">
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
+      <c r="U5" s="226"/>
+      <c r="V5" s="226"/>
+      <c r="W5" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="200"/>
+      <c r="X5" s="226"/>
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="234"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="191"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="201"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="227"/>
+      <c r="W6" s="227"/>
+      <c r="X6" s="227"/>
+      <c r="Y6" s="227"/>
+      <c r="Z6" s="235"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10272,43 +10260,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="202" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="220" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="131" t="s">
+      <c r="H7" s="221"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="202" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="220" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="204"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="222"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="202" t="s">
+      <c r="Q7" s="220" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="203" t="s">
+      <c r="R7" s="221"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="203"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="213"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="214"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="215"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10323,39 +10311,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="205" t="s">
+      <c r="D8" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="205" t="s">
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="215" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="208" t="s">
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="208" t="s">
+      <c r="Q8" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="208"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="208" t="s">
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="208"/>
-      <c r="V8" s="208"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10374,39 +10362,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="205" t="s">
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="206"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208" t="s">
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="209" t="s">
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="210"/>
-      <c r="O9" s="211"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="209"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="208" t="s">
+      <c r="Q9" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208" t="s">
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10425,43 +10413,43 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="221"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="220" t="s">
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="196" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="221"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="217"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="223" t="s">
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="208" t="s">
+      <c r="Q10" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208" t="s">
+      <c r="R10" s="207"/>
+      <c r="S10" s="207"/>
+      <c r="T10" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="218"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="216"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10529,43 +10517,43 @@
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="205" t="s">
+      <c r="D12" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="205" t="s">
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="215" t="s">
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="219" t="s">
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="208" t="s">
+      <c r="Q12" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="208"/>
-      <c r="S12" s="208"/>
-      <c r="T12" s="208" t="s">
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="208"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="216"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="218"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="205"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="216"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10633,39 +10621,39 @@
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="205" t="s">
+      <c r="D14" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="205" t="s">
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="206"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="215" t="s">
+      <c r="H14" s="201"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="219" t="s">
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="208" t="s">
+      <c r="Q14" s="207" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="208"/>
-      <c r="S14" s="208"/>
-      <c r="T14" s="208" t="s">
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="208"/>
-      <c r="V14" s="208"/>
+      <c r="U14" s="207"/>
+      <c r="V14" s="207"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10737,39 +10725,39 @@
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="205" t="s">
+      <c r="D16" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="205" t="s">
+      <c r="E16" s="208"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="206"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="215" t="s">
+      <c r="H16" s="201"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="219" t="s">
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
+      <c r="N16" s="210"/>
+      <c r="O16" s="210"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="208" t="s">
+      <c r="Q16" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="208"/>
-      <c r="S16" s="208"/>
-      <c r="T16" s="208" t="s">
+      <c r="R16" s="207"/>
+      <c r="S16" s="207"/>
+      <c r="T16" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="208"/>
-      <c r="V16" s="208"/>
+      <c r="U16" s="207"/>
+      <c r="V16" s="207"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10841,39 +10829,39 @@
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="205" t="s">
+      <c r="D18" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="205" t="s">
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="215" t="s">
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="219" t="s">
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="210"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="208" t="s">
+      <c r="Q18" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="208"/>
-      <c r="S18" s="208"/>
-      <c r="T18" s="208" t="s">
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="207"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
@@ -10945,39 +10933,39 @@
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="205" t="s">
+      <c r="D20" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="205" t="s">
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="215" t="s">
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="219" t="s">
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="208" t="s">
+      <c r="Q20" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208" t="s">
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="208"/>
-      <c r="V20" s="208"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="207"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -11049,39 +11037,39 @@
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="205" t="s">
+      <c r="D22" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="205" t="s">
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="215" t="s">
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="219" t="s">
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="208" t="s">
+      <c r="Q22" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="208"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208" t="s">
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="208"/>
-      <c r="V22" s="208"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="207"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
@@ -11153,39 +11141,39 @@
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="205" t="s">
+      <c r="D24" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="205" t="s">
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="224" t="s">
+      <c r="H24" s="201"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="219" t="s">
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
+      <c r="N24" s="210"/>
+      <c r="O24" s="210"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="208" t="s">
+      <c r="Q24" s="207" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="208"/>
-      <c r="S24" s="208"/>
-      <c r="T24" s="208" t="s">
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -11257,39 +11245,39 @@
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="205" t="s">
+      <c r="D26" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="205" t="s">
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208" t="s">
+      <c r="H26" s="201"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="225" t="s">
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="211" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="225"/>
-      <c r="O26" s="225"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="208" t="s">
+      <c r="Q26" s="207" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208" t="s">
+      <c r="R26" s="207"/>
+      <c r="S26" s="207"/>
+      <c r="T26" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="208"/>
-      <c r="V26" s="208"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="207"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
@@ -11361,39 +11349,39 @@
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="205" t="s">
+      <c r="D28" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="210"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="205" t="s">
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="210"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="219" t="s">
+      <c r="H28" s="208"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="208" t="s">
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="208"/>
-      <c r="O28" s="208"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="208" t="s">
+      <c r="Q28" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="208"/>
-      <c r="S28" s="208"/>
-      <c r="T28" s="219" t="s">
+      <c r="R28" s="207"/>
+      <c r="S28" s="207"/>
+      <c r="T28" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="208"/>
-      <c r="V28" s="208"/>
+      <c r="U28" s="207"/>
+      <c r="V28" s="207"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -11465,39 +11453,39 @@
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="229" t="s">
+      <c r="D30" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="230"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="229" t="s">
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="230"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="208" t="s">
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="207" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="208" t="s">
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="208"/>
-      <c r="O30" s="208"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="207"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="208" t="s">
+      <c r="Q30" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="208"/>
-      <c r="S30" s="208"/>
-      <c r="T30" s="208" t="s">
+      <c r="R30" s="207"/>
+      <c r="S30" s="207"/>
+      <c r="T30" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
+      <c r="U30" s="207"/>
+      <c r="V30" s="207"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
@@ -11569,39 +11557,39 @@
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="220" t="s">
+      <c r="D32" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="226"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="220" t="s">
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="196" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="226"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="131" t="s">
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="216" t="s">
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="204" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="217"/>
-      <c r="O32" s="228"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="206"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="220" t="s">
+      <c r="Q32" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="226"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="216" t="s">
+      <c r="R32" s="197"/>
+      <c r="S32" s="198"/>
+      <c r="T32" s="204" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="217"/>
-      <c r="V32" s="228"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="206"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11620,39 +11608,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="205" t="s">
+      <c r="D33" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="205" t="s">
+      <c r="E33" s="201"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="215" t="s">
+      <c r="H33" s="201"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="216" t="s">
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="204" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="217"/>
-      <c r="O33" s="228"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="206"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="220" t="s">
+      <c r="Q33" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="226"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="216" t="s">
+      <c r="R33" s="197"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="204" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="217"/>
-      <c r="V33" s="228"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="206"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11671,43 +11659,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="205" t="s">
+      <c r="D34" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="205" t="s">
+      <c r="E34" s="201"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="215" t="s">
+      <c r="H34" s="201"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="203" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="220" t="s">
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="226"/>
-      <c r="O34" s="227"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="198"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="220" t="s">
+      <c r="Q34" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="226"/>
-      <c r="S34" s="227"/>
-      <c r="T34" s="216" t="s">
+      <c r="R34" s="197"/>
+      <c r="S34" s="198"/>
+      <c r="T34" s="204" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="217"/>
-      <c r="V34" s="228"/>
-      <c r="W34" s="232"/>
-      <c r="X34" s="233"/>
-      <c r="Y34" s="233"/>
-      <c r="Z34" s="234"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="206"/>
+      <c r="W34" s="190"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="192"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11722,43 +11710,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="229" t="s">
+      <c r="D35" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="229" t="s">
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="230"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="220" t="s">
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="226"/>
-      <c r="L35" s="227"/>
-      <c r="M35" s="220" t="s">
+      <c r="K35" s="197"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="226"/>
-      <c r="O35" s="227"/>
+      <c r="N35" s="197"/>
+      <c r="O35" s="198"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="220" t="s">
+      <c r="Q35" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="226"/>
-      <c r="S35" s="227"/>
-      <c r="T35" s="235" t="s">
+      <c r="R35" s="197"/>
+      <c r="S35" s="198"/>
+      <c r="T35" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="226"/>
-      <c r="V35" s="227"/>
-      <c r="W35" s="232"/>
-      <c r="X35" s="233"/>
-      <c r="Y35" s="233"/>
-      <c r="Z35" s="234"/>
+      <c r="U35" s="197"/>
+      <c r="V35" s="198"/>
+      <c r="W35" s="190"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="192"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12563,29 +12551,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="139"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="139"/>
-      <c r="X60" s="139"/>
-      <c r="Y60" s="139"/>
-      <c r="Z60" s="140"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="156"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12639,6 +12627,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12663,115 +12760,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12809,64 +12797,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="259" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="238"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="261"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12879,10 +12867,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12918,71 +12906,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239" t="s">
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239" t="s">
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="262" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239" t="s">
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239" t="s">
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239" t="s">
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="241"/>
+      <c r="V5" s="262"/>
+      <c r="W5" s="262"/>
+      <c r="X5" s="264"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="150"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
-      <c r="M6" s="240"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="240"/>
-      <c r="U6" s="240"/>
-      <c r="V6" s="240"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="242"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="263"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="263"/>
+      <c r="R6" s="263"/>
+      <c r="S6" s="263"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="265"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -13007,40 +12995,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="243" t="s">
+      <c r="D7" s="252"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="251" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="244"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="246" t="s">
+      <c r="G7" s="252"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="248" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="247"/>
-      <c r="K7" s="248"/>
-      <c r="L7" s="249" t="s">
+      <c r="J7" s="254"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="256" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="250"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="246" t="s">
+      <c r="M7" s="257"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="248" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="247"/>
-      <c r="Q7" s="248"/>
-      <c r="R7" s="252" t="s">
+      <c r="P7" s="254"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="236" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="233"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="256"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="237"/>
+      <c r="U7" s="238"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="240"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -13055,36 +13043,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="261" t="s">
+      <c r="C8" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="261" t="s">
+      <c r="D8" s="246"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="262"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="252" t="s">
+      <c r="G8" s="246"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="236" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="259"/>
-      <c r="K8" s="260"/>
-      <c r="L8" s="252" t="s">
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="259"/>
-      <c r="N8" s="260"/>
-      <c r="O8" s="246" t="s">
+      <c r="M8" s="243"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="248" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="265"/>
-      <c r="R8" s="252" t="s">
+      <c r="P8" s="249"/>
+      <c r="Q8" s="250"/>
+      <c r="R8" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="259"/>
-      <c r="T8" s="260"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="244"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -13145,34 +13133,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="232" t="s">
+      <c r="C10" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="257"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="232" t="s">
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="257"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="252" t="s">
+      <c r="G10" s="241"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="259"/>
-      <c r="K10" s="260"/>
-      <c r="L10" s="252" t="s">
+      <c r="J10" s="243"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="259"/>
-      <c r="N10" s="260"/>
-      <c r="O10" s="252" t="s">
+      <c r="M10" s="243"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="252"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="260"/>
+      <c r="P10" s="243"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="243"/>
+      <c r="T10" s="244"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13673,6 +13661,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13689,22 +13693,6 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8BCDB9-3917-49F9-B499-DB923614176A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5F100-3C18-42E5-9F94-D16B03B60244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="319">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -2206,16 +2206,6 @@
 UT-USER02-E-022ケースに参照 </t>
     <rPh sb="19" eb="21">
       <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目が無い</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3489,94 +3479,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3630,44 +3659,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3678,15 +3713,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3696,48 +3722,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3756,6 +3746,132 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3765,134 +3881,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3930,59 +3968,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4413,26 +4403,26 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="37.15" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4445,37 +4435,37 @@
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="109"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="116">
         <v>45069</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
@@ -4548,67 +4538,67 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="113" t="s">
+      <c r="Q7" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="118" t="s">
+      <c r="R7" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="S7" s="114">
+      <c r="S7" s="102">
         <v>45069</v>
       </c>
-      <c r="T7" s="113" t="s">
-        <v>318</v>
-      </c>
-      <c r="U7" s="113"/>
+      <c r="T7" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
     </row>
     <row r="10" spans="2:28" ht="33">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="32"/>
@@ -4616,42 +4606,42 @@
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="102"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="104"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
@@ -4665,18 +4655,18 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="104"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="104"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
@@ -4691,18 +4681,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="104"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="104"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4715,12 +4705,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="115"/>
+      <c r="G25" s="103"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="104"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4867,6 +4857,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="U7:U14"/>
     <mergeCell ref="T7:T14"/>
     <mergeCell ref="S7:S14"/>
@@ -4877,21 +4882,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="R7:R14"/>
-    <mergeCell ref="P2:S3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4912,8 +4902,8 @@
   </sheetPr>
   <dimension ref="C1:AB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="74" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="H26" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="74" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -4936,59 +4926,59 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103" t="s">
+      <c r="V2" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:28" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="135" t="s">
+      <c r="E3" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="135" t="s">
+      <c r="M3" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4998,10 +4988,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="3:28" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -5016,57 +5006,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="140" t="s">
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="139" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139" t="s">
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -5111,12 +5101,12 @@
       </c>
       <c r="N7" s="127"/>
       <c r="O7" s="127"/>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="123"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="133"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>137</v>
@@ -5137,32 +5127,32 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="119">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="122">
         <v>8</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119" t="s">
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="121"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="128"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>138</v>
@@ -5183,32 +5173,32 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="120" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="128">
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="119">
         <v>5</v>
       </c>
-      <c r="N9" s="129"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="128" t="s">
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="151"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="134"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>272</v>
@@ -5223,7 +5213,7 @@
         <v>45069</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA9" s="19" t="s">
         <v>269</v>
@@ -5236,30 +5226,30 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="148" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="141" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="124" t="s">
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="128">
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="119">
         <v>50</v>
       </c>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="151"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="134"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>289</v>
@@ -5274,7 +5264,7 @@
         <v>45069</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA10" s="19"/>
     </row>
@@ -5282,30 +5272,30 @@
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="119">
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="122">
         <v>50</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="121"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="128"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>139</v>
@@ -5326,32 +5316,32 @@
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128" t="s">
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="120" t="s">
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="128">
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="119">
         <v>10</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="128" t="s">
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="151"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="134"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>273</v>
@@ -5366,7 +5356,7 @@
         <v>45069</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="1" t="s">
@@ -5377,30 +5367,30 @@
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="152" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="124" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="128">
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="119">
         <v>50</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="151"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="134"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>291</v>
@@ -5415,7 +5405,7 @@
         <v>45069</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA13" s="19"/>
     </row>
@@ -5423,30 +5413,30 @@
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="157" t="s">
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="120" t="s">
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="119">
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="122">
         <v>50</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="128"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>140</v>
@@ -5467,32 +5457,32 @@
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="152" t="s">
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="153"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="124" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="128">
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="119">
         <v>16</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="128" t="s">
+      <c r="N15" s="120"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="151"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="134"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>274</v>
@@ -5507,7 +5497,7 @@
         <v>45069</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="1" t="s">
@@ -5518,30 +5508,30 @@
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="152" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="153"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="124" t="s">
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="128">
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="119">
         <v>50</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="151"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="134"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>292</v>
@@ -5556,7 +5546,7 @@
         <v>45069</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -5564,30 +5554,30 @@
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="157" t="s">
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="120" t="s">
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="119">
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="122">
         <v>50</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="121"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="128"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>141</v>
@@ -5608,32 +5598,32 @@
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="128" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="120" t="s">
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="128">
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="119">
         <v>6</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="128" t="s">
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="151"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="134"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>276</v>
@@ -5648,7 +5638,7 @@
         <v>45069</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="1" t="s">
@@ -5659,30 +5649,30 @@
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="128" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="124" t="s">
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="125"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="128">
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="119">
         <v>50</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="151"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="134"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>293</v>
@@ -5697,40 +5687,40 @@
         <v>45069</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="37.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="128" t="s">
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="124" t="s">
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="128">
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="119">
         <v>50</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="151"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="134"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>294</v>
@@ -5745,40 +5735,40 @@
         <v>45069</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="3:28" ht="37.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119" t="s">
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120" t="s">
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="119">
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="122">
         <v>50</v>
       </c>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="121"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="128"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>142</v>
@@ -5799,32 +5789,32 @@
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120" t="s">
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="119">
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="122">
         <v>8</v>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119" t="s">
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="121"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="128"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>277</v>
@@ -5839,7 +5829,7 @@
         <v>45069</v>
       </c>
       <c r="Z22" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA22" s="19"/>
       <c r="AB22" s="1" t="s">
@@ -5850,30 +5840,30 @@
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119" t="s">
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120" t="s">
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="119">
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="122">
         <v>4</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="121"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="128"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>298</v>
@@ -5888,7 +5878,7 @@
         <v>45069</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA23" s="19"/>
     </row>
@@ -5896,30 +5886,30 @@
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119" t="s">
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="119">
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="122">
         <v>2</v>
       </c>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="121"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="128"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>143</v>
@@ -5934,7 +5924,7 @@
         <v>45069</v>
       </c>
       <c r="Z24" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA24" s="19"/>
     </row>
@@ -5942,30 +5932,30 @@
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119" t="s">
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="119">
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="122">
         <v>2</v>
       </c>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="128"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>300</v>
@@ -5980,7 +5970,7 @@
         <v>45069</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA25" s="19"/>
     </row>
@@ -5988,30 +5978,30 @@
       <c r="C26" s="83">
         <v>20</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158" t="s">
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159" t="s">
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="158">
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="130">
         <v>50</v>
       </c>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="160"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="132"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>144</v>
@@ -6032,32 +6022,32 @@
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119" t="s">
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="122">
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="129">
         <v>10</v>
       </c>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="119" t="s">
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="128"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>278</v>
@@ -6072,7 +6062,7 @@
         <v>45069</v>
       </c>
       <c r="Z27" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="1" t="s">
@@ -6083,32 +6073,32 @@
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120" t="s">
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
       <c r="M28" s="127">
         <v>4</v>
       </c>
       <c r="N28" s="127"/>
       <c r="O28" s="127"/>
-      <c r="P28" s="122" t="s">
+      <c r="P28" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="123"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="133"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>279</v>
@@ -6123,7 +6113,7 @@
         <v>45069</v>
       </c>
       <c r="Z28" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="1" t="s">
@@ -6132,32 +6122,32 @@
     </row>
     <row r="29" spans="3:28" ht="37.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119" t="s">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120" t="s">
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
       <c r="M29" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N29" s="127"/>
       <c r="O29" s="127"/>
-      <c r="P29" s="122" t="s">
+      <c r="P29" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="123"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="133"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>299</v>
@@ -6172,42 +6162,42 @@
         <v>45069</v>
       </c>
       <c r="Z29" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA29" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="3:28" ht="37.5">
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119" t="s">
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120" t="s">
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
       <c r="M30" s="127">
         <v>6</v>
       </c>
       <c r="N30" s="127"/>
       <c r="O30" s="127"/>
-      <c r="P30" s="122" t="s">
+      <c r="P30" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="123"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="133"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>280</v>
@@ -6222,7 +6212,7 @@
         <v>45069</v>
       </c>
       <c r="Z30" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="1" t="s">
@@ -6231,32 +6221,32 @@
     </row>
     <row r="31" spans="3:28" ht="37.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120" t="s">
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
       <c r="M31" s="127" t="s">
         <v>12</v>
       </c>
       <c r="N31" s="127"/>
       <c r="O31" s="127"/>
-      <c r="P31" s="122" t="s">
+      <c r="P31" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="123"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="133"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>297</v>
@@ -6271,40 +6261,40 @@
         <v>45069</v>
       </c>
       <c r="Z31" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA31" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="3:28" ht="37.5">
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119" t="s">
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120" t="s">
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="119">
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="122">
         <v>50</v>
       </c>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="128"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>145</v>
@@ -6323,32 +6313,32 @@
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="128" t="s">
+      <c r="D33" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="128" t="s">
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="120" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="128">
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="119">
         <v>4</v>
       </c>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="122" t="s">
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="123"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="133"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>281</v>
@@ -6363,7 +6353,7 @@
         <v>45069</v>
       </c>
       <c r="Z33" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="1" t="s">
@@ -6374,30 +6364,30 @@
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="124" t="s">
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="119">
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="122">
         <v>80</v>
       </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="123"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="133"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>296</v>
@@ -6412,40 +6402,38 @@
         <v>45069</v>
       </c>
       <c r="Z34" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA34" s="19" t="s">
-        <v>306</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AA34" s="19"/>
     </row>
     <row r="35" spans="3:28" ht="37.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119" t="s">
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120" t="s">
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="119">
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="122">
         <v>50</v>
       </c>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="121"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="128"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>146</v>
@@ -6464,32 +6452,32 @@
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119" t="s">
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120" t="s">
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="119">
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="122">
         <v>4</v>
       </c>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="122" t="s">
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="123"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="133"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>282</v>
@@ -6504,7 +6492,7 @@
         <v>45069</v>
       </c>
       <c r="Z36" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="1" t="s">
@@ -6515,30 +6503,30 @@
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119" t="s">
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="124" t="s">
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="125"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="119">
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="122">
         <v>100</v>
       </c>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="123"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="133"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>295</v>
@@ -6553,7 +6541,7 @@
         <v>45069</v>
       </c>
       <c r="Z37" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA37" s="19"/>
     </row>
@@ -6561,30 +6549,30 @@
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119" t="s">
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120" t="s">
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="119">
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="122">
         <v>50</v>
       </c>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="121"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="128"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>147</v>
@@ -6605,32 +6593,32 @@
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="128" t="s">
+      <c r="D39" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="128" t="s">
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="124" t="s">
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="125"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="128" t="s">
+      <c r="K39" s="124"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="129"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="128" t="s">
+      <c r="N39" s="120"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="119" t="s">
         <v>285</v>
       </c>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="151"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="134"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>283</v>
@@ -6645,7 +6633,7 @@
         <v>45069</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA39" s="19"/>
       <c r="AB39" s="1" t="s">
@@ -6656,32 +6644,32 @@
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="128" t="s">
+      <c r="D40" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="128" t="s">
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="124" t="s">
+      <c r="H40" s="120"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="125"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="128" t="s">
+      <c r="K40" s="124"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="129"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="128" t="s">
+      <c r="N40" s="120"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="151"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="134"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>284</v>
@@ -6696,7 +6684,7 @@
         <v>45069</v>
       </c>
       <c r="Z40" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="1" t="s">
@@ -6705,22 +6693,22 @@
     </row>
     <row r="41" spans="3:28">
       <c r="C41" s="11"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="151"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="134"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6731,22 +6719,22 @@
     </row>
     <row r="42" spans="3:28">
       <c r="C42" s="4"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="151"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="134"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6757,22 +6745,22 @@
     </row>
     <row r="43" spans="3:28">
       <c r="C43" s="4"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="151"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="134"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6783,22 +6771,22 @@
     </row>
     <row r="44" spans="3:28">
       <c r="C44" s="4"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="151"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="134"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6809,22 +6797,22 @@
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="4"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="151"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="134"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6835,22 +6823,22 @@
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="4"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="151"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="134"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6861,22 +6849,22 @@
     </row>
     <row r="47" spans="3:28">
       <c r="C47" s="4"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="151"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="134"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6887,22 +6875,22 @@
     </row>
     <row r="48" spans="3:28">
       <c r="C48" s="4"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="129"/>
-      <c r="S48" s="151"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="134"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6913,22 +6901,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="151"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="134"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6939,22 +6927,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="128"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
-      <c r="S50" s="151"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="134"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6965,22 +6953,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="123"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="133"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6991,22 +6979,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="123"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="129"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="133"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -7017,22 +7005,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="123"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="133"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -7042,22 +7030,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="122"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="123"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="129"/>
+      <c r="P54" s="129"/>
+      <c r="Q54" s="129"/>
+      <c r="R54" s="129"/>
+      <c r="S54" s="133"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -7067,155 +7055,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="123"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="129"/>
+      <c r="P55" s="129"/>
+      <c r="Q55" s="129"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="133"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="123"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="129"/>
+      <c r="O56" s="129"/>
+      <c r="P56" s="129"/>
+      <c r="Q56" s="129"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="133"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="123"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="133"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="122"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="123"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="129"/>
+      <c r="S58" s="133"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
-      <c r="M59" s="122"/>
-      <c r="N59" s="122"/>
-      <c r="O59" s="122"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="123"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="133"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="122"/>
-      <c r="N60" s="122"/>
-      <c r="O60" s="122"/>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="122"/>
-      <c r="R60" s="122"/>
-      <c r="S60" s="123"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+      <c r="G60" s="129"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="133"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="122"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="123"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="133"/>
     </row>
     <row r="62" spans="3:27" ht="19.5" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
-      <c r="N62" s="155"/>
-      <c r="O62" s="155"/>
-      <c r="P62" s="155"/>
-      <c r="Q62" s="155"/>
-      <c r="R62" s="155"/>
-      <c r="S62" s="156"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="139"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="139"/>
+      <c r="R62" s="139"/>
+      <c r="S62" s="140"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:AA40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -7232,6 +7220,274 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="D34:F34"/>
@@ -7256,274 +7512,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7558,71 +7546,71 @@
   <sheetData>
     <row r="1" spans="3:27" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="182">
+      <c r="Q3" s="163">
         <v>45069</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7639,53 +7627,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:27" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -7710,28 +7698,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="176" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -7746,24 +7734,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171" t="s">
+      <c r="H8" s="169"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="167"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7822,24 +7810,24 @@
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="164" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="168" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171" t="s">
+      <c r="H10" s="169"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="173"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="183"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7898,24 +7886,24 @@
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="164" t="s">
+      <c r="E12" s="169"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171" t="s">
+      <c r="H12" s="169"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="167"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7944,10 +7932,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="163"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="178"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7970,10 +7958,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="166"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8556,22 +8544,22 @@
     </row>
     <row r="37" spans="3:27" ht="19.5" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="156"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="139"/>
+      <c r="Q37" s="139"/>
+      <c r="R37" s="139"/>
+      <c r="S37" s="140"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8715,21 +8703,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8746,6 +8719,21 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8757,7 +8745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B4781-A492-4B58-8A10-539DD8C535C6}">
   <dimension ref="C1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O5" zoomScale="62" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="62" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="Z12" sqref="Y12:Z12"/>
     </sheetView>
   </sheetViews>
@@ -8780,71 +8768,71 @@
   <sheetData>
     <row r="1" spans="3:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:28" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
     </row>
     <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="182">
+      <c r="Q3" s="163">
         <v>45069</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -8862,53 +8850,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="140" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="146"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="159"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="3:28" ht="19.5" thickBot="1">
-      <c r="C6" s="137"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="160"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>101</v>
@@ -8933,28 +8921,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="164" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="166"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>124</v>
@@ -8969,24 +8957,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="164" t="s">
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="170"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="174"/>
       <c r="J8" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="170"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="174"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -9045,16 +9033,16 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="164" t="s">
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="170"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="174"/>
       <c r="J10" s="184" t="s">
         <v>121</v>
       </c>
@@ -9126,11 +9114,11 @@
       </c>
       <c r="E12" s="188"/>
       <c r="F12" s="189"/>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="170"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="174"/>
       <c r="J12" s="184" t="s">
         <v>122</v>
       </c>
@@ -9197,24 +9185,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="164" t="s">
+      <c r="E14" s="169"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="164" t="s">
+      <c r="H14" s="169"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="170"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="174"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -9243,10 +9231,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="163"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="178"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -9269,10 +9257,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="166"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="170"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9855,22 +9843,22 @@
     </row>
     <row r="39" spans="3:27" ht="19.5" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="156"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="140"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9996,18 +9984,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -10024,12 +10006,18 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10075,84 +10063,84 @@
   <sheetData>
     <row r="1" spans="3:34" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:34" ht="37.15" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
     </row>
     <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="180" t="s">
+      <c r="M3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="182">
+      <c r="R3" s="163">
         <v>45069</v>
       </c>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="183"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -10167,75 +10155,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226" t="s">
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226" t="s">
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="228" t="s">
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="229"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="226" t="s">
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="226" t="s">
+      <c r="Q5" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="226"/>
-      <c r="S5" s="226"/>
-      <c r="T5" s="226" t="s">
+      <c r="R5" s="192"/>
+      <c r="S5" s="192"/>
+      <c r="T5" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="226"/>
-      <c r="V5" s="226"/>
-      <c r="W5" s="226" t="s">
+      <c r="U5" s="192"/>
+      <c r="V5" s="192"/>
+      <c r="W5" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="234"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="200"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="3:34" ht="19.5" thickBot="1">
-      <c r="C6" s="225"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="232"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="227"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="227"/>
-      <c r="T6" s="227"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="227"/>
-      <c r="W6" s="227"/>
-      <c r="X6" s="227"/>
-      <c r="Y6" s="227"/>
-      <c r="Z6" s="235"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="201"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>101</v>
@@ -10260,43 +10248,43 @@
       <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="220" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="221"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="220" t="s">
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="222"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="220" t="s">
+      <c r="Q7" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="R7" s="221"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="221" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="203" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="221"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="213"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="215"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="214"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>124</v>
@@ -10311,39 +10299,39 @@
       <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="201"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="200" t="s">
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203" t="s">
+      <c r="H8" s="206"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="207" t="s">
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
       <c r="P8" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="207" t="s">
+      <c r="Q8" s="208" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207" t="s">
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="207"/>
-      <c r="V8" s="207"/>
+      <c r="U8" s="208"/>
+      <c r="V8" s="208"/>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
       <c r="Y8" s="69"/>
@@ -10362,39 +10350,39 @@
       <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="200" t="s">
+      <c r="E9" s="206"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="207" t="s">
+      <c r="H9" s="206"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="223" t="s">
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="208"/>
-      <c r="O9" s="209"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="211"/>
       <c r="P9" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="207" t="s">
+      <c r="Q9" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207" t="s">
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="208" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="207"/>
-      <c r="V9" s="207"/>
+      <c r="U9" s="208"/>
+      <c r="V9" s="208"/>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
       <c r="Y9" s="69"/>
@@ -10413,43 +10401,43 @@
       <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="196" t="s">
+      <c r="D10" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="196" t="s">
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="220" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="217"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="159" t="s">
+      <c r="H10" s="221"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="219" t="s">
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
       <c r="P10" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q10" s="207" t="s">
+      <c r="Q10" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="207"/>
-      <c r="S10" s="207"/>
-      <c r="T10" s="207" t="s">
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="207"/>
-      <c r="V10" s="207"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="216"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="218"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>243</v>
@@ -10464,7 +10452,7 @@
         <v>45071</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH10" s="21"/>
     </row>
@@ -10507,53 +10495,53 @@
         <v>45071</v>
       </c>
       <c r="AG11" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH11" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="3:34" ht="34.9" customHeight="1">
       <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="200" t="s">
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203" t="s">
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="210" t="s">
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
       <c r="P12" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="207" t="s">
+      <c r="Q12" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="R12" s="207"/>
-      <c r="S12" s="207"/>
-      <c r="T12" s="207" t="s">
+      <c r="R12" s="208"/>
+      <c r="S12" s="208"/>
+      <c r="T12" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="207"/>
-      <c r="V12" s="207"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="216"/>
+      <c r="U12" s="208"/>
+      <c r="V12" s="208"/>
+      <c r="W12" s="216"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="218"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>244</v>
@@ -10568,7 +10556,7 @@
         <v>45071</v>
       </c>
       <c r="AG12" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
@@ -10599,7 +10587,7 @@
       <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD13" s="21" t="s">
         <v>258</v>
@@ -10611,49 +10599,49 @@
         <v>45071</v>
       </c>
       <c r="AG13" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH13" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="3:34" ht="34.9" customHeight="1">
       <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="200" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="201"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203" t="s">
+      <c r="H14" s="206"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="210" t="s">
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
       <c r="P14" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="207" t="s">
+      <c r="Q14" s="208" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="207"/>
-      <c r="S14" s="207"/>
-      <c r="T14" s="207" t="s">
+      <c r="R14" s="208"/>
+      <c r="S14" s="208"/>
+      <c r="T14" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="207"/>
-      <c r="V14" s="207"/>
+      <c r="U14" s="208"/>
+      <c r="V14" s="208"/>
       <c r="W14" s="68"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -10672,7 +10660,7 @@
         <v>45071</v>
       </c>
       <c r="AG14" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH14" s="21"/>
     </row>
@@ -10703,7 +10691,7 @@
       <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD15" s="21" t="s">
         <v>258</v>
@@ -10715,49 +10703,49 @@
         <v>45071</v>
       </c>
       <c r="AG15" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH15" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="3:34" ht="34.9" customHeight="1">
       <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="208"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="200" t="s">
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203" t="s">
+      <c r="H16" s="206"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="210" t="s">
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="210"/>
-      <c r="O16" s="210"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
       <c r="P16" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="207" t="s">
+      <c r="Q16" s="208" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="207"/>
-      <c r="S16" s="207"/>
-      <c r="T16" s="207" t="s">
+      <c r="R16" s="208"/>
+      <c r="S16" s="208"/>
+      <c r="T16" s="208" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="207"/>
-      <c r="V16" s="207"/>
+      <c r="U16" s="208"/>
+      <c r="V16" s="208"/>
       <c r="W16" s="68"/>
       <c r="X16" s="69"/>
       <c r="Y16" s="69"/>
@@ -10776,7 +10764,7 @@
         <v>45071</v>
       </c>
       <c r="AG16" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH16" s="21"/>
     </row>
@@ -10807,7 +10795,7 @@
       <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD17" s="21" t="s">
         <v>258</v>
@@ -10819,56 +10807,56 @@
         <v>45071</v>
       </c>
       <c r="AG17" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH17" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="3:34" ht="34.9" customHeight="1">
       <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="200" t="s">
+      <c r="D18" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="200" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203" t="s">
+      <c r="H18" s="206"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="210" t="s">
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
       <c r="P18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="207" t="s">
+      <c r="Q18" s="208" t="s">
         <v>188</v>
       </c>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207" t="s">
+      <c r="R18" s="208"/>
+      <c r="S18" s="208"/>
+      <c r="T18" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="208"/>
       <c r="W18" s="68"/>
       <c r="X18" s="69"/>
       <c r="Y18" s="69"/>
       <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD18" s="21" t="s">
         <v>256</v>
@@ -10880,7 +10868,7 @@
         <v>45071</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH18" s="21"/>
     </row>
@@ -10923,49 +10911,49 @@
         <v>45071</v>
       </c>
       <c r="AG19" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH19" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="34.9" customHeight="1">
       <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="200" t="s">
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203" t="s">
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="210" t="s">
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="219" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
       <c r="P20" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="207" t="s">
+      <c r="Q20" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207" t="s">
+      <c r="R20" s="208"/>
+      <c r="S20" s="208"/>
+      <c r="T20" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U20" s="207"/>
-      <c r="V20" s="207"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="208"/>
       <c r="W20" s="68"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="69"/>
@@ -10984,7 +10972,7 @@
         <v>45071</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH20" s="21"/>
     </row>
@@ -11027,49 +11015,49 @@
         <v>45071</v>
       </c>
       <c r="AG21" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH21" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="3:34" ht="34.9" customHeight="1">
       <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="208"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="200" t="s">
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203" t="s">
+      <c r="H22" s="206"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="210" t="s">
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
       <c r="P22" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="207" t="s">
+      <c r="Q22" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="207"/>
-      <c r="S22" s="207"/>
-      <c r="T22" s="207" t="s">
+      <c r="R22" s="208"/>
+      <c r="S22" s="208"/>
+      <c r="T22" s="208" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="207"/>
-      <c r="V22" s="207"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="208"/>
       <c r="W22" s="68"/>
       <c r="X22" s="69"/>
       <c r="Y22" s="69"/>
@@ -11088,7 +11076,7 @@
         <v>45071</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH22" s="21"/>
     </row>
@@ -11131,49 +11119,49 @@
         <v>45071</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="3:34" ht="34.9" customHeight="1">
       <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="200" t="s">
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="201"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="212" t="s">
+      <c r="H24" s="206"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="210" t="s">
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="210"/>
-      <c r="O24" s="210"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
       <c r="P24" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q24" s="207" t="s">
+      <c r="Q24" s="208" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="207" t="s">
+      <c r="R24" s="208"/>
+      <c r="S24" s="208"/>
+      <c r="T24" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="207"/>
-      <c r="V24" s="207"/>
+      <c r="U24" s="208"/>
+      <c r="V24" s="208"/>
       <c r="W24" s="68"/>
       <c r="X24" s="69"/>
       <c r="Y24" s="69"/>
@@ -11192,7 +11180,7 @@
         <v>45071</v>
       </c>
       <c r="AG24" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH24" s="21"/>
     </row>
@@ -11223,7 +11211,7 @@
       <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD25" s="21" t="s">
         <v>258</v>
@@ -11235,49 +11223,49 @@
         <v>45071</v>
       </c>
       <c r="AG25" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH25" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="3:34" ht="34.9" customHeight="1">
       <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="200" t="s">
+      <c r="E26" s="206"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="201"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="207" t="s">
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="211" t="s">
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="225" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
       <c r="P26" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q26" s="207" t="s">
+      <c r="Q26" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="R26" s="207"/>
-      <c r="S26" s="207"/>
-      <c r="T26" s="207" t="s">
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="207"/>
-      <c r="V26" s="207"/>
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
       <c r="W26" s="68"/>
       <c r="X26" s="69"/>
       <c r="Y26" s="69"/>
@@ -11296,7 +11284,7 @@
         <v>45071</v>
       </c>
       <c r="AG26" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH26" s="21"/>
     </row>
@@ -11327,7 +11315,7 @@
       <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>196</v>
@@ -11339,49 +11327,49 @@
         <v>45071</v>
       </c>
       <c r="AG27" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH27" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="3:34" ht="34.9" customHeight="1">
       <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="200" t="s">
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="208"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="210" t="s">
+      <c r="H28" s="210"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="219" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="207"/>
-      <c r="L28" s="207"/>
-      <c r="M28" s="207" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
       <c r="P28" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q28" s="207" t="s">
+      <c r="Q28" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="R28" s="207"/>
-      <c r="S28" s="207"/>
-      <c r="T28" s="210" t="s">
+      <c r="R28" s="208"/>
+      <c r="S28" s="208"/>
+      <c r="T28" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="U28" s="207"/>
-      <c r="V28" s="207"/>
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
       <c r="W28" s="68"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
@@ -11400,7 +11388,7 @@
         <v>45071</v>
       </c>
       <c r="AG28" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH28" s="21"/>
     </row>
@@ -11431,7 +11419,7 @@
       <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD29" s="22" t="s">
         <v>261</v>
@@ -11443,49 +11431,49 @@
         <v>45071</v>
       </c>
       <c r="AG29" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH29" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="34.9" customHeight="1">
       <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="193" t="s">
+      <c r="D30" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="193" t="s">
+      <c r="E30" s="230"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="207" t="s">
+      <c r="H30" s="230"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="207" t="s">
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="208" t="s">
         <v>187</v>
       </c>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
+      <c r="N30" s="208"/>
+      <c r="O30" s="208"/>
       <c r="P30" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="Q30" s="207" t="s">
+      <c r="Q30" s="208" t="s">
         <v>203</v>
       </c>
-      <c r="R30" s="207"/>
-      <c r="S30" s="207"/>
-      <c r="T30" s="207" t="s">
+      <c r="R30" s="208"/>
+      <c r="S30" s="208"/>
+      <c r="T30" s="208" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="207"/>
-      <c r="V30" s="207"/>
+      <c r="U30" s="208"/>
+      <c r="V30" s="208"/>
       <c r="W30" s="68"/>
       <c r="X30" s="69"/>
       <c r="Y30" s="69"/>
@@ -11504,7 +11492,7 @@
         <v>45071</v>
       </c>
       <c r="AG30" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH30" s="21"/>
     </row>
@@ -11547,49 +11535,49 @@
         <v>45071</v>
       </c>
       <c r="AG31" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH31" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="3:34" ht="34.9" customHeight="1">
       <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="196" t="s">
+      <c r="D32" s="220" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="196" t="s">
+      <c r="E32" s="226"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="159" t="s">
+      <c r="H32" s="226"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="204" t="s">
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="205"/>
-      <c r="O32" s="206"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="228"/>
       <c r="P32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q32" s="196" t="s">
+      <c r="Q32" s="220" t="s">
         <v>208</v>
       </c>
-      <c r="R32" s="197"/>
-      <c r="S32" s="198"/>
-      <c r="T32" s="204" t="s">
+      <c r="R32" s="226"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="216" t="s">
         <v>209</v>
       </c>
-      <c r="U32" s="205"/>
-      <c r="V32" s="206"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="228"/>
       <c r="W32" s="72"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
@@ -11608,39 +11596,39 @@
       <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="200" t="s">
+      <c r="D33" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="200" t="s">
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="201"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203" t="s">
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="204" t="s">
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="216" t="s">
         <v>210</v>
       </c>
-      <c r="N33" s="205"/>
-      <c r="O33" s="206"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="228"/>
       <c r="P33" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="196" t="s">
+      <c r="Q33" s="220" t="s">
         <v>211</v>
       </c>
-      <c r="R33" s="197"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="204" t="s">
+      <c r="R33" s="226"/>
+      <c r="S33" s="227"/>
+      <c r="T33" s="216" t="s">
         <v>212</v>
       </c>
-      <c r="U33" s="205"/>
-      <c r="V33" s="206"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="228"/>
       <c r="W33" s="72"/>
       <c r="X33" s="73"/>
       <c r="Y33" s="73"/>
@@ -11659,43 +11647,43 @@
       <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="200" t="s">
+      <c r="D34" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="200" t="s">
+      <c r="E34" s="206"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="203" t="s">
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="196" t="s">
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="N34" s="197"/>
-      <c r="O34" s="198"/>
+      <c r="N34" s="226"/>
+      <c r="O34" s="227"/>
       <c r="P34" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="196" t="s">
+      <c r="Q34" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="197"/>
-      <c r="S34" s="198"/>
-      <c r="T34" s="204" t="s">
+      <c r="R34" s="226"/>
+      <c r="S34" s="227"/>
+      <c r="T34" s="216" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="205"/>
-      <c r="V34" s="206"/>
-      <c r="W34" s="190"/>
-      <c r="X34" s="191"/>
-      <c r="Y34" s="191"/>
-      <c r="Z34" s="192"/>
+      <c r="U34" s="217"/>
+      <c r="V34" s="228"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="233"/>
+      <c r="Y34" s="233"/>
+      <c r="Z34" s="234"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>124</v>
@@ -11710,43 +11698,43 @@
       <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="193" t="s">
+      <c r="D35" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="193" t="s">
+      <c r="E35" s="230"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="229" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="194"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196" t="s">
+      <c r="H35" s="230"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="197"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="196" t="s">
+      <c r="K35" s="226"/>
+      <c r="L35" s="227"/>
+      <c r="M35" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="N35" s="197"/>
-      <c r="O35" s="198"/>
+      <c r="N35" s="226"/>
+      <c r="O35" s="227"/>
       <c r="P35" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="Q35" s="196" t="s">
+      <c r="Q35" s="220" t="s">
         <v>218</v>
       </c>
-      <c r="R35" s="197"/>
-      <c r="S35" s="198"/>
-      <c r="T35" s="199" t="s">
+      <c r="R35" s="226"/>
+      <c r="S35" s="227"/>
+      <c r="T35" s="235" t="s">
         <v>219</v>
       </c>
-      <c r="U35" s="197"/>
-      <c r="V35" s="198"/>
-      <c r="W35" s="190"/>
-      <c r="X35" s="191"/>
-      <c r="Y35" s="191"/>
-      <c r="Z35" s="192"/>
+      <c r="U35" s="226"/>
+      <c r="V35" s="227"/>
+      <c r="W35" s="232"/>
+      <c r="X35" s="233"/>
+      <c r="Y35" s="233"/>
+      <c r="Z35" s="234"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>124</v>
@@ -12551,29 +12539,29 @@
     </row>
     <row r="60" spans="3:34" ht="19.5" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="155"/>
-      <c r="Z60" s="156"/>
+      <c r="W60" s="139"/>
+      <c r="X60" s="139"/>
+      <c r="Y60" s="139"/>
+      <c r="Z60" s="140"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12627,29 +12615,92 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AC2:AF3"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
     <mergeCell ref="W7:Z7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
@@ -12674,92 +12725,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AC2:AF3"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12797,64 +12785,64 @@
   <sheetData>
     <row r="1" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:32" ht="47.45" customHeight="1">
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="261"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="238"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
     </row>
     <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="162"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="180" t="s">
+      <c r="L3" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12867,10 +12855,10 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
     </row>
     <row r="4" spans="2:32" ht="33.75" thickBot="1">
       <c r="B4" s="2"/>
@@ -12906,71 +12894,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="239" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="262"/>
-      <c r="K5" s="262"/>
-      <c r="L5" s="262" t="s">
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
-      <c r="O5" s="262" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="262" t="s">
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239" t="s">
         <v>164</v>
       </c>
-      <c r="S5" s="262"/>
-      <c r="T5" s="262"/>
-      <c r="U5" s="262" t="s">
+      <c r="S5" s="239"/>
+      <c r="T5" s="239"/>
+      <c r="U5" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="262"/>
-      <c r="W5" s="262"/>
-      <c r="X5" s="264"/>
+      <c r="V5" s="239"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="241"/>
       <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B6" s="137"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="265"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="242"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>101</v>
@@ -12995,40 +12983,40 @@
       <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="243" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="251" t="s">
+      <c r="D7" s="244"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="252"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="248" t="s">
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="246" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="254"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256" t="s">
+      <c r="J7" s="247"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="249" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="257"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="248" t="s">
+      <c r="M7" s="250"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="246" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="236" t="s">
+      <c r="P7" s="247"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="S7" s="191"/>
-      <c r="T7" s="237"/>
-      <c r="U7" s="238"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="240"/>
+      <c r="S7" s="233"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="256"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>124</v>
@@ -13043,36 +13031,36 @@
       <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="245" t="s">
+      <c r="C8" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="246"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="245" t="s">
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="246"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="236" t="s">
+      <c r="G8" s="262"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="252" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="236" t="s">
+      <c r="J8" s="259"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="252" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="243"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="248" t="s">
+      <c r="M8" s="259"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="246" t="s">
         <v>227</v>
       </c>
-      <c r="P8" s="249"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="236" t="s">
+      <c r="P8" s="264"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="252" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="243"/>
-      <c r="T8" s="244"/>
+      <c r="S8" s="259"/>
+      <c r="T8" s="260"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="80"/>
@@ -13117,7 +13105,7 @@
       <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB9" s="21" t="s">
         <v>267</v>
@@ -13133,34 +13121,34 @@
       <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="190" t="s">
+      <c r="D10" s="257"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="232" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="241"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="236" t="s">
+      <c r="G10" s="257"/>
+      <c r="H10" s="258"/>
+      <c r="I10" s="252" t="s">
         <v>229</v>
       </c>
-      <c r="J10" s="243"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="236" t="s">
+      <c r="J10" s="259"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="252" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="243"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="236" t="s">
+      <c r="M10" s="259"/>
+      <c r="N10" s="260"/>
+      <c r="O10" s="252" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="243"/>
-      <c r="T10" s="244"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="252"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="260"/>
       <c r="U10" s="78"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
@@ -13661,22 +13649,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
@@ -13693,6 +13665,22 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="R5:T6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
